--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,31 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/sp58_st-andrews_ac_uk/Documents/gen_lang_hand_meta/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{6528A0F0-9A9E-3341-8657-1EBDE80C8D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB4EA6C9-29EE-2540-9977-7574F73EDE1C}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{6528A0F0-9A9E-3341-8657-1EBDE80C8D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E4D625B6-676E-014E-901D-70BB45F559E3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="SLI-All" sheetId="1" r:id="rId1"/>
     <sheet name="RD-All" sheetId="3" r:id="rId2"/>
-    <sheet name="RD-All2" sheetId="16" r:id="rId3"/>
-    <sheet name="Combined3" sheetId="15" r:id="rId4"/>
-    <sheet name="Combined2" sheetId="12" r:id="rId5"/>
+    <sheet name="Combined2" sheetId="12" r:id="rId3"/>
+    <sheet name="Combined-Male2" sheetId="13" r:id="rId4"/>
+    <sheet name="Combined-Female2" sheetId="14" r:id="rId5"/>
     <sheet name="Peters - Filippo" sheetId="20" r:id="rId6"/>
     <sheet name="Peters - Silvia" sheetId="21" r:id="rId7"/>
     <sheet name="Peters_all" sheetId="22" r:id="rId8"/>
     <sheet name="Combined-Male3" sheetId="17" r:id="rId9"/>
-    <sheet name="Combined-Male2" sheetId="13" r:id="rId10"/>
-    <sheet name="Combined-Male" sheetId="11" r:id="rId11"/>
-    <sheet name="Combined-Female3" sheetId="18" r:id="rId12"/>
-    <sheet name="Combined-Female2" sheetId="14" r:id="rId13"/>
-    <sheet name="Combined-Female" sheetId="8" r:id="rId14"/>
-    <sheet name="SLI-Female" sheetId="5" r:id="rId15"/>
-    <sheet name="SLI-Male" sheetId="6" r:id="rId16"/>
-    <sheet name="RD-Male2" sheetId="19" r:id="rId17"/>
-    <sheet name="RD-Male" sheetId="9" r:id="rId18"/>
-    <sheet name="RD-Female" sheetId="10" r:id="rId19"/>
-    <sheet name="google data" sheetId="7" r:id="rId20"/>
+    <sheet name="Combined-Male" sheetId="11" r:id="rId10"/>
+    <sheet name="Combined-Female3" sheetId="18" r:id="rId11"/>
+    <sheet name="Combined-Female" sheetId="8" r:id="rId12"/>
+    <sheet name="SLI-Female" sheetId="5" r:id="rId13"/>
+    <sheet name="SLI-Male" sheetId="6" r:id="rId14"/>
+    <sheet name="RD-Male2" sheetId="19" r:id="rId15"/>
+    <sheet name="RD-Male" sheetId="9" r:id="rId16"/>
+    <sheet name="RD-Female" sheetId="10" r:id="rId17"/>
+    <sheet name="google data" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="111">
   <si>
     <t xml:space="preserve">TD Left-Handers </t>
   </si>
@@ -97,9 +95,6 @@
   </si>
   <si>
     <t>York</t>
-  </si>
-  <si>
-    <t>YORK</t>
   </si>
   <si>
     <t>Manchester</t>
@@ -609,10 +604,7 @@
     <t>Females</t>
   </si>
   <si>
-    <t>York_old</t>
-  </si>
-  <si>
-    <t>York_ALSPAC</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -987,13 +979,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1311,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C58A0-AE3B-164A-826D-BCBAEC3E436B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,16 +1412,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
         <v>15</v>
-      </c>
-      <c r="B6" s="6">
-        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>67</v>
       </c>
       <c r="D6" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6">
         <v>61</v>
@@ -1437,7 +1429,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -1461,226 +1453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB91A93-20D8-5240-A569-93FEDF0E77E0}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <f>16+105</f>
-        <v>121</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <f>35+360</f>
-        <v>395</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <f>15+87</f>
-        <v>102</v>
-      </c>
-      <c r="D3">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <f>37+248</f>
-        <v>285</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <f>27+183</f>
-        <v>210</v>
-      </c>
-      <c r="D4">
-        <v>218</v>
-      </c>
-      <c r="E4" s="6">
-        <f>218+1468</f>
-        <v>1686</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <f>19+158</f>
-        <v>177</v>
-      </c>
-      <c r="D5">
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <f>51+331</f>
-        <v>382</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <f>37+112</f>
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <v>218</v>
-      </c>
-      <c r="E6" s="6">
-        <f>218+1468</f>
-        <v>1686</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <f>24+181</f>
-        <v>205</v>
-      </c>
-      <c r="D7">
-        <v>218</v>
-      </c>
-      <c r="E7" s="6">
-        <f>218+1468</f>
-        <v>1686</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <f>5+23</f>
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <f>8+41</f>
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="44">
-        <v>745</v>
-      </c>
-      <c r="C9" s="44">
-        <f>B9+3437</f>
-        <v>4182</v>
-      </c>
-      <c r="D9" s="44">
-        <v>14359</v>
-      </c>
-      <c r="E9" s="44">
-        <f>93249+D9</f>
-        <v>107608</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D6BE-05BE-9E47-87D8-D02BC964712E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:F9"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1709,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1731,7 +1508,7 @@
         <v>395</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1753,12 +1530,12 @@
         <v>285</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -1775,12 +1552,12 @@
         <v>1686</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -1797,12 +1574,12 @@
         <v>382</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -1819,12 +1596,12 @@
         <v>1686</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -1841,12 +1618,12 @@
         <v>1686</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1863,12 +1640,12 @@
         <v>382</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1885,7 +1662,7 @@
         <v>1686</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED4AAC-7EBB-2845-BD04-9344117E7582}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1920,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1942,7 +1719,7 @@
         <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1964,7 +1741,7 @@
         <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1986,7 +1763,7 @@
         <v>1272</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2008,12 +1785,12 @@
         <v>526</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -2030,7 +1807,7 @@
         <v>524</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2038,197 +1815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078E827-9226-664E-A5DC-9CAE983779B2}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <f>6+77</f>
-        <v>83</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <f>21+250</f>
-        <v>271</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <f>6+49</f>
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <f>12+141</f>
-        <v>153</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <f>18+140</f>
-        <v>158</v>
-      </c>
-      <c r="D4">
-        <v>136</v>
-      </c>
-      <c r="E4" s="6">
-        <f>136+1136</f>
-        <v>1272</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <f>43+198</f>
-        <v>241</v>
-      </c>
-      <c r="D5">
-        <v>69</v>
-      </c>
-      <c r="E5">
-        <f>69+457</f>
-        <v>526</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f>8+38</f>
-        <v>46</v>
-      </c>
-      <c r="D6" s="5">
-        <v>54</v>
-      </c>
-      <c r="E6" s="5">
-        <f>54+470</f>
-        <v>524</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <f>16+81</f>
-        <v>97</v>
-      </c>
-      <c r="D7" s="5">
-        <v>79</v>
-      </c>
-      <c r="E7" s="5">
-        <f>79+724</f>
-        <v>803</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8">
-        <v>533</v>
-      </c>
-      <c r="C8">
-        <f>533+2408</f>
-        <v>2941</v>
-      </c>
-      <c r="D8">
-        <f>11227</f>
-        <v>11227</v>
-      </c>
-      <c r="E8">
-        <f>D8+87449</f>
-        <v>98676</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A136558-2741-CF40-BCF8-76D19D3ACA21}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2259,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2281,7 +1868,7 @@
         <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2303,12 +1890,12 @@
         <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -2325,12 +1912,12 @@
         <v>1272</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -2347,12 +1934,12 @@
         <v>526</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -2369,12 +1956,12 @@
         <v>524</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -2391,12 +1978,12 @@
         <v>803</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -2413,12 +2000,12 @@
         <v>526</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -2435,7 +2022,7 @@
         <v>1272</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C273FEF-7270-914F-9008-FD5984BFD23F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2560,7 +2147,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f>'google data'!G49</f>
@@ -2584,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92E7F40-3DCB-9F42-8DBE-43E3A4FFD2E1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2697,7 +2284,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f>'google data'!G48</f>
@@ -2721,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A09058-EDA2-794D-9976-A5B67BA13623}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2750,7 +2337,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f>'google data'!G39</f>
@@ -2815,7 +2402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282C54D-ECEF-5B4A-B2FE-0D87E182EEEB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2844,7 +2431,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f>'google data'!G39</f>
@@ -2907,7 +2494,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -2929,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AA266-2735-8C43-9155-1133034A0A26}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2958,7 +2545,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f>'google data'!G40</f>
@@ -3021,7 +2608,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -3043,211 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>302</v>
-      </c>
-      <c r="D2" s="5">
-        <v>297</v>
-      </c>
-      <c r="E2" s="5">
-        <f>297+2192</f>
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <f>28+70+137</f>
-        <v>235</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <f>7+33+17</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <f>223+43</f>
-        <v>266</v>
-      </c>
-      <c r="D4">
-        <f>70+50</f>
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <f>526+382</f>
-        <v>908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <f>98+16</f>
-        <v>114</v>
-      </c>
-      <c r="D5">
-        <v>354</v>
-      </c>
-      <c r="E5" s="6">
-        <f>354+2604</f>
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5">
-        <v>280</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <f>31+203</f>
-        <v>234</v>
-      </c>
-      <c r="D7">
-        <v>136</v>
-      </c>
-      <c r="E7">
-        <f>136+914</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56963500-CA4D-E646-BFD5-F3896B495C2F}">
   <dimension ref="A1:V56"/>
   <sheetViews>
@@ -3267,93 +2650,93 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F3" s="4">
         <v>50</v>
@@ -3392,12 +2775,12 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4">
         <v>48</v>
@@ -3432,12 +2815,12 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
         <v>98</v>
@@ -3472,14 +2855,14 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4">
         <v>133</v>
@@ -3518,12 +2901,12 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4">
         <v>92</v>
@@ -3558,12 +2941,12 @@
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2">
         <v>225</v>
@@ -3598,14 +2981,14 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2">
         <v>183</v>
@@ -3644,12 +3027,12 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2">
         <v>140</v>
@@ -3684,12 +3067,12 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2">
         <v>323</v>
@@ -3723,17 +3106,17 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3756,12 +3139,12 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3784,12 +3167,12 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3811,17 +3194,17 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2">
         <v>87</v>
@@ -3860,12 +3243,12 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2">
         <v>49</v>
@@ -3900,12 +3283,12 @@
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2">
         <v>136</v>
@@ -3939,17 +3322,17 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2">
         <v>105</v>
@@ -3977,7 +3360,7 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="4"/>
@@ -3990,12 +3373,12 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2">
         <v>77</v>
@@ -4030,12 +3413,12 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2">
         <v>182</v>
@@ -4069,17 +3452,17 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F21" s="2">
         <v>110</v>
@@ -4118,12 +3501,12 @@
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2">
         <v>113</v>
@@ -4158,12 +3541,12 @@
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2">
         <v>223</v>
@@ -4198,14 +3581,14 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2">
         <v>73</v>
@@ -4244,12 +3627,12 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2">
         <v>117</v>
@@ -4284,12 +3667,12 @@
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2">
         <v>190</v>
@@ -4324,14 +3707,14 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2">
         <v>158</v>
@@ -4366,12 +3749,12 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2">
         <v>198</v>
@@ -4406,12 +3789,12 @@
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2">
         <v>356</v>
@@ -4445,17 +3828,17 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F30" s="8">
         <v>13</v>
@@ -4470,10 +3853,10 @@
         <v>8</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -4490,12 +3873,12 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="8">
         <v>3</v>
@@ -4510,10 +3893,10 @@
         <v>4</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -4530,12 +3913,12 @@
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="2">
         <v>16</v>
@@ -4570,14 +3953,14 @@
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="8">
         <v>13</v>
@@ -4592,10 +3975,10 @@
         <v>4</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -4612,12 +3995,12 @@
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="8">
         <v>9</v>
@@ -4632,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -4652,12 +4035,12 @@
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2">
         <v>22</v>
@@ -4672,10 +4055,10 @@
         <v>4</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -4692,14 +4075,14 @@
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2">
         <v>38</v>
@@ -4734,12 +4117,12 @@
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2">
         <v>26</v>
@@ -4754,10 +4137,10 @@
         <v>4</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -4774,12 +4157,12 @@
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2">
         <v>64</v>
@@ -4813,17 +4196,17 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F39" s="2">
         <v>181</v>
@@ -4860,12 +4243,12 @@
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2">
         <v>81</v>
@@ -4898,12 +4281,12 @@
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2">
         <v>262</v>
@@ -4935,17 +4318,17 @@
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2">
         <v>98</v>
@@ -4965,7 +4348,7 @@
         <v>96</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P42" s="2">
         <v>97</v>
@@ -4982,12 +4365,12 @@
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2">
         <v>33</v>
@@ -5007,7 +4390,7 @@
         <v>96</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P43" s="2">
         <v>97</v>
@@ -5024,12 +4407,12 @@
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2">
         <v>131</v>
@@ -5049,7 +4432,7 @@
         <v>96</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P44" s="2">
         <v>97</v>
@@ -5066,12 +4449,12 @@
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2">
         <v>14</v>
@@ -5091,7 +4474,7 @@
         <v>168</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P45" s="2">
         <v>171</v>
@@ -5108,12 +4491,12 @@
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2">
         <v>5</v>
@@ -5124,7 +4507,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5133,7 +4516,7 @@
         <v>168</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P46" s="2">
         <v>174</v>
@@ -5150,12 +4533,12 @@
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2">
         <v>19</v>
@@ -5175,7 +4558,7 @@
         <v>168</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P47" s="2">
         <v>171</v>
@@ -5191,17 +4574,17 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" s="2">
         <v>112</v>
@@ -5238,12 +4621,12 @@
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" s="2">
         <v>38</v>
@@ -5276,12 +4659,12 @@
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2">
         <v>150</v>
@@ -5313,17 +4696,17 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" s="2">
         <v>259</v>
@@ -5341,13 +4724,13 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P51" s="2">
         <v>142</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R51" s="4"/>
       <c r="S51" s="2"/>
@@ -5358,12 +4741,12 @@
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52" s="2">
         <v>100</v>
@@ -5381,13 +4764,13 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P52" s="2">
         <v>134</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
@@ -5398,12 +4781,12 @@
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2">
         <v>359</v>
@@ -5421,13 +4804,13 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P53" s="2">
         <v>140</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
@@ -5437,17 +4820,17 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F54" s="2">
         <v>137</v>
@@ -5484,12 +4867,12 @@
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F55" s="2">
         <v>70</v>
@@ -5522,12 +4905,12 @@
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2">
         <v>207</v>
@@ -5564,12 +4947,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B966243B-AC67-6048-942F-11152A843AA5}">
-  <dimension ref="A1:E7"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5593,7 +4976,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5602,11 +4985,11 @@
         <v>302</v>
       </c>
       <c r="D2" s="5">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="E2" s="5">
-        <f>18+139</f>
-        <v>157</v>
+        <f>297+2192</f>
+        <v>2489</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5669,51 +5052,94 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <f>31+203</f>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <f>136+914</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <f>31+203</f>
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <f>136+914</f>
-        <v>1050</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2425DC23-3CF4-2B41-954A-1AC4825C4CA5}">
-  <dimension ref="A1:F13"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC49C6-505E-DC43-883F-74098BEBDD3C}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5742,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5764,7 +5190,7 @@
         <v>666</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5786,7 +5212,7 @@
         <v>438</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5808,7 +5234,7 @@
         <v>2958</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5831,12 +5257,12 @@
         <v>908</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>45</v>
@@ -5852,12 +5278,12 @@
         <v>1938</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -5865,15 +5291,15 @@
       <c r="C7">
         <v>302</v>
       </c>
-      <c r="D7" s="6">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6">
-        <f>18+139</f>
-        <v>157</v>
+      <c r="D7" s="5">
+        <v>297</v>
+      </c>
+      <c r="E7" s="5">
+        <f>297+2192</f>
+        <v>2489</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5895,29 +5321,31 @@
         <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <f>745+533</f>
+        <v>1278</v>
       </c>
       <c r="C9">
-        <f>29+7</f>
-        <v>36</v>
+        <f>B9+3437+408</f>
+        <v>5123</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <f>14359+11227</f>
+        <v>25586</v>
       </c>
       <c r="E9">
-        <f>12+67</f>
-        <v>79</v>
+        <f>D9+93249+87449</f>
+        <v>206284</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5925,24 +5353,218 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5">
-        <v>280</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2348</v>
+        <v>87</v>
+      </c>
+      <c r="D10" s="50">
+        <v>14</v>
+      </c>
+      <c r="E10" s="50">
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB91A93-20D8-5240-A569-93FEDF0E77E0}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>16+105</f>
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f>35+360</f>
+        <v>395</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <f>15+87</f>
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <f>37+248</f>
+        <v>285</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <f>27+183</f>
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>218</v>
+      </c>
+      <c r="E4" s="6">
+        <f>218+1468</f>
+        <v>1686</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f>19+158</f>
+        <v>177</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <f>51+331</f>
+        <v>382</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <f>37+112</f>
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <v>218</v>
+      </c>
+      <c r="E6" s="6">
+        <f>218+1468</f>
+        <v>1686</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C7">
+        <f>24+181</f>
+        <v>205</v>
+      </c>
+      <c r="D7">
+        <v>218</v>
+      </c>
+      <c r="E7" s="6">
+        <f>218+1468</f>
+        <v>1686</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="44">
+        <v>745</v>
+      </c>
+      <c r="C8" s="44">
+        <f>B8+3437</f>
+        <v>4182</v>
+      </c>
+      <c r="D8" s="44">
+        <v>14359</v>
+      </c>
+      <c r="E8" s="44">
+        <f>93249+D8</f>
+        <v>107608</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5950,21 +5572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC49C6-505E-DC43-883F-74098BEBDD3C}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078E827-9226-664E-A5DC-9CAE983779B2}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5983,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5991,21 +5606,21 @@
         <v>8</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>6+77</f>
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <f>21+250</f>
+        <v>271</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2">
-        <f>22+182</f>
-        <v>204</v>
-      </c>
-      <c r="D2">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <f>56+610</f>
-        <v>666</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6013,21 +5628,21 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <f>21+136</f>
-        <v>157</v>
+        <f>6+49</f>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <f>389+49</f>
-        <v>438</v>
+        <f>12+141</f>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6035,21 +5650,21 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <f>45+323</f>
-        <v>368</v>
+        <f>18+140</f>
+        <v>158</v>
       </c>
       <c r="D4">
-        <v>354</v>
-      </c>
-      <c r="E4">
-        <f>354+2604</f>
-        <v>2958</v>
+        <v>136</v>
+      </c>
+      <c r="E4" s="6">
+        <f>136+1136</f>
+        <v>1272</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6057,150 +5672,88 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <f>62+356</f>
-        <v>418</v>
+        <f>43+198</f>
+        <v>241</v>
       </c>
       <c r="D5">
-        <f>70+50</f>
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E5">
-        <f>526+382</f>
-        <v>908</v>
+        <f>69+457</f>
+        <v>526</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <f>45+150</f>
-        <v>195</v>
+        <f>8+38</f>
+        <v>46</v>
       </c>
       <c r="D6" s="5">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5">
-        <v>1938</v>
+        <f>54+470</f>
+        <v>524</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>302</v>
+        <f>16+81</f>
+        <v>97</v>
       </c>
       <c r="D7" s="5">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="E7" s="5">
-        <f>297+2192</f>
-        <v>2489</v>
+        <f>79+724</f>
+        <v>803</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>533</v>
       </c>
       <c r="C8">
-        <f>28+70+137</f>
-        <v>235</v>
+        <f>533+2408</f>
+        <v>2941</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <f>11227</f>
+        <v>11227</v>
       </c>
       <c r="E8">
-        <f>7+33+17</f>
-        <v>57</v>
+        <f>D8+87449</f>
+        <v>98676</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9">
-        <f>745+533</f>
-        <v>1278</v>
-      </c>
-      <c r="C9">
-        <f>B9+3437+408</f>
-        <v>5123</v>
-      </c>
-      <c r="D9">
-        <f>14359+11227</f>
-        <v>25586</v>
-      </c>
-      <c r="E9">
-        <f>D9+93249+87449</f>
-        <v>206284</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5">
-        <v>280</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2348</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>88</v>
-      </c>
-      <c r="D11" s="52">
-        <v>12</v>
-      </c>
-      <c r="E11" s="52">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6223,7 +5776,7 @@
         <v>1.24</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6282,7 +5835,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6303,7 +5856,7 @@
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -6321,30 +5874,30 @@
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="P5" s="50"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -6355,7 +5908,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L6" s="14">
         <v>1</v>
@@ -6377,7 +5930,7 @@
     <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="16">
         <v>4.4000000000000004</v>
@@ -6402,7 +5955,7 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="18">
         <v>579</v>
@@ -6426,7 +5979,7 @@
     <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="15">
         <v>95.6</v>
@@ -6451,7 +6004,7 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" s="18">
         <v>12591</v>
@@ -6475,7 +6028,7 @@
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="19">
         <v>13170</v>
@@ -6498,7 +6051,7 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="18">
         <f>SUM(L7:N7)</f>
@@ -6507,7 +6060,7 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P9" s="18">
         <f>SUM(L8:N8)</f>
@@ -6527,7 +6080,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="18">
         <f>SUM(O7:P7)</f>
@@ -6536,7 +6089,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="18">
         <f>SUM(O8:P8)</f>
@@ -6547,7 +6100,7 @@
     <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -6558,23 +6111,23 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="50"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15">
         <v>3.7</v>
@@ -6599,7 +6152,7 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" s="14">
         <v>1</v>
@@ -6618,14 +6171,14 @@
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S12" s="11">
         <f>L9/L10</f>
         <v>0.21675880128018621</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U12" s="11">
         <f>P9/P10</f>
@@ -6635,7 +6188,7 @@
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="15">
         <v>96.3</v>
@@ -6660,7 +6213,7 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="18">
         <v>366</v>
@@ -6681,7 +6234,7 @@
         <v>2942</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S13" s="11">
         <f>S12/U12</f>
@@ -6693,7 +6246,7 @@
     <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="15">
         <v>9905</v>
@@ -6716,7 +6269,7 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="18">
         <v>9539</v>
@@ -6741,7 +6294,7 @@
       <c r="A15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="18">
         <f>SUM(L13:N13)</f>
@@ -6750,7 +6303,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P15" s="18">
         <f>SUM(L14:N14)</f>
@@ -6762,7 +6315,7 @@
       <c r="A16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L16" s="18">
         <f>SUM(O13:P13)</f>
@@ -6771,7 +6324,7 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="18">
         <f>SUM(O14:P14)</f>
@@ -6830,7 +6383,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" s="11">
         <f>L15/L16</f>
@@ -6839,7 +6392,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P21" s="11">
         <f>P15/P16</f>
@@ -6859,7 +6412,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" s="11">
         <f>L21/P21</f>
@@ -6893,7 +6446,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -6914,10 +6467,10 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -6936,7 +6489,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="18">
         <f>L9</f>
@@ -6962,7 +6515,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="17">
         <f>P9</f>
@@ -6981,21 +6534,21 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="18">
         <f>L15</f>
@@ -7008,7 +6561,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="17">
         <f>P15</f>
@@ -7021,7 +6574,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="43">
         <f>(C36/D36)/(C37/D37)</f>
@@ -7054,7 +6607,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21">
         <v>1</v>
@@ -7072,13 +6625,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>74</v>
-      </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -7096,30 +6649,30 @@
         <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="J2" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="J2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="23">
         <v>6.7</v>
@@ -7140,7 +6693,7 @@
         <v>4213</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3">
         <v>4.4000000000000004</v>
@@ -7163,7 +6716,7 @@
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="23">
         <v>95.6</v>
@@ -7187,7 +6740,7 @@
         <v>107755</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4">
         <v>95.6</v>
@@ -7210,7 +6763,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="25">
         <v>13170</v>
@@ -7232,7 +6785,7 @@
         <v>111968</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>13170</v>
@@ -7264,23 +6817,23 @@
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="J7" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="J7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="23">
         <v>3.7</v>
@@ -7304,7 +6857,7 @@
         <v>2955</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8">
         <v>3.7</v>
@@ -7327,7 +6880,7 @@
     </row>
     <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="23">
         <v>96.3</v>
@@ -7351,7 +6904,7 @@
         <v>98662</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9">
         <v>96.3</v>
@@ -7374,7 +6927,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="23">
         <v>9905</v>
@@ -7396,7 +6949,7 @@
         <v>101617</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10">
         <v>9905</v>
@@ -7420,16 +6973,16 @@
     <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L12" s="27"/>
       <c r="M12" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I13" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="30">
@@ -7485,7 +7038,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I15" s="32"/>
       <c r="J15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M15" s="34">
         <f>SUM(K13:M13)</f>
@@ -7501,14 +7054,14 @@
         <v>0.21673970864689004</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I16" s="32"/>
       <c r="J16" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M16" s="36">
         <f>SUM(K14:M14)</f>
@@ -7524,7 +7077,7 @@
         <v>0.15398738335529707</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S16" s="35"/>
     </row>
@@ -7543,7 +7096,7 @@
     </row>
     <row r="18" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I18" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="30">
@@ -7600,7 +7153,7 @@
     <row r="20" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I20" s="32"/>
       <c r="J20" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M20" s="34">
         <f>SUM(K18:M18)</f>
@@ -7616,14 +7169,14 @@
         <v>0.22163793926760705</v>
       </c>
       <c r="R20" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S20" s="35"/>
     </row>
     <row r="21" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I21" s="39"/>
       <c r="J21" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -7642,7 +7195,7 @@
         <v>0.12837506044970579</v>
       </c>
       <c r="R21" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S21" s="41"/>
     </row>
@@ -7705,7 +7258,7 @@
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="45">
         <v>2745</v>
@@ -7716,7 +7269,7 @@
     </row>
     <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="48">
         <v>14359</v>
@@ -7735,7 +7288,7 @@
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7764,7 +7317,7 @@
         <v>395</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7786,7 +7339,7 @@
         <v>285</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7808,7 +7361,7 @@
         <v>1686</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7830,12 +7383,12 @@
         <v>382</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -7852,12 +7405,12 @@
         <v>1686</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -7874,7 +7427,7 @@
         <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7896,7 +7449,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/sp58_st-andrews_ac_uk/Documents/gen_lang_hand_meta/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{6528A0F0-9A9E-3341-8657-1EBDE80C8D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E4D625B6-676E-014E-901D-70BB45F559E3}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{0B6902DA-2242-D64D-8D8C-45B1C2605456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600D1BA0-91BC-8845-BF71-AC6D272CFA5E}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
-    <sheet name="SLI-All" sheetId="1" r:id="rId1"/>
-    <sheet name="RD-All" sheetId="3" r:id="rId2"/>
-    <sheet name="Combined2" sheetId="12" r:id="rId3"/>
-    <sheet name="Combined-Male2" sheetId="13" r:id="rId4"/>
-    <sheet name="Combined-Female2" sheetId="14" r:id="rId5"/>
-    <sheet name="Peters - Filippo" sheetId="20" r:id="rId6"/>
-    <sheet name="Peters - Silvia" sheetId="21" r:id="rId7"/>
-    <sheet name="Peters_all" sheetId="22" r:id="rId8"/>
-    <sheet name="Combined-Male3" sheetId="17" r:id="rId9"/>
-    <sheet name="Combined-Male" sheetId="11" r:id="rId10"/>
-    <sheet name="Combined-Female3" sheetId="18" r:id="rId11"/>
-    <sheet name="Combined-Female" sheetId="8" r:id="rId12"/>
-    <sheet name="SLI-Female" sheetId="5" r:id="rId13"/>
-    <sheet name="SLI-Male" sheetId="6" r:id="rId14"/>
-    <sheet name="RD-Male2" sheetId="19" r:id="rId15"/>
-    <sheet name="RD-Male" sheetId="9" r:id="rId16"/>
-    <sheet name="RD-Female" sheetId="10" r:id="rId17"/>
-    <sheet name="google data" sheetId="7" r:id="rId18"/>
+    <sheet name="Combined2" sheetId="12" r:id="rId1"/>
+    <sheet name="Combined-Female2" sheetId="14" r:id="rId2"/>
+    <sheet name="Combined-Male2" sheetId="13" r:id="rId3"/>
+    <sheet name="SLI-All" sheetId="1" r:id="rId4"/>
+    <sheet name="SLI-Female" sheetId="5" r:id="rId5"/>
+    <sheet name="SLI-Male" sheetId="6" r:id="rId6"/>
+    <sheet name="RD-All" sheetId="3" r:id="rId7"/>
+    <sheet name="RD-Female" sheetId="10" r:id="rId8"/>
+    <sheet name="RD-Male" sheetId="9" r:id="rId9"/>
+    <sheet name="Check_16052021" sheetId="23" r:id="rId10"/>
+    <sheet name="Peters - Filippo" sheetId="20" r:id="rId11"/>
+    <sheet name="Peters - Silvia" sheetId="21" r:id="rId12"/>
+    <sheet name="Peters_all" sheetId="22" r:id="rId13"/>
+    <sheet name="Combined-Male3" sheetId="17" r:id="rId14"/>
+    <sheet name="Combined-Male" sheetId="11" r:id="rId15"/>
+    <sheet name="Combined-Female3" sheetId="18" r:id="rId16"/>
+    <sheet name="Combined-Female" sheetId="8" r:id="rId17"/>
+    <sheet name="RD-Male2" sheetId="19" r:id="rId18"/>
+    <sheet name="google data" sheetId="7" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="129">
   <si>
     <t xml:space="preserve">TD Left-Handers </t>
   </si>
@@ -606,12 +607,103 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Cohort name</t>
+  </si>
+  <si>
+    <t>Phenotype</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Reading, Language</t>
+  </si>
+  <si>
+    <t>IOWA cohort</t>
+  </si>
+  <si>
+    <r>
+      <t>NTR cohort</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Multicenter Study Marburg/Würzburg cohort</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Toronto cohort</t>
+  </si>
+  <si>
+    <t>M:F Cases</t>
+  </si>
+  <si>
+    <t>M:F Controls</t>
+  </si>
+  <si>
+    <t>NRH Cases</t>
+  </si>
+  <si>
+    <t>NRH Controls</t>
+  </si>
+  <si>
+    <r>
+      <t>%NRH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>M:F done on combined group</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Total cases</t>
+  </si>
+  <si>
+    <t>Total controls</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,6 +862,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -791,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -903,12 +1022,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -980,6 +1117,111 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,31 +1542,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C58A0-AE3B-164A-826D-BCBAEC3E436B}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC49C6-505E-DC43-883F-74098BEBDD3C}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1332,8 +1575,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1351,8 +1597,11 @@
         <f>56+610</f>
         <v>666</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1370,36 +1619,42 @@
         <f>389+49</f>
         <v>438</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <f>225+29</f>
-        <v>254</v>
+        <f>45+323</f>
+        <v>368</v>
       </c>
       <c r="D4">
         <v>354</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <f>354+2604</f>
         <v>2958</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <f>33+190</f>
-        <v>223</v>
+        <f>62+356</f>
+        <v>418</v>
       </c>
       <c r="D5">
         <f>70+50</f>
@@ -1409,50 +1664,4285 @@
         <f>526+382</f>
         <v>908</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
+      <c r="B6">
         <v>45</v>
       </c>
-      <c r="C7">
+      <c r="C6">
         <f>45+150</f>
         <v>195</v>
       </c>
+      <c r="D6" s="5">
+        <v>272</v>
+      </c>
+      <c r="E6" s="5">
+        <f>1938+D6</f>
+        <v>2210</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>302</v>
+      </c>
       <c r="D7" s="5">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="E7" s="5">
-        <f>272+1938</f>
-        <v>2210</v>
+        <f>297+2192</f>
+        <v>2489</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <f>28+70+137</f>
+        <v>235</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>7+33+17</f>
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <f>745+533</f>
+        <v>1278</v>
+      </c>
+      <c r="C9">
+        <f>B9+3437+408</f>
+        <v>5123</v>
+      </c>
+      <c r="D9">
+        <f>14359+11227</f>
+        <v>25586</v>
+      </c>
+      <c r="E9">
+        <f>D9+93249+87449</f>
+        <v>206284</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>72</v>
+      </c>
+      <c r="D10" s="50">
+        <v>9</v>
+      </c>
+      <c r="E10" s="50">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928079C8-A45F-5648-B92F-F547C22F48B1}">
+  <dimension ref="A1:Q55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48:G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="89"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="89"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="82"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="62">
+        <v>6</v>
+      </c>
+      <c r="F3" s="62">
+        <v>48</v>
+      </c>
+      <c r="G3" s="62">
+        <f>E3+F3</f>
+        <v>54</v>
+      </c>
+      <c r="H3" s="62">
+        <v>218</v>
+      </c>
+      <c r="I3" s="62">
+        <v>1468</v>
+      </c>
+      <c r="J3" s="62">
+        <f>H3+I3</f>
+        <v>1686</v>
+      </c>
+      <c r="K3" s="62">
+        <v>0.17</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0.13</v>
+      </c>
+      <c r="M3" s="63">
+        <f>E3/(F3+E3)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N3" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="O3" s="64">
+        <v>1.11111111</v>
+      </c>
+      <c r="P3" s="64">
+        <v>1.3254717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="65">
+        <v>10</v>
+      </c>
+      <c r="F4" s="65">
+        <v>50</v>
+      </c>
+      <c r="G4" s="62">
+        <f t="shared" ref="G4:G50" si="0">E4+F4</f>
+        <v>60</v>
+      </c>
+      <c r="H4" s="65">
+        <v>136</v>
+      </c>
+      <c r="I4" s="65">
+        <v>1136</v>
+      </c>
+      <c r="J4" s="62">
+        <f t="shared" ref="J4:J50" si="1">H4+I4</f>
+        <v>1272</v>
+      </c>
+      <c r="K4" s="65">
+        <v>0.11</v>
+      </c>
+      <c r="L4" s="65">
+        <v>0.11</v>
+      </c>
+      <c r="M4" s="63">
+        <f t="shared" ref="M4:M50" si="2">E4/(F4+E4)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N4" s="63">
+        <v>0.11</v>
+      </c>
+      <c r="O4" s="64">
+        <v>0.47368420999999999</v>
+      </c>
+      <c r="P4" s="64">
+        <v>0.43002027999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="62">
+        <v>16</v>
+      </c>
+      <c r="F5" s="62">
+        <v>98</v>
+      </c>
+      <c r="G5" s="62">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H5" s="62">
+        <f>H3+H4</f>
+        <v>354</v>
+      </c>
+      <c r="I5" s="62">
+        <f>I3+I4</f>
+        <v>2604</v>
+      </c>
+      <c r="J5" s="62">
+        <f t="shared" si="1"/>
+        <v>2958</v>
+      </c>
+      <c r="K5" s="62">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0.12</v>
+      </c>
+      <c r="M5" s="63">
+        <f t="shared" si="2"/>
+        <v>0.14035087719298245</v>
+      </c>
+      <c r="N5" s="63">
+        <v>0.12</v>
+      </c>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="65">
+        <v>17</v>
+      </c>
+      <c r="F6" s="65">
+        <v>133</v>
+      </c>
+      <c r="G6" s="62">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H6" s="65">
+        <v>218</v>
+      </c>
+      <c r="I6" s="65">
+        <v>1468</v>
+      </c>
+      <c r="J6" s="62">
+        <f t="shared" si="1"/>
+        <v>1686</v>
+      </c>
+      <c r="K6" s="65">
+        <v>0.11</v>
+      </c>
+      <c r="L6" s="65">
+        <v>0.13</v>
+      </c>
+      <c r="M6" s="63">
+        <f t="shared" si="2"/>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="N6" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="O6" s="64">
+        <v>1.44230769</v>
+      </c>
+      <c r="P6" s="64">
+        <v>1.3254717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="62">
+        <v>12</v>
+      </c>
+      <c r="F7" s="62">
+        <v>92</v>
+      </c>
+      <c r="G7" s="62">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="H7" s="62">
+        <v>136</v>
+      </c>
+      <c r="I7" s="62">
+        <v>1136</v>
+      </c>
+      <c r="J7" s="62">
+        <f t="shared" si="1"/>
+        <v>1272</v>
+      </c>
+      <c r="K7" s="62">
+        <v>0.12</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0.11</v>
+      </c>
+      <c r="M7" s="63">
+        <f t="shared" si="2"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="N7" s="63">
+        <v>0.11</v>
+      </c>
+      <c r="O7" s="64">
+        <v>0.40944881999999999</v>
+      </c>
+      <c r="P7" s="64">
+        <v>0.43002027999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="65">
+        <v>29</v>
+      </c>
+      <c r="F8" s="65">
+        <v>225</v>
+      </c>
+      <c r="G8" s="62">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="H8" s="65">
+        <v>354</v>
+      </c>
+      <c r="I8" s="65">
+        <v>2604</v>
+      </c>
+      <c r="J8" s="62">
+        <f t="shared" si="1"/>
+        <v>2958</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0.11</v>
+      </c>
+      <c r="L8" s="65">
+        <v>0.12</v>
+      </c>
+      <c r="M8" s="63">
+        <f t="shared" si="2"/>
+        <v>0.1141732283464567</v>
+      </c>
+      <c r="N8" s="63">
+        <v>0.12</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+    </row>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="62">
+        <v>27</v>
+      </c>
+      <c r="F9" s="62">
+        <v>183</v>
+      </c>
+      <c r="G9" s="62">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="H9" s="62">
+        <v>218</v>
+      </c>
+      <c r="I9" s="62">
+        <v>1468</v>
+      </c>
+      <c r="J9" s="62">
+        <f t="shared" si="1"/>
+        <v>1686</v>
+      </c>
+      <c r="K9" s="62">
+        <v>0.13</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0.13</v>
+      </c>
+      <c r="M9" s="63">
+        <f>E9/G9</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="N9" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="O9" s="64">
+        <f>G9/G10</f>
+        <v>1.3291139240506329</v>
+      </c>
+      <c r="P9" s="64">
+        <f>J9/J10</f>
+        <v>1.3254716981132075</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="62">
+        <v>18</v>
+      </c>
+      <c r="F10" s="62">
+        <v>140</v>
+      </c>
+      <c r="G10" s="62">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="H10" s="65">
+        <v>136</v>
+      </c>
+      <c r="I10" s="65">
+        <v>1136</v>
+      </c>
+      <c r="J10" s="62">
+        <f t="shared" si="1"/>
+        <v>1272</v>
+      </c>
+      <c r="K10" s="65">
+        <v>0.11</v>
+      </c>
+      <c r="L10" s="65">
+        <v>0.11</v>
+      </c>
+      <c r="M10" s="63">
+        <f>E10/G10</f>
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="N10" s="63">
+        <f>H10/J10</f>
+        <v>0.1069182389937107</v>
+      </c>
+      <c r="P10" s="64"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="62">
+        <f>E9+E10</f>
+        <v>45</v>
+      </c>
+      <c r="F11" s="62">
+        <f>F9+F10</f>
+        <v>323</v>
+      </c>
+      <c r="G11" s="62">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="H11" s="62">
+        <v>354</v>
+      </c>
+      <c r="I11" s="62">
+        <v>2604</v>
+      </c>
+      <c r="J11" s="62">
+        <f t="shared" si="1"/>
+        <v>2958</v>
+      </c>
+      <c r="K11" s="62">
+        <v>0.12</v>
+      </c>
+      <c r="L11" s="62">
+        <v>0.12</v>
+      </c>
+      <c r="M11" s="63">
+        <f t="shared" ref="M11" si="3">E11/G11</f>
+        <v>0.12228260869565218</v>
+      </c>
+      <c r="N11" s="63">
+        <f t="shared" ref="N11" si="4">H11/J11</f>
+        <v>0.11967545638945233</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="56">
+        <v>16</v>
+      </c>
+      <c r="F12" s="56">
+        <v>105</v>
+      </c>
+      <c r="G12" s="55">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="H12" s="56">
+        <v>35</v>
+      </c>
+      <c r="I12" s="56">
+        <v>360</v>
+      </c>
+      <c r="J12" s="55">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="L12" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="M12" s="63">
+        <f t="shared" si="2"/>
+        <v>0.13223140495867769</v>
+      </c>
+      <c r="N12" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="O12" s="59">
+        <v>1.4578313300000001</v>
+      </c>
+      <c r="P12" s="59">
+        <v>1.4575645800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="55">
+        <v>6</v>
+      </c>
+      <c r="F13" s="55">
+        <v>77</v>
+      </c>
+      <c r="G13" s="55">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="H13" s="55">
+        <v>21</v>
+      </c>
+      <c r="I13" s="55">
+        <v>250</v>
+      </c>
+      <c r="J13" s="55">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="K13" s="55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L13" s="55">
+        <v>0.08</v>
+      </c>
+      <c r="M13" s="63">
+        <f t="shared" si="2"/>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="N13" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="O13" s="59">
+        <v>0.40686275</v>
+      </c>
+      <c r="P13" s="59">
+        <v>0.40690691000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="56">
+        <v>22</v>
+      </c>
+      <c r="F14" s="56">
+        <v>182</v>
+      </c>
+      <c r="G14" s="55">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="H14" s="56">
+        <v>56</v>
+      </c>
+      <c r="I14" s="56">
+        <v>610</v>
+      </c>
+      <c r="J14" s="55">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+      <c r="K14" s="56">
+        <v>0.11</v>
+      </c>
+      <c r="L14" s="56">
+        <v>0.08</v>
+      </c>
+      <c r="M14" s="63">
+        <f t="shared" si="2"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="N14" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="67">
+        <v>18</v>
+      </c>
+      <c r="F15" s="67">
+        <v>97</v>
+      </c>
+      <c r="G15" s="67">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="H15" s="67">
+        <v>66</v>
+      </c>
+      <c r="I15" s="67">
+        <v>450</v>
+      </c>
+      <c r="J15" s="67">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="K15" s="67">
+        <v>0.16</v>
+      </c>
+      <c r="L15" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="M15" s="63">
+        <f t="shared" si="2"/>
+        <v>0.15652173913043479</v>
+      </c>
+      <c r="N15" s="68">
+        <v>0.13</v>
+      </c>
+      <c r="O15" s="69">
+        <v>0.96638654999999996</v>
+      </c>
+      <c r="P15" s="69">
+        <v>0.96629213000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="66">
+        <v>13</v>
+      </c>
+      <c r="F16" s="66">
+        <v>106</v>
+      </c>
+      <c r="G16" s="67">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="H16" s="66">
+        <v>70</v>
+      </c>
+      <c r="I16" s="66">
+        <v>464</v>
+      </c>
+      <c r="J16" s="67">
+        <f t="shared" si="1"/>
+        <v>534</v>
+      </c>
+      <c r="K16" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="L16" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="M16" s="63">
+        <f t="shared" si="2"/>
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="N16" s="68">
+        <v>0.13</v>
+      </c>
+      <c r="O16" s="69">
+        <v>0.50854701000000002</v>
+      </c>
+      <c r="P16" s="69">
+        <v>0.50857143000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="67">
+        <v>31</v>
+      </c>
+      <c r="F17" s="67">
+        <v>203</v>
+      </c>
+      <c r="G17" s="67">
+        <f>E17+F17</f>
+        <v>234</v>
+      </c>
+      <c r="H17" s="67">
+        <v>136</v>
+      </c>
+      <c r="I17" s="67">
+        <v>914</v>
+      </c>
+      <c r="J17" s="67">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="K17" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="L17" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="M17" s="63">
+        <f t="shared" si="2"/>
+        <v>0.13247863247863248</v>
+      </c>
+      <c r="N17" s="68">
+        <v>0.13</v>
+      </c>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+    </row>
+    <row r="18" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="56">
+        <v>15</v>
+      </c>
+      <c r="F18" s="56">
+        <v>87</v>
+      </c>
+      <c r="G18" s="55">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="H18" s="56">
+        <v>37</v>
+      </c>
+      <c r="I18" s="56">
+        <v>248</v>
+      </c>
+      <c r="J18" s="55">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="K18" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="L18" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="M18" s="63">
+        <f t="shared" si="2"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="N18" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O18" s="59">
+        <v>1.85454545</v>
+      </c>
+      <c r="P18" s="59">
+        <v>1.8627450999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="55">
+        <v>6</v>
+      </c>
+      <c r="F19" s="55">
+        <v>49</v>
+      </c>
+      <c r="G19" s="55">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H19" s="55">
+        <v>12</v>
+      </c>
+      <c r="I19" s="55">
+        <v>141</v>
+      </c>
+      <c r="J19" s="55">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="K19" s="55">
+        <v>0.11</v>
+      </c>
+      <c r="L19" s="55">
+        <v>0.08</v>
+      </c>
+      <c r="M19" s="63">
+        <f t="shared" si="2"/>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="N19" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="O19" s="59">
+        <v>0.35031846999999999</v>
+      </c>
+      <c r="P19" s="59">
+        <v>0.34931507000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="56">
+        <v>21</v>
+      </c>
+      <c r="F20" s="56">
+        <v>136</v>
+      </c>
+      <c r="G20" s="55">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="H20" s="56">
+        <v>49</v>
+      </c>
+      <c r="I20" s="56">
+        <v>389</v>
+      </c>
+      <c r="J20" s="55">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="L20" s="56">
+        <v>0.11</v>
+      </c>
+      <c r="M20" s="63">
+        <f t="shared" si="2"/>
+        <v>0.13375796178343949</v>
+      </c>
+      <c r="N20" s="60">
+        <v>0.11</v>
+      </c>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+    </row>
+    <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="55">
+        <v>13</v>
+      </c>
+      <c r="F21" s="55">
+        <v>110</v>
+      </c>
+      <c r="G21" s="55">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="H21" s="55">
+        <v>51</v>
+      </c>
+      <c r="I21" s="55">
+        <v>331</v>
+      </c>
+      <c r="J21" s="55">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="K21" s="55">
+        <v>0.11</v>
+      </c>
+      <c r="L21" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="M21" s="63">
+        <f t="shared" si="2"/>
+        <v>0.10569105691056911</v>
+      </c>
+      <c r="N21" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O21" s="59">
+        <v>0.86013985999999998</v>
+      </c>
+      <c r="P21" s="59">
+        <v>0.72623574000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="56">
+        <v>30</v>
+      </c>
+      <c r="F22" s="56">
+        <v>113</v>
+      </c>
+      <c r="G22" s="55">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="H22" s="56">
+        <v>69</v>
+      </c>
+      <c r="I22" s="56">
+        <v>457</v>
+      </c>
+      <c r="J22" s="55">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="K22" s="56">
+        <v>0.21</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="M22" s="63">
+        <f t="shared" si="2"/>
+        <v>0.20979020979020979</v>
+      </c>
+      <c r="N22" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O22" s="59">
+        <v>0.53759398000000003</v>
+      </c>
+      <c r="P22" s="59">
+        <v>0.57929514999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="55">
+        <v>43</v>
+      </c>
+      <c r="F23" s="55">
+        <v>223</v>
+      </c>
+      <c r="G23" s="55">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="H23" s="55">
+        <v>120</v>
+      </c>
+      <c r="I23" s="55">
+        <v>788</v>
+      </c>
+      <c r="J23" s="55">
+        <f t="shared" si="1"/>
+        <v>908</v>
+      </c>
+      <c r="K23" s="55">
+        <v>0.16</v>
+      </c>
+      <c r="L23" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="M23" s="63">
+        <f t="shared" si="2"/>
+        <v>0.16165413533834586</v>
+      </c>
+      <c r="N23" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+    </row>
+    <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="56">
+        <v>13</v>
+      </c>
+      <c r="F24" s="56">
+        <v>73</v>
+      </c>
+      <c r="G24" s="55">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="H24" s="56">
+        <v>51</v>
+      </c>
+      <c r="I24" s="56">
+        <v>331</v>
+      </c>
+      <c r="J24" s="55">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="K24" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="L24" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="M24" s="63">
+        <f t="shared" si="2"/>
+        <v>0.15116279069767441</v>
+      </c>
+      <c r="N24" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O24" s="59">
+        <f>G24/G25</f>
+        <v>0.62773722627737227</v>
+      </c>
+      <c r="P24" s="59">
+        <f>J24/J25</f>
+        <v>0.72623574144486691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="71"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="55">
+        <v>20</v>
+      </c>
+      <c r="F25" s="55">
+        <v>117</v>
+      </c>
+      <c r="G25" s="55">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="H25" s="55">
+        <v>69</v>
+      </c>
+      <c r="I25" s="55">
+        <v>457</v>
+      </c>
+      <c r="J25" s="55">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="K25" s="55">
+        <v>0.15</v>
+      </c>
+      <c r="L25" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="M25" s="63">
+        <f t="shared" si="2"/>
+        <v>0.145985401459854</v>
+      </c>
+      <c r="N25" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O25" s="59">
+        <v>0.61434977999999996</v>
+      </c>
+      <c r="P25" s="59">
+        <v>0.57929514999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="56">
+        <v>33</v>
+      </c>
+      <c r="F26" s="56">
+        <v>190</v>
+      </c>
+      <c r="G26" s="55">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="H26" s="56">
+        <v>120</v>
+      </c>
+      <c r="I26" s="56">
+        <v>788</v>
+      </c>
+      <c r="J26" s="55">
+        <f t="shared" si="1"/>
+        <v>908</v>
+      </c>
+      <c r="K26" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="L26" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="M26" s="63">
+        <f t="shared" si="2"/>
+        <v>0.14798206278026907</v>
+      </c>
+      <c r="N26" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+    </row>
+    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="55">
+        <v>19</v>
+      </c>
+      <c r="F27" s="55">
+        <v>158</v>
+      </c>
+      <c r="G27" s="55">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="H27" s="55">
+        <v>51</v>
+      </c>
+      <c r="I27" s="55">
+        <v>331</v>
+      </c>
+      <c r="J27" s="55">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0.11</v>
+      </c>
+      <c r="L27" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="M27" s="63">
+        <f t="shared" si="2"/>
+        <v>0.10734463276836158</v>
+      </c>
+      <c r="N27" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O27" s="59">
+        <v>0.73443983000000002</v>
+      </c>
+      <c r="P27" s="59">
+        <v>0.72623574000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="56">
+        <v>43</v>
+      </c>
+      <c r="F28" s="56">
+        <v>198</v>
+      </c>
+      <c r="G28" s="55">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="H28" s="56">
+        <v>69</v>
+      </c>
+      <c r="I28" s="56">
+        <v>457</v>
+      </c>
+      <c r="J28" s="55">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="L28" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="M28" s="63">
+        <f t="shared" si="2"/>
+        <v>0.17842323651452283</v>
+      </c>
+      <c r="N28" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="55">
+        <v>62</v>
+      </c>
+      <c r="F29" s="55">
+        <v>356</v>
+      </c>
+      <c r="G29" s="55">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+      <c r="H29" s="55">
+        <v>120</v>
+      </c>
+      <c r="I29" s="55">
+        <v>788</v>
+      </c>
+      <c r="J29" s="55">
+        <f t="shared" si="1"/>
+        <v>908</v>
+      </c>
+      <c r="K29" s="55">
+        <v>0.15</v>
+      </c>
+      <c r="L29" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="M29" s="63">
+        <f t="shared" si="2"/>
+        <v>0.14832535885167464</v>
+      </c>
+      <c r="N29" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+    </row>
+    <row r="30" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="66">
+        <v>37</v>
+      </c>
+      <c r="F30" s="66">
+        <v>112</v>
+      </c>
+      <c r="G30" s="67">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="H30" s="66">
+        <v>218</v>
+      </c>
+      <c r="I30" s="66">
+        <v>1468</v>
+      </c>
+      <c r="J30" s="67">
+        <f t="shared" si="1"/>
+        <v>1686</v>
+      </c>
+      <c r="K30" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="L30" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="M30" s="63">
+        <f t="shared" si="2"/>
+        <v>0.24832214765100671</v>
+      </c>
+      <c r="N30" s="68">
+        <v>0.13</v>
+      </c>
+      <c r="O30" s="69">
+        <v>3.2391304299999999</v>
+      </c>
+      <c r="P30" s="69">
+        <v>3.21755725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="67">
+        <v>8</v>
+      </c>
+      <c r="F31" s="67">
+        <v>38</v>
+      </c>
+      <c r="G31" s="67">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H31" s="67">
+        <v>54</v>
+      </c>
+      <c r="I31" s="67">
+        <v>470</v>
+      </c>
+      <c r="J31" s="67">
+        <f t="shared" si="1"/>
+        <v>524</v>
+      </c>
+      <c r="K31" s="67">
+        <v>0.17</v>
+      </c>
+      <c r="L31" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="63">
+        <f t="shared" si="2"/>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="N31" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+    </row>
+    <row r="32" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="66">
+        <v>45</v>
+      </c>
+      <c r="F32" s="66">
+        <v>150</v>
+      </c>
+      <c r="G32" s="67">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="H32" s="66">
+        <v>272</v>
+      </c>
+      <c r="I32" s="66">
+        <v>1938</v>
+      </c>
+      <c r="J32" s="67">
+        <f t="shared" si="1"/>
+        <v>2210</v>
+      </c>
+      <c r="K32" s="66">
+        <v>0.23</v>
+      </c>
+      <c r="L32" s="66">
+        <v>0.12</v>
+      </c>
+      <c r="M32" s="63">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N32" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+    </row>
+    <row r="33" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="67">
+        <v>19</v>
+      </c>
+      <c r="F33" s="67">
+        <v>189</v>
+      </c>
+      <c r="G33" s="67">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="67" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="67">
+        <v>0.09</v>
+      </c>
+      <c r="L33" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="63">
+        <f t="shared" si="2"/>
+        <v>9.1346153846153841E-2</v>
+      </c>
+      <c r="N33" s="68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O33" s="69">
+        <v>3.0144927500000001</v>
+      </c>
+      <c r="P33" s="69" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="66">
+        <v>3</v>
+      </c>
+      <c r="F34" s="66">
+        <v>66</v>
+      </c>
+      <c r="G34" s="67">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="67" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="63">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="N34" s="68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+    </row>
+    <row r="35" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="78"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="67">
+        <v>22</v>
+      </c>
+      <c r="F35" s="67">
+        <v>255</v>
+      </c>
+      <c r="G35" s="67">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="67" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="67">
+        <v>0.08</v>
+      </c>
+      <c r="L35" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="63">
+        <f t="shared" si="2"/>
+        <v>7.9422382671480149E-2</v>
+      </c>
+      <c r="N35" s="68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+    </row>
+    <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="56">
+        <v>16</v>
+      </c>
+      <c r="F36" s="56">
+        <v>137</v>
+      </c>
+      <c r="G36" s="55">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="H36" s="56">
+        <v>4</v>
+      </c>
+      <c r="I36" s="56">
+        <v>33</v>
+      </c>
+      <c r="J36" s="55">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K36" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="63">
+        <f t="shared" si="2"/>
+        <v>0.10457516339869281</v>
+      </c>
+      <c r="N36" s="60">
+        <v>0.11</v>
+      </c>
+      <c r="O36" s="59">
+        <v>1.86585366</v>
+      </c>
+      <c r="P36" s="59">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="55">
+        <v>12</v>
+      </c>
+      <c r="F37" s="55">
+        <v>70</v>
+      </c>
+      <c r="G37" s="55">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="H37" s="55">
+        <v>3</v>
+      </c>
+      <c r="I37" s="55">
+        <v>17</v>
+      </c>
+      <c r="J37" s="55">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K37" s="55">
+        <v>0.15</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="63">
+        <f t="shared" si="2"/>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="N37" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+    </row>
+    <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="56">
+        <v>28</v>
+      </c>
+      <c r="F38" s="56">
+        <v>207</v>
+      </c>
+      <c r="G38" s="55">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="H38" s="56">
+        <v>7</v>
+      </c>
+      <c r="I38" s="56">
+        <v>50</v>
+      </c>
+      <c r="J38" s="55">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="K38" s="56">
+        <v>0.12</v>
+      </c>
+      <c r="L38" s="56">
+        <v>0.12</v>
+      </c>
+      <c r="M38" s="63">
+        <f t="shared" si="2"/>
+        <v>0.11914893617021277</v>
+      </c>
+      <c r="N38" s="60">
+        <v>0.12</v>
+      </c>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+    </row>
+    <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="55">
+        <v>24</v>
+      </c>
+      <c r="F39" s="55">
+        <v>181</v>
+      </c>
+      <c r="G39" s="55">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="H39" s="55">
+        <v>218</v>
+      </c>
+      <c r="I39" s="55">
+        <v>1468</v>
+      </c>
+      <c r="J39" s="55">
+        <f t="shared" si="1"/>
+        <v>1686</v>
+      </c>
+      <c r="K39" s="55">
+        <v>0.12</v>
+      </c>
+      <c r="L39" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="M39" s="63">
+        <f t="shared" si="2"/>
+        <v>0.11707317073170732</v>
+      </c>
+      <c r="N39" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="O39" s="59">
+        <v>2.1134020599999999</v>
+      </c>
+      <c r="P39" s="59">
+        <v>2.0996264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="56">
+        <v>16</v>
+      </c>
+      <c r="F40" s="56">
+        <v>81</v>
+      </c>
+      <c r="G40" s="55">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="H40" s="56">
+        <v>79</v>
+      </c>
+      <c r="I40" s="56">
+        <v>724</v>
+      </c>
+      <c r="J40" s="55">
+        <f t="shared" si="1"/>
+        <v>803</v>
+      </c>
+      <c r="K40" s="56">
+        <v>0.16</v>
+      </c>
+      <c r="L40" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M40" s="63">
+        <f t="shared" si="2"/>
+        <v>0.16494845360824742</v>
+      </c>
+      <c r="N40" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+    </row>
+    <row r="41" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="55">
+        <v>40</v>
+      </c>
+      <c r="F41" s="55">
+        <v>262</v>
+      </c>
+      <c r="G41" s="55">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="H41" s="55">
+        <v>297</v>
+      </c>
+      <c r="I41" s="55">
+        <v>2192</v>
+      </c>
+      <c r="J41" s="55">
+        <f t="shared" si="1"/>
+        <v>2489</v>
+      </c>
+      <c r="K41" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="L41" s="55">
+        <v>0.12</v>
+      </c>
+      <c r="M41" s="63">
+        <f t="shared" si="2"/>
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="N41" s="60">
+        <v>0.12</v>
+      </c>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+    </row>
+    <row r="42" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="56">
+        <v>11</v>
+      </c>
+      <c r="F42" s="56">
+        <v>25</v>
+      </c>
+      <c r="G42" s="55">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H42" s="56">
+        <v>8</v>
+      </c>
+      <c r="I42" s="56">
+        <v>30</v>
+      </c>
+      <c r="J42" s="55">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="63">
+        <f t="shared" si="2"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="N42" s="60">
+        <f>H42/J42</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="O42" s="59">
+        <f>G42/G43</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="P42" s="59">
+        <f>J42/J43</f>
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="71"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="55">
+        <v>3</v>
+      </c>
+      <c r="F43" s="55">
+        <v>11</v>
+      </c>
+      <c r="G43" s="55">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H43" s="58">
+        <v>1</v>
+      </c>
+      <c r="I43" s="58">
+        <v>17</v>
+      </c>
+      <c r="J43" s="55">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+    </row>
+    <row r="44" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="71"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="58">
+        <f>SUM(E42:E43)</f>
+        <v>14</v>
+      </c>
+      <c r="F44" s="58">
+        <f>SUM(F42:F43)</f>
+        <v>36</v>
+      </c>
+      <c r="G44" s="58">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H44" s="58">
+        <f>SUM(H42:H43)</f>
+        <v>9</v>
+      </c>
+      <c r="I44" s="58">
+        <f>SUM(I42:I43)</f>
+        <v>47</v>
+      </c>
+      <c r="J44" s="58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="63">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N44" s="60">
+        <f>H44/J44</f>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+    </row>
+    <row r="45" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="71"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="55">
+        <v>8</v>
+      </c>
+      <c r="F45" s="55">
+        <v>18</v>
+      </c>
+      <c r="G45" s="58">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H45" s="56">
+        <v>8</v>
+      </c>
+      <c r="I45" s="56">
+        <v>30</v>
+      </c>
+      <c r="J45" s="58">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="63">
+        <f t="shared" si="2"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N45" s="60">
+        <f t="shared" ref="N43:N50" si="5">H45/J45</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="O45" s="59">
+        <f>G45/G46</f>
+        <v>2</v>
+      </c>
+      <c r="P45" s="59">
+        <f>J45/J46</f>
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="71"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="56">
+        <v>1</v>
+      </c>
+      <c r="F46" s="56">
+        <v>12</v>
+      </c>
+      <c r="G46" s="58">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H46" s="58">
+        <v>1</v>
+      </c>
+      <c r="I46" s="58">
+        <v>17</v>
+      </c>
+      <c r="J46" s="58">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+    </row>
+    <row r="47" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="71"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="55">
+        <f>SUM(E45:E46)</f>
+        <v>9</v>
+      </c>
+      <c r="F47" s="58">
+        <f>SUM(F45:F46)</f>
+        <v>30</v>
+      </c>
+      <c r="G47" s="58">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H47" s="58">
+        <f>SUM(H45:H46)</f>
+        <v>9</v>
+      </c>
+      <c r="I47" s="58">
+        <f>SUM(I45:I46)</f>
+        <v>47</v>
+      </c>
+      <c r="J47" s="58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="63">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N47" s="60">
+        <f t="shared" si="5"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+    </row>
+    <row r="48" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="71"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="56">
+        <v>15</v>
+      </c>
+      <c r="F48" s="56">
+        <v>34</v>
+      </c>
+      <c r="G48" s="58">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H48" s="56">
+        <v>8</v>
+      </c>
+      <c r="I48" s="56">
+        <v>30</v>
+      </c>
+      <c r="J48" s="58">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="63">
+        <f t="shared" si="2"/>
+        <v>0.30612244897959184</v>
+      </c>
+      <c r="N48" s="60">
+        <f t="shared" si="5"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="O48" s="59">
+        <f>G48/G49</f>
+        <v>2.1304347826086958</v>
+      </c>
+      <c r="P48" s="59">
+        <f>J48/J49</f>
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="71"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="55">
+        <v>4</v>
+      </c>
+      <c r="F49" s="55">
+        <v>19</v>
+      </c>
+      <c r="G49" s="58">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H49" s="58">
+        <v>1</v>
+      </c>
+      <c r="I49" s="58">
+        <v>17</v>
+      </c>
+      <c r="J49" s="58">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="N49" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+    </row>
+    <row r="50" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="72"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="58">
+        <f>SUM(E48:E49)</f>
+        <v>19</v>
+      </c>
+      <c r="F50" s="58">
+        <f>SUM(F48:F49)</f>
+        <v>53</v>
+      </c>
+      <c r="G50" s="58">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H50" s="58">
+        <f>SUM(H48:H49)</f>
+        <v>9</v>
+      </c>
+      <c r="I50" s="58">
+        <f>SUM(I48:I49)</f>
+        <v>47</v>
+      </c>
+      <c r="J50" s="58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="63">
+        <f>E50/G50</f>
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="N50" s="60">
+        <f t="shared" si="5"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="59">
+        <f>SUM(G11,G14,G17,G20,G29,G32,G35,G38,G41,G50)</f>
+        <v>2462</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="59">
+        <f>SUM(J11,J14,J17,J20,J29,J38,J50)</f>
+        <v>6133</v>
+      </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55">
+        <f>D54+D53</f>
+        <v>8595</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1FD4EF-D9A0-0343-BCD6-A4E5B7B26028}">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="11">
+        <v>1.24</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2</v>
+      </c>
+      <c r="N6" s="14">
+        <v>3</v>
+      </c>
+      <c r="O6" s="14">
+        <v>4</v>
+      </c>
+      <c r="P6" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D7" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="E7" s="15">
+        <v>11.3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>7.6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="I7" s="15">
+        <v>4213</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="18">
+        <v>579</v>
+      </c>
+      <c r="M7" s="18">
+        <v>78</v>
+      </c>
+      <c r="N7" s="18">
+        <v>88</v>
+      </c>
+      <c r="O7" s="18">
+        <v>582</v>
+      </c>
+      <c r="P7" s="18">
+        <v>2855</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="15">
+        <v>95.6</v>
+      </c>
+      <c r="D8" s="15">
+        <v>93.3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>88.7</v>
+      </c>
+      <c r="F8" s="15">
+        <v>92.4</v>
+      </c>
+      <c r="G8" s="15">
+        <v>96.6</v>
+      </c>
+      <c r="H8" s="15">
+        <v>96.2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>107755</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="18">
+        <v>12591</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1079</v>
+      </c>
+      <c r="N8" s="18">
+        <v>689</v>
+      </c>
+      <c r="O8" s="18">
+        <v>7071</v>
+      </c>
+      <c r="P8" s="18">
+        <v>86178</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>107608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="19">
+        <v>13170</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1157</v>
+      </c>
+      <c r="E9" s="15">
+        <v>777</v>
+      </c>
+      <c r="F9" s="15">
+        <v>7653</v>
+      </c>
+      <c r="G9" s="19">
+        <v>89211</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="19">
+        <v>111968</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="18">
+        <f>SUM(L7:N7)</f>
+        <v>745</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="18">
+        <f>SUM(L8:N8)</f>
+        <v>14359</v>
+      </c>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="18">
+        <f>SUM(O7:P7)</f>
+        <v>3437</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="18">
+        <f>SUM(O8:P8)</f>
+        <v>93249</v>
+      </c>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6.4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>11.3</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="I12" s="15">
+        <v>2955</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14">
+        <v>2</v>
+      </c>
+      <c r="N12" s="14">
+        <v>3</v>
+      </c>
+      <c r="O12" s="14">
+        <v>4</v>
+      </c>
+      <c r="P12" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="11">
+        <f>L9/L10</f>
+        <v>0.21675880128018621</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="11">
+        <f>P9/P10</f>
+        <v>0.15398556552885287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="15">
+        <v>96.3</v>
+      </c>
+      <c r="D13" s="15">
+        <v>93.6</v>
+      </c>
+      <c r="E13" s="15">
+        <v>88.7</v>
+      </c>
+      <c r="F13" s="15">
+        <v>94.2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>97.6</v>
+      </c>
+      <c r="H13" s="15">
+        <v>97.1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>98662</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="18">
+        <v>366</v>
+      </c>
+      <c r="M13" s="18">
+        <v>55</v>
+      </c>
+      <c r="N13" s="18">
+        <v>112</v>
+      </c>
+      <c r="O13" s="18">
+        <v>429</v>
+      </c>
+      <c r="P13" s="18">
+        <v>1979</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>2942</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="11">
+        <f>S12/U12</f>
+        <v>1.4076566237604347</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="15">
+        <v>9905</v>
+      </c>
+      <c r="D14" s="15">
+        <v>864</v>
+      </c>
+      <c r="E14" s="15">
+        <v>991</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7403</v>
+      </c>
+      <c r="G14" s="19">
+        <v>82454</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="19">
+        <v>101617</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="18">
+        <v>9539</v>
+      </c>
+      <c r="M14" s="18">
+        <v>809</v>
+      </c>
+      <c r="N14" s="18">
+        <v>879</v>
+      </c>
+      <c r="O14" s="18">
+        <v>6974</v>
+      </c>
+      <c r="P14" s="18">
+        <v>80475</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>98675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="18">
+        <f>SUM(L13:N13)</f>
+        <v>533</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="18">
+        <f>SUM(L14:N14)</f>
+        <v>11227</v>
+      </c>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="18">
+        <f>SUM(O13:P13)</f>
+        <v>2408</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="18">
+        <f>SUM(O14:P14)</f>
+        <v>87449</v>
+      </c>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="11">
+        <f>L15/L16</f>
+        <v>0.22134551495016611</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="11">
+        <f>P15/P16</f>
+        <v>0.12838340061064163</v>
+      </c>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="11">
+        <f>L21/P21</f>
+        <v>1.7240976161821568</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="18">
+        <f>L9</f>
+        <v>745</v>
+      </c>
+      <c r="D26" s="18">
+        <f>L10</f>
+        <v>3437</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="17">
+        <f>P9</f>
+        <v>14359</v>
+      </c>
+      <c r="D27" s="17">
+        <f>P10</f>
+        <v>93249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C28" s="43">
+        <f>(C26/D26)/(C27/D27)</f>
+        <v>1.4076566237604347</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="18">
+        <f>L15</f>
+        <v>533</v>
+      </c>
+      <c r="D36" s="18">
+        <f>L16</f>
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="17">
+        <f>P15</f>
+        <v>11227</v>
+      </c>
+      <c r="D37" s="17">
+        <f>P16</f>
+        <v>87449</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="43">
+        <f>(C36/D36)/(C37/D37)</f>
+        <v>1.7240976161821568</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:P11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" location="tblfn7" display="https://www.sciencedirect.com/science/article/pii/S0278262606000820 - tblfn7" xr:uid="{4D74B63B-2B86-0849-8ECE-0BFED292A0B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5F3184-F8C4-4F4C-AC58-C4C50654FB44}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="21">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="23">
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="23">
+        <v>11.3</v>
+      </c>
+      <c r="E3" s="23">
+        <v>7.6</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3.8</v>
+      </c>
+      <c r="H3" s="23">
+        <v>4213</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L3">
+        <v>6.7</v>
+      </c>
+      <c r="M3">
+        <v>11.3</v>
+      </c>
+      <c r="N3">
+        <v>7.6</v>
+      </c>
+      <c r="O3">
+        <v>3.2</v>
+      </c>
+      <c r="Q3">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="23">
+        <v>95.6</v>
+      </c>
+      <c r="C4" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D4" s="23">
+        <v>88.7</v>
+      </c>
+      <c r="E4" s="23">
+        <v>92.4</v>
+      </c>
+      <c r="F4" s="23">
+        <v>96.6</v>
+      </c>
+      <c r="G4" s="23">
+        <v>96.2</v>
+      </c>
+      <c r="H4" s="25">
+        <v>107755</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4">
+        <v>95.6</v>
+      </c>
+      <c r="L4">
+        <v>93.3</v>
+      </c>
+      <c r="M4">
+        <v>88.7</v>
+      </c>
+      <c r="N4">
+        <v>92.4</v>
+      </c>
+      <c r="O4">
+        <v>96.6</v>
+      </c>
+      <c r="Q4">
+        <v>107755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="25">
+        <v>13170</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1157</v>
+      </c>
+      <c r="D5" s="23">
+        <v>777</v>
+      </c>
+      <c r="E5" s="23">
+        <v>7653</v>
+      </c>
+      <c r="F5" s="25">
+        <v>89211</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="25">
+        <v>111968</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5">
+        <v>13170</v>
+      </c>
+      <c r="L5">
+        <v>1157</v>
+      </c>
+      <c r="M5">
+        <v>777</v>
+      </c>
+      <c r="N5">
+        <v>7653</v>
+      </c>
+      <c r="O5">
+        <v>89211</v>
+      </c>
+      <c r="Q5">
+        <v>111968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="23">
+        <v>3.7</v>
+      </c>
+      <c r="C8" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="D8" s="23">
+        <v>11.3</v>
+      </c>
+      <c r="E8" s="23">
+        <v>5.8</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="G8" s="23">
+        <v>2.9</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2955</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8">
+        <v>3.7</v>
+      </c>
+      <c r="L8">
+        <v>6.4</v>
+      </c>
+      <c r="M8">
+        <v>11.3</v>
+      </c>
+      <c r="N8">
+        <v>5.8</v>
+      </c>
+      <c r="O8">
+        <v>2.4</v>
+      </c>
+      <c r="Q8">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="23">
+        <v>96.3</v>
+      </c>
+      <c r="C9" s="23">
+        <v>93.6</v>
+      </c>
+      <c r="D9" s="23">
+        <v>88.7</v>
+      </c>
+      <c r="E9" s="23">
+        <v>94.2</v>
+      </c>
+      <c r="F9" s="23">
+        <v>97.6</v>
+      </c>
+      <c r="G9" s="23">
+        <v>97.1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>98662</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9">
+        <v>96.3</v>
+      </c>
+      <c r="L9">
+        <v>93.6</v>
+      </c>
+      <c r="M9">
+        <v>88.7</v>
+      </c>
+      <c r="N9">
+        <v>94.2</v>
+      </c>
+      <c r="O9">
+        <v>97.6</v>
+      </c>
+      <c r="Q9">
+        <v>98662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="23">
+        <v>9905</v>
+      </c>
+      <c r="C10" s="23">
+        <v>864</v>
+      </c>
+      <c r="D10" s="23">
+        <v>991</v>
+      </c>
+      <c r="E10" s="23">
+        <v>7403</v>
+      </c>
+      <c r="F10" s="25">
+        <v>82454</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25">
+        <v>101617</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10">
+        <v>9905</v>
+      </c>
+      <c r="L10">
+        <v>864</v>
+      </c>
+      <c r="M10">
+        <v>991</v>
+      </c>
+      <c r="N10">
+        <v>7403</v>
+      </c>
+      <c r="O10">
+        <v>82454</v>
+      </c>
+      <c r="Q10">
+        <v>101617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="27"/>
+      <c r="M12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I13" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30">
+        <f>(K3*K5)/100</f>
+        <v>579.48</v>
+      </c>
+      <c r="L13" s="30">
+        <f t="shared" ref="L13:O13" si="0">(L3*L5)/100</f>
+        <v>77.519000000000005</v>
+      </c>
+      <c r="M13" s="30">
+        <f t="shared" si="0"/>
+        <v>87.801000000000002</v>
+      </c>
+      <c r="N13" s="30">
+        <f t="shared" si="0"/>
+        <v>581.62799999999993</v>
+      </c>
+      <c r="O13" s="30">
+        <f t="shared" si="0"/>
+        <v>2854.752</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="32"/>
+      <c r="J14" s="27"/>
+      <c r="K14">
+        <f>(K4*K5)/100</f>
+        <v>12590.52</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:O14" si="1">(L4*L5)/100</f>
+        <v>1079.481</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>689.19900000000007</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>7071.3720000000003</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>86177.826000000001</v>
+      </c>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I15" s="32"/>
+      <c r="J15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="34">
+        <f>SUM(K13:M13)</f>
+        <v>744.80000000000007</v>
+      </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31">
+        <f>SUM(N13:O13)</f>
+        <v>3436.38</v>
+      </c>
+      <c r="Q15">
+        <f>M15/O15</f>
+        <v>0.21673970864689004</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="35"/>
+    </row>
+    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="32"/>
+      <c r="J16" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="36">
+        <f>SUM(K14:M14)</f>
+        <v>14359.2</v>
+      </c>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38">
+        <f>SUM(N14:O14)</f>
+        <v>93249.198000000004</v>
+      </c>
+      <c r="Q16">
+        <f>M16/O16</f>
+        <v>0.15398738335529707</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" s="35"/>
+    </row>
+    <row r="17" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
+    </row>
+    <row r="18" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I18" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30">
+        <f>(K8*K10)/100</f>
+        <v>366.48500000000001</v>
+      </c>
+      <c r="L18" s="30">
+        <f t="shared" ref="L18:O18" si="2">(L8*L10)/100</f>
+        <v>55.296000000000006</v>
+      </c>
+      <c r="M18" s="30">
+        <f t="shared" si="2"/>
+        <v>111.983</v>
+      </c>
+      <c r="N18" s="30">
+        <f t="shared" si="2"/>
+        <v>429.37400000000002</v>
+      </c>
+      <c r="O18" s="30">
+        <f t="shared" si="2"/>
+        <v>1978.896</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="32"/>
+      <c r="J19" s="27"/>
+      <c r="K19">
+        <f>(K9*K10)/100</f>
+        <v>9538.5149999999994</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:O19" si="3">(L9*L10)/100</f>
+        <v>808.70399999999995</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>879.01699999999994</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>6973.6260000000002</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>80475.103999999992</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I20" s="32"/>
+      <c r="J20" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="34">
+        <f>SUM(K18:M18)</f>
+        <v>533.76400000000001</v>
+      </c>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31">
+        <f>SUM(N18:O18)</f>
+        <v>2408.27</v>
+      </c>
+      <c r="Q20">
+        <f>M20/O20</f>
+        <v>0.22163793926760705</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="35"/>
+    </row>
+    <row r="21" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="39"/>
+      <c r="J21" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="36">
+        <f>SUM(K19:M19)</f>
+        <v>11226.235999999999</v>
+      </c>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38">
+        <f>SUM(N19:O19)</f>
+        <v>87448.73</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37">
+        <f>M21/O21</f>
+        <v>0.12837506044970579</v>
+      </c>
+      <c r="R21" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" location="tblfn7" display="https://www.sciencedirect.com/science/article/pii/S0278262606000820?via%3Dihub - tblfn7" xr:uid="{26820CD7-1CDF-6147-85D7-03D825F1E1BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE9C84-2371-574C-A11E-8FFAD0B22FBD}">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="46">
+        <v>2745</v>
+      </c>
+      <c r="B3" s="46">
+        <v>6182</v>
+      </c>
+      <c r="C3" s="46">
+        <v>14359</v>
+      </c>
+      <c r="D3" s="46">
+        <v>107608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="45">
+        <v>2745</v>
+      </c>
+      <c r="C6" s="47">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="48">
+        <v>14359</v>
+      </c>
+      <c r="C7" s="49">
+        <v>93249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23A7C26-9B50-AD4C-A948-05AF404D49FB}">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>16+105</f>
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f>35+360</f>
+        <v>395</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <f>15+87</f>
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <f>37+248</f>
+        <v>285</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <f>27+183</f>
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>218</v>
+      </c>
+      <c r="E4" s="6">
+        <f>218+1468</f>
+        <v>1686</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f>19+158</f>
+        <v>177</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <f>51+331</f>
+        <v>382</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <f>37+112</f>
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <v>218</v>
+      </c>
+      <c r="E6" s="6">
+        <f>218+1468</f>
+        <v>1686</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <f>24+181</f>
+        <v>205</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <f>14+95</f>
+        <v>109</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>5+23</f>
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f>8+41</f>
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D6BE-05BE-9E47-87D8-D02BC964712E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1670,7 +6160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED4AAC-7EBB-2845-BD04-9344117E7582}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1815,7 +6305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A136558-2741-CF40-BCF8-76D19D3ACA21}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2030,285 +6520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C273FEF-7270-914F-9008-FD5984BFD23F}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <f>'google data'!G19</f>
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <f>'google data'!G19+'google data'!F19</f>
-        <v>83</v>
-      </c>
-      <c r="D2">
-        <f>'google data'!I19</f>
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <f>'google data'!I19+'google data'!H19</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <f>'google data'!G16</f>
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <f>'google data'!G16+'google data'!F16</f>
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <f>'google data'!I16</f>
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <f>'google data'!I16+'google data'!H16</f>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>'google data'!G7</f>
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <f>'google data'!G7+'google data'!F7</f>
-        <v>104</v>
-      </c>
-      <c r="D4">
-        <f>'google data'!I7</f>
-        <v>136</v>
-      </c>
-      <c r="E4">
-        <f>'google data'!I7+'google data'!H7</f>
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f>'google data'!G25</f>
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <f>'google data'!G25+'google data'!F25</f>
-        <v>137</v>
-      </c>
-      <c r="D5">
-        <f>'google data'!I25</f>
-        <v>69</v>
-      </c>
-      <c r="E5">
-        <f>'google data'!I25+'google data'!H25</f>
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <f>'google data'!G49</f>
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f>'google data'!G49+'google data'!F49</f>
-        <v>46</v>
-      </c>
-      <c r="D6">
-        <f>'google data'!I49</f>
-        <v>54</v>
-      </c>
-      <c r="E6">
-        <f>'google data'!I49+'google data'!H49</f>
-        <v>524</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92E7F40-3DCB-9F42-8DBE-43E3A4FFD2E1}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <f>'google data'!G18</f>
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <f>'google data'!G18+'google data'!F18</f>
-        <v>121</v>
-      </c>
-      <c r="D2">
-        <f>'google data'!I18</f>
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <f>'google data'!I18+'google data'!H18</f>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <f>'google data'!G15</f>
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <f>'google data'!G15+'google data'!F15</f>
-        <v>102</v>
-      </c>
-      <c r="D3">
-        <f>'google data'!I15</f>
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <f>'google data'!I15+'google data'!H15</f>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>'google data'!G6</f>
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <f>'google data'!G6+'google data'!F6</f>
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <f>'google data'!I6</f>
-        <v>218</v>
-      </c>
-      <c r="E4">
-        <f>'google data'!I6+'google data'!H6</f>
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f>'google data'!G24</f>
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <f>'google data'!G24+'google data'!F24</f>
-        <v>86</v>
-      </c>
-      <c r="D5">
-        <f>'google data'!I24</f>
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <f>'google data'!I24+'google data'!H24</f>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <f>'google data'!G48</f>
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <f>'google data'!G48+'google data'!F48</f>
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <f>'google data'!I48</f>
-        <v>218</v>
-      </c>
-      <c r="E6">
-        <f>'google data'!I48+'google data'!H48</f>
-        <v>1686</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A09058-EDA2-794D-9976-A5B67BA13623}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2402,240 +6614,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282C54D-ECEF-5B4A-B2FE-0D87E182EEEB}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <f>'google data'!G39</f>
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <f>'google data'!G39+'google data'!F39</f>
-        <v>205</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'google data'!I39</f>
-        <v>218</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'google data'!I39+'google data'!H39</f>
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <f>'google data'!G21</f>
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <f>'google data'!G21+'google data'!F21</f>
-        <v>123</v>
-      </c>
-      <c r="D3">
-        <f>'google data'!I21</f>
-        <v>51</v>
-      </c>
-      <c r="E3">
-        <f>'google data'!I21+'google data'!H21</f>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>'google data'!G3</f>
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <f>'google data'!G3+'google data'!F3</f>
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <f>'google data'!I3</f>
-        <v>218</v>
-      </c>
-      <c r="E4" s="6">
-        <f>'google data'!I3+'google data'!H3</f>
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <f>18+97</f>
-        <v>115</v>
-      </c>
-      <c r="D5">
-        <v>66</v>
-      </c>
-      <c r="E5">
-        <f>66+450</f>
-        <v>516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AA266-2735-8C43-9155-1133034A0A26}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <f>'google data'!G40</f>
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <f>'google data'!G40+'google data'!F40</f>
-        <v>97</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'google data'!I40</f>
-        <v>79</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'google data'!I40+'google data'!H40</f>
-        <v>803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <f>'google data'!G22</f>
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <f>'google data'!G22+'google data'!F22</f>
-        <v>143</v>
-      </c>
-      <c r="D3">
-        <f>'google data'!I22</f>
-        <v>69</v>
-      </c>
-      <c r="E3">
-        <f>'google data'!I22+'google data'!H22</f>
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>'google data'!G4</f>
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <f>'google data'!G4+'google data'!F4</f>
-        <v>54</v>
-      </c>
-      <c r="D4">
-        <f>'google data'!I4</f>
-        <v>136</v>
-      </c>
-      <c r="E4" s="6">
-        <f>'google data'!I4+'google data'!H4</f>
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <f>13+106</f>
-        <v>119</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <f>70+464</f>
-        <v>534</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56963500-CA4D-E646-BFD5-F3896B495C2F}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I48" sqref="H48:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4948,24 +8932,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078E827-9226-664E-A5DC-9CAE983779B2}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -4973,161 +8957,164 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>6+77</f>
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <f>21+250</f>
+        <v>271</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f>6+49</f>
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f>12+141</f>
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f>18+158</f>
+        <v>176</v>
+      </c>
+      <c r="D4">
+        <v>136</v>
+      </c>
+      <c r="E4" s="6">
+        <f>136+1136</f>
+        <v>1272</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <f>43+198</f>
+        <v>241</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <f>69+457</f>
+        <v>526</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>8+38</f>
+        <v>46</v>
+      </c>
+      <c r="D6" s="5">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5">
+        <f>54+470</f>
+        <v>524</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>302</v>
-      </c>
-      <c r="D2" s="5">
-        <v>297</v>
-      </c>
-      <c r="E2" s="5">
-        <f>297+2192</f>
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <f>28+70+137</f>
-        <v>235</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <f>7+33+17</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <f>223+43</f>
-        <v>266</v>
-      </c>
-      <c r="D4">
-        <f>70+50</f>
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <f>526+382</f>
-        <v>908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="B7">
         <v>16</v>
       </c>
-      <c r="C5">
-        <f>98+16</f>
-        <v>114</v>
-      </c>
-      <c r="D5">
-        <v>354</v>
-      </c>
-      <c r="E5" s="6">
-        <f>354+2604</f>
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <f>31+203</f>
-        <v>234</v>
-      </c>
-      <c r="D6">
-        <v>136</v>
-      </c>
-      <c r="E6">
-        <f>136+914</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
       <c r="C7">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+        <f>16+81</f>
+        <v>97</v>
+      </c>
+      <c r="D7" s="5">
+        <v>79</v>
+      </c>
+      <c r="E7" s="5">
+        <f>79+724</f>
+        <v>803</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>533</v>
+      </c>
+      <c r="C8">
+        <f>533+2408</f>
+        <v>2941</v>
+      </c>
+      <c r="D8">
+        <f>11227</f>
+        <v>11227</v>
+      </c>
+      <c r="E8">
+        <f>D8+87449</f>
+        <v>98676</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5135,255 +9122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC49C6-505E-DC43-883F-74098BEBDD3C}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <f>22+182</f>
-        <v>204</v>
-      </c>
-      <c r="D2">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <f>56+610</f>
-        <v>666</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <f>21+136</f>
-        <v>157</v>
-      </c>
-      <c r="D3">
-        <v>49</v>
-      </c>
-      <c r="E3">
-        <f>389+49</f>
-        <v>438</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <f>45+323</f>
-        <v>368</v>
-      </c>
-      <c r="D4">
-        <v>354</v>
-      </c>
-      <c r="E4">
-        <f>354+2604</f>
-        <v>2958</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <f>62+356</f>
-        <v>418</v>
-      </c>
-      <c r="D5">
-        <f>70+50</f>
-        <v>120</v>
-      </c>
-      <c r="E5">
-        <f>526+382</f>
-        <v>908</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <f>45+150</f>
-        <v>195</v>
-      </c>
-      <c r="D6" s="5">
-        <v>272</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1938</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>302</v>
-      </c>
-      <c r="D7" s="5">
-        <v>297</v>
-      </c>
-      <c r="E7" s="5">
-        <f>297+2192</f>
-        <v>2489</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <f>28+70+137</f>
-        <v>235</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <f>7+33+17</f>
-        <v>57</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9">
-        <f>745+533</f>
-        <v>1278</v>
-      </c>
-      <c r="C9">
-        <f>B9+3437+408</f>
-        <v>5123</v>
-      </c>
-      <c r="D9">
-        <f>14359+11227</f>
-        <v>25586</v>
-      </c>
-      <c r="E9">
-        <f>D9+93249+87449</f>
-        <v>206284</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>87</v>
-      </c>
-      <c r="D10" s="50">
-        <v>14</v>
-      </c>
-      <c r="E10" s="50">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB91A93-20D8-5240-A569-93FEDF0E77E0}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5464,7 +9207,6 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <f>27+183</f>
         <v>210</v>
       </c>
       <c r="D4">
@@ -5571,25 +9313,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078E827-9226-664E-A5DC-9CAE983779B2}">
-  <dimension ref="A1:F8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C58A0-AE3B-164A-826D-BCBAEC3E436B}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -5597,163 +9346,260 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <f>6+77</f>
-        <v>83</v>
+        <f>22+182</f>
+        <v>204</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <f>21+250</f>
-        <v>271</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <f>56+610</f>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <f>6+49</f>
-        <v>55</v>
+        <f>21+136</f>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <f>12+141</f>
-        <v>153</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <f>389+49</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <f>18+140</f>
-        <v>158</v>
+        <f>225+29</f>
+        <v>254</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="E4" s="6">
-        <f>136+1136</f>
-        <v>1272</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <f>354+2604</f>
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <f>43+198</f>
-        <v>241</v>
+        <f>33+190</f>
+        <v>223</v>
       </c>
       <c r="D5">
+        <f>70+50</f>
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <f>526+382</f>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>39</v>
+      </c>
+      <c r="D6" s="50">
+        <v>9</v>
+      </c>
+      <c r="E6" s="50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <f>45+150</f>
+        <v>195</v>
+      </c>
+      <c r="D7" s="5">
+        <v>272</v>
+      </c>
+      <c r="E7" s="5">
+        <f>272+1938</f>
+        <v>2210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C273FEF-7270-914F-9008-FD5984BFD23F}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <f>'google data'!G19</f>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>'google data'!G19+'google data'!F19</f>
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <f>'google data'!I19</f>
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <f>'google data'!I19+'google data'!H19</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f>'google data'!G16</f>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f>'google data'!G16+'google data'!F16</f>
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <f>'google data'!I16</f>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f>'google data'!I16+'google data'!H16</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>'google data'!G7</f>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <f>12+92</f>
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <f>'google data'!I7</f>
+        <v>136</v>
+      </c>
+      <c r="E4">
+        <f>'google data'!I7+'google data'!H7</f>
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>'google data'!G25</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>'google data'!G25+'google data'!F25</f>
+        <v>137</v>
+      </c>
+      <c r="D5">
+        <f>'google data'!I25</f>
         <v>69</v>
       </c>
       <c r="E5">
-        <f>69+457</f>
+        <f>'google data'!I25+'google data'!H25</f>
         <v>526</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
+        <f>'google data'!G49</f>
         <v>8</v>
       </c>
       <c r="C6">
-        <f>8+38</f>
+        <f>'google data'!G49+'google data'!F49</f>
         <v>46</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
+        <f>'google data'!I49</f>
         <v>54</v>
       </c>
-      <c r="E6" s="5">
-        <f>54+470</f>
+      <c r="E6">
+        <f>'google data'!I49+'google data'!H49</f>
         <v>524</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <f>16+81</f>
-        <v>97</v>
-      </c>
-      <c r="D7" s="5">
-        <v>79</v>
-      </c>
-      <c r="E7" s="5">
-        <f>79+724</f>
-        <v>803</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8">
-        <v>533</v>
-      </c>
-      <c r="C8">
-        <f>533+2408</f>
-        <v>2941</v>
-      </c>
-      <c r="D8">
-        <f>11227</f>
-        <v>11227</v>
-      </c>
-      <c r="E8">
-        <f>D8+87449</f>
-        <v>98676</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5762,1520 +9608,435 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1FD4EF-D9A0-0343-BCD6-A4E5B7B26028}">
-  <dimension ref="A1:U38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92E7F40-3DCB-9F42-8DBE-43E3A4FFD2E1}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11">
-        <v>1.24</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="12">
-        <v>5</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="14">
-        <v>1</v>
-      </c>
-      <c r="M6" s="14">
-        <v>2</v>
-      </c>
-      <c r="N6" s="14">
-        <v>3</v>
-      </c>
-      <c r="O6" s="14">
-        <v>4</v>
-      </c>
-      <c r="P6" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D7" s="15">
-        <v>6.7</v>
-      </c>
-      <c r="E7" s="15">
-        <v>11.3</v>
-      </c>
-      <c r="F7" s="15">
-        <v>7.6</v>
-      </c>
-      <c r="G7" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3.8</v>
-      </c>
-      <c r="I7" s="15">
-        <v>4213</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="18">
-        <v>579</v>
-      </c>
-      <c r="M7" s="18">
-        <v>78</v>
-      </c>
-      <c r="N7" s="18">
-        <v>88</v>
-      </c>
-      <c r="O7" s="18">
-        <v>582</v>
-      </c>
-      <c r="P7" s="18">
-        <v>2855</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>4181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="15">
-        <v>95.6</v>
-      </c>
-      <c r="D8" s="15">
-        <v>93.3</v>
-      </c>
-      <c r="E8" s="15">
-        <v>88.7</v>
-      </c>
-      <c r="F8" s="15">
-        <v>92.4</v>
-      </c>
-      <c r="G8" s="15">
-        <v>96.6</v>
-      </c>
-      <c r="H8" s="15">
-        <v>96.2</v>
-      </c>
-      <c r="I8" s="19">
-        <v>107755</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="18">
-        <v>12591</v>
-      </c>
-      <c r="M8" s="18">
-        <v>1079</v>
-      </c>
-      <c r="N8" s="18">
-        <v>689</v>
-      </c>
-      <c r="O8" s="18">
-        <v>7071</v>
-      </c>
-      <c r="P8" s="18">
-        <v>86178</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>107608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="19">
-        <v>13170</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1157</v>
-      </c>
-      <c r="E9" s="15">
-        <v>777</v>
-      </c>
-      <c r="F9" s="15">
-        <v>7653</v>
-      </c>
-      <c r="G9" s="19">
-        <v>89211</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="19">
-        <v>111968</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="18">
-        <f>SUM(L7:N7)</f>
-        <v>745</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="18">
-        <f>SUM(L8:N8)</f>
-        <v>14359</v>
-      </c>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="18">
-        <f>SUM(O7:P7)</f>
-        <v>3437</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="18">
-        <f>SUM(O8:P8)</f>
-        <v>93249</v>
-      </c>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="15">
-        <v>3.7</v>
-      </c>
-      <c r="D12" s="15">
-        <v>6.4</v>
-      </c>
-      <c r="E12" s="15">
-        <v>11.3</v>
-      </c>
-      <c r="F12" s="15">
-        <v>5.8</v>
-      </c>
-      <c r="G12" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2.9</v>
-      </c>
-      <c r="I12" s="15">
-        <v>2955</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14">
-        <v>2</v>
-      </c>
-      <c r="N12" s="14">
-        <v>3</v>
-      </c>
-      <c r="O12" s="14">
-        <v>4</v>
-      </c>
-      <c r="P12" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="S12" s="11">
-        <f>L9/L10</f>
-        <v>0.21675880128018621</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="11">
-        <f>P9/P10</f>
-        <v>0.15398556552885287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="15">
-        <v>96.3</v>
-      </c>
-      <c r="D13" s="15">
-        <v>93.6</v>
-      </c>
-      <c r="E13" s="15">
-        <v>88.7</v>
-      </c>
-      <c r="F13" s="15">
-        <v>94.2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>97.6</v>
-      </c>
-      <c r="H13" s="15">
-        <v>97.1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>98662</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="18">
-        <v>366</v>
-      </c>
-      <c r="M13" s="18">
-        <v>55</v>
-      </c>
-      <c r="N13" s="18">
-        <v>112</v>
-      </c>
-      <c r="O13" s="18">
-        <v>429</v>
-      </c>
-      <c r="P13" s="18">
-        <v>1979</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>2942</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="11">
-        <f>S12/U12</f>
-        <v>1.4076566237604347</v>
-      </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="15">
-        <v>9905</v>
-      </c>
-      <c r="D14" s="15">
-        <v>864</v>
-      </c>
-      <c r="E14" s="15">
-        <v>991</v>
-      </c>
-      <c r="F14" s="15">
-        <v>7403</v>
-      </c>
-      <c r="G14" s="19">
-        <v>82454</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="19">
-        <v>101617</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="18">
-        <v>9539</v>
-      </c>
-      <c r="M14" s="18">
-        <v>809</v>
-      </c>
-      <c r="N14" s="18">
-        <v>879</v>
-      </c>
-      <c r="O14" s="18">
-        <v>6974</v>
-      </c>
-      <c r="P14" s="18">
-        <v>80475</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>98675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="18">
-        <f>SUM(L13:N13)</f>
-        <v>533</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="18">
-        <f>SUM(L14:N14)</f>
-        <v>11227</v>
-      </c>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="18">
-        <f>SUM(O13:P13)</f>
-        <v>2408</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="18">
-        <f>SUM(O14:P14)</f>
-        <v>87449</v>
-      </c>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="11">
-        <f>L15/L16</f>
-        <v>0.22134551495016611</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="11">
-        <f>P15/P16</f>
-        <v>0.12838340061064163</v>
-      </c>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="11">
-        <f>L21/P21</f>
-        <v>1.7240976161821568</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="18">
-        <f>L9</f>
-        <v>745</v>
-      </c>
-      <c r="D26" s="18">
-        <f>L10</f>
-        <v>3437</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="17">
-        <f>P9</f>
-        <v>14359</v>
-      </c>
-      <c r="D27" s="17">
-        <f>P10</f>
-        <v>93249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C28" s="43">
-        <f>(C26/D26)/(C27/D27)</f>
-        <v>1.4076566237604347</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="18">
-        <f>L15</f>
-        <v>533</v>
-      </c>
-      <c r="D36" s="18">
-        <f>L16</f>
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="17">
-        <f>P15</f>
-        <v>11227</v>
-      </c>
-      <c r="D37" s="17">
-        <f>P16</f>
-        <v>87449</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="43">
-        <f>(C36/D36)/(C37/D37)</f>
-        <v>1.7240976161821568</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <f>'google data'!G18</f>
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>'google data'!G18+'google data'!F18</f>
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <f>'google data'!I18</f>
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f>'google data'!I18+'google data'!H18</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f>'google data'!G15</f>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <f>'google data'!G15+'google data'!F15</f>
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <f>'google data'!I15</f>
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <f>'google data'!I15+'google data'!H15</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>'google data'!G6</f>
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <f>'google data'!G6+'google data'!F6</f>
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <f>'google data'!I6</f>
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <f>'google data'!I6+'google data'!H6</f>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>'google data'!G24</f>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>'google data'!G24+'google data'!F24</f>
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <f>'google data'!I24</f>
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <f>'google data'!I24+'google data'!H24</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <f>'google data'!G48</f>
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <f>'google data'!G48+'google data'!F48</f>
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <f>'google data'!I48</f>
+        <v>218</v>
+      </c>
+      <c r="E6">
+        <f>'google data'!I48+'google data'!H48</f>
+        <v>1686</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:P11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" location="tblfn7" display="https://www.sciencedirect.com/science/article/pii/S0278262606000820 - tblfn7" xr:uid="{4D74B63B-2B86-0849-8ECE-0BFED292A0B9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5F3184-F8C4-4F4C-AC58-C4C50654FB44}">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="21">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21">
-        <v>5</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-      <c r="L1">
-        <v>2</v>
-      </c>
-      <c r="M1">
-        <v>3</v>
-      </c>
-      <c r="N1">
-        <v>4</v>
-      </c>
-      <c r="O1">
-        <v>5</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="23">
-        <v>6.7</v>
-      </c>
-      <c r="D3" s="23">
-        <v>11.3</v>
-      </c>
-      <c r="E3" s="23">
-        <v>7.6</v>
-      </c>
-      <c r="F3" s="23">
-        <v>3.2</v>
-      </c>
-      <c r="G3" s="23">
-        <v>3.8</v>
-      </c>
-      <c r="H3" s="23">
-        <v>4213</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L3">
-        <v>6.7</v>
-      </c>
-      <c r="M3">
-        <v>11.3</v>
-      </c>
-      <c r="N3">
-        <v>7.6</v>
-      </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="Q3">
-        <v>4213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="23">
-        <v>95.6</v>
-      </c>
-      <c r="C4" s="23">
-        <v>93.3</v>
-      </c>
-      <c r="D4" s="23">
-        <v>88.7</v>
-      </c>
-      <c r="E4" s="23">
-        <v>92.4</v>
-      </c>
-      <c r="F4" s="23">
-        <v>96.6</v>
-      </c>
-      <c r="G4" s="23">
-        <v>96.2</v>
-      </c>
-      <c r="H4" s="25">
-        <v>107755</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4">
-        <v>95.6</v>
-      </c>
-      <c r="L4">
-        <v>93.3</v>
-      </c>
-      <c r="M4">
-        <v>88.7</v>
-      </c>
-      <c r="N4">
-        <v>92.4</v>
-      </c>
-      <c r="O4">
-        <v>96.6</v>
-      </c>
-      <c r="Q4">
-        <v>107755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="25">
-        <v>13170</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1157</v>
-      </c>
-      <c r="D5" s="23">
-        <v>777</v>
-      </c>
-      <c r="E5" s="23">
-        <v>7653</v>
-      </c>
-      <c r="F5" s="25">
-        <v>89211</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="25">
-        <v>111968</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5">
-        <v>13170</v>
-      </c>
-      <c r="L5">
-        <v>1157</v>
-      </c>
-      <c r="M5">
-        <v>777</v>
-      </c>
-      <c r="N5">
-        <v>7653</v>
-      </c>
-      <c r="O5">
-        <v>89211</v>
-      </c>
-      <c r="Q5">
-        <v>111968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="23">
-        <v>3.7</v>
-      </c>
-      <c r="C8" s="23">
-        <v>6.4</v>
-      </c>
-      <c r="D8" s="23">
-        <v>11.3</v>
-      </c>
-      <c r="E8" s="23">
-        <v>5.8</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2.4</v>
-      </c>
-      <c r="G8" s="23">
-        <v>2.9</v>
-      </c>
-      <c r="H8" s="23">
-        <v>2955</v>
-      </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8">
-        <v>3.7</v>
-      </c>
-      <c r="L8">
-        <v>6.4</v>
-      </c>
-      <c r="M8">
-        <v>11.3</v>
-      </c>
-      <c r="N8">
-        <v>5.8</v>
-      </c>
-      <c r="O8">
-        <v>2.4</v>
-      </c>
-      <c r="Q8">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="23">
-        <v>96.3</v>
-      </c>
-      <c r="C9" s="23">
-        <v>93.6</v>
-      </c>
-      <c r="D9" s="23">
-        <v>88.7</v>
-      </c>
-      <c r="E9" s="23">
-        <v>94.2</v>
-      </c>
-      <c r="F9" s="23">
-        <v>97.6</v>
-      </c>
-      <c r="G9" s="23">
-        <v>97.1</v>
-      </c>
-      <c r="H9" s="25">
-        <v>98662</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9">
-        <v>96.3</v>
-      </c>
-      <c r="L9">
-        <v>93.6</v>
-      </c>
-      <c r="M9">
-        <v>88.7</v>
-      </c>
-      <c r="N9">
-        <v>94.2</v>
-      </c>
-      <c r="O9">
-        <v>97.6</v>
-      </c>
-      <c r="Q9">
-        <v>98662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="23">
-        <v>9905</v>
-      </c>
-      <c r="C10" s="23">
-        <v>864</v>
-      </c>
-      <c r="D10" s="23">
-        <v>991</v>
-      </c>
-      <c r="E10" s="23">
-        <v>7403</v>
-      </c>
-      <c r="F10" s="25">
-        <v>82454</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25">
-        <v>101617</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10">
-        <v>9905</v>
-      </c>
-      <c r="L10">
-        <v>864</v>
-      </c>
-      <c r="M10">
-        <v>991</v>
-      </c>
-      <c r="N10">
-        <v>7403</v>
-      </c>
-      <c r="O10">
-        <v>82454</v>
-      </c>
-      <c r="Q10">
-        <v>101617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="27"/>
-      <c r="M12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30">
-        <f>(K3*K5)/100</f>
-        <v>579.48</v>
-      </c>
-      <c r="L13" s="30">
-        <f t="shared" ref="L13:O13" si="0">(L3*L5)/100</f>
-        <v>77.519000000000005</v>
-      </c>
-      <c r="M13" s="30">
-        <f t="shared" si="0"/>
-        <v>87.801000000000002</v>
-      </c>
-      <c r="N13" s="30">
-        <f t="shared" si="0"/>
-        <v>581.62799999999993</v>
-      </c>
-      <c r="O13" s="30">
-        <f t="shared" si="0"/>
-        <v>2854.752</v>
-      </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="32"/>
-      <c r="J14" s="27"/>
-      <c r="K14">
-        <f>(K4*K5)/100</f>
-        <v>12590.52</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14:O14" si="1">(L4*L5)/100</f>
-        <v>1079.481</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>689.19900000000007</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>7071.3720000000003</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>86177.826000000001</v>
-      </c>
-      <c r="S14" s="33"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I15" s="32"/>
-      <c r="J15" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="34">
-        <f>SUM(K13:M13)</f>
-        <v>744.80000000000007</v>
-      </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31">
-        <f>SUM(N13:O13)</f>
-        <v>3436.38</v>
-      </c>
-      <c r="Q15">
-        <f>M15/O15</f>
-        <v>0.21673970864689004</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" s="35"/>
-    </row>
-    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="32"/>
-      <c r="J16" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="36">
-        <f>SUM(K14:M14)</f>
-        <v>14359.2</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38">
-        <f>SUM(N14:O14)</f>
-        <v>93249.198000000004</v>
-      </c>
-      <c r="Q16">
-        <f>M16/O16</f>
-        <v>0.15398738335529707</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="S16" s="35"/>
-    </row>
-    <row r="17" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
-    </row>
-    <row r="18" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="I18" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30">
-        <f>(K8*K10)/100</f>
-        <v>366.48500000000001</v>
-      </c>
-      <c r="L18" s="30">
-        <f t="shared" ref="L18:O18" si="2">(L8*L10)/100</f>
-        <v>55.296000000000006</v>
-      </c>
-      <c r="M18" s="30">
-        <f t="shared" si="2"/>
-        <v>111.983</v>
-      </c>
-      <c r="N18" s="30">
-        <f t="shared" si="2"/>
-        <v>429.37400000000002</v>
-      </c>
-      <c r="O18" s="30">
-        <f t="shared" si="2"/>
-        <v>1978.896</v>
-      </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="42"/>
-    </row>
-    <row r="19" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="32"/>
-      <c r="J19" s="27"/>
-      <c r="K19">
-        <f>(K9*K10)/100</f>
-        <v>9538.5149999999994</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ref="L19:O19" si="3">(L9*L10)/100</f>
-        <v>808.70399999999995</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>879.01699999999994</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="3"/>
-        <v>6973.6260000000002</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>80475.103999999992</v>
-      </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="35"/>
-    </row>
-    <row r="20" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="I20" s="32"/>
-      <c r="J20" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="34">
-        <f>SUM(K18:M18)</f>
-        <v>533.76400000000001</v>
-      </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31">
-        <f>SUM(N18:O18)</f>
-        <v>2408.27</v>
-      </c>
-      <c r="Q20">
-        <f>M20/O20</f>
-        <v>0.22163793926760705</v>
-      </c>
-      <c r="R20" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" s="35"/>
-    </row>
-    <row r="21" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="39"/>
-      <c r="J21" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="36">
-        <f>SUM(K19:M19)</f>
-        <v>11226.235999999999</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38">
-        <f>SUM(N19:O19)</f>
-        <v>87448.73</v>
-      </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37">
-        <f>M21/O21</f>
-        <v>0.12837506044970579</v>
-      </c>
-      <c r="R21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="S21" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>302</v>
+      </c>
+      <c r="D2" s="5">
+        <v>297</v>
+      </c>
+      <c r="E2" s="5">
+        <f>297+2192</f>
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <f>28+70+137</f>
+        <v>235</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f>7+33+17</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <f>223+43</f>
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <f>70+50</f>
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <f>526+382</f>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <f>98+16</f>
+        <v>114</v>
+      </c>
+      <c r="D5">
+        <v>354</v>
+      </c>
+      <c r="E5" s="6">
+        <f>354+2604</f>
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <f>31+203</f>
+        <v>234</v>
+      </c>
+      <c r="D6">
+        <v>136</v>
+      </c>
+      <c r="E6">
+        <f>136+914</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="50">
+        <v>9</v>
+      </c>
+      <c r="E7" s="50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="tblfn7" display="https://www.sciencedirect.com/science/article/pii/S0278262606000820?via%3Dihub - tblfn7" xr:uid="{26820CD7-1CDF-6147-85D7-03D825F1E1BA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE9C84-2371-574C-A11E-8FFAD0B22FBD}">
-  <dimension ref="A2:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AA266-2735-8C43-9155-1133034A0A26}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
-        <v>2745</v>
-      </c>
-      <c r="B3" s="46">
-        <v>6182</v>
-      </c>
-      <c r="C3" s="46">
-        <v>14359</v>
-      </c>
-      <c r="D3" s="46">
-        <v>107608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="45">
-        <v>2745</v>
-      </c>
-      <c r="C6" s="47">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="48">
-        <v>14359</v>
-      </c>
-      <c r="C7" s="49">
-        <v>93249</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <f>'google data'!G40</f>
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>'google data'!G40+'google data'!F40</f>
+        <v>97</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'google data'!I40</f>
+        <v>79</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'google data'!I40+'google data'!H40</f>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>'google data'!G22</f>
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f>'google data'!G22+'google data'!F22</f>
+        <v>143</v>
+      </c>
+      <c r="D3">
+        <f>'google data'!I22</f>
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <f>'google data'!I22+'google data'!H22</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f>10+50</f>
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>'google data'!I4</f>
+        <v>136</v>
+      </c>
+      <c r="E4" s="6">
+        <f>'google data'!I4+'google data'!H4</f>
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>13+106</f>
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <f>70+464</f>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -7284,172 +10045,111 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23A7C26-9B50-AD4C-A948-05AF404D49FB}">
-  <dimension ref="A2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282C54D-ECEF-5B4A-B2FE-0D87E182EEEB}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <f>'google data'!G39</f>
+        <v>24</v>
       </c>
       <c r="C2">
-        <f>16+105</f>
-        <v>121</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <f>35+360</f>
-        <v>395</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'google data'!G39+'google data'!F39</f>
+        <v>205</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'google data'!I39</f>
+        <v>218</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'google data'!I39+'google data'!H39</f>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <f>'google data'!G21</f>
+        <v>13</v>
       </c>
       <c r="C3">
-        <f>15+87</f>
-        <v>102</v>
+        <f>'google data'!G21+'google data'!F21</f>
+        <v>123</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <f>'google data'!I21</f>
+        <v>51</v>
       </c>
       <c r="E3">
-        <f>37+248</f>
-        <v>285</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'google data'!I21+'google data'!H21</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <f>27+183</f>
-        <v>210</v>
+        <f>6+48</f>
+        <v>54</v>
       </c>
       <c r="D4">
+        <f>'google data'!I3</f>
         <v>218</v>
       </c>
       <c r="E4" s="6">
-        <f>218+1468</f>
+        <f>'google data'!I3+'google data'!H3</f>
         <v>1686</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <f>19+158</f>
-        <v>177</v>
+        <f>18+97</f>
+        <v>115</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <f>51+331</f>
-        <v>382</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <f>37+112</f>
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <v>218</v>
-      </c>
-      <c r="E6" s="6">
-        <f>218+1468</f>
-        <v>1686</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <f>24+181</f>
-        <v>205</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6">
-        <f>14+95</f>
-        <v>109</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <f>5+23</f>
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <f>8+41</f>
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
+        <f>66+450</f>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/sp58_st-andrews_ac_uk/Documents/gen_lang_hand_meta/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="658" documentId="13_ncr:1_{0B6902DA-2242-D64D-8D8C-45B1C2605456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B4D66F7-EA74-204A-BA18-5097537B7A95}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="13_ncr:1_{0B6902DA-2242-D64D-8D8C-45B1C2605456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F2E6B79-191E-E247-9DC8-8786F817D4AB}"/>
   <bookViews>
-    <workbookView xWindow="-7120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined2" sheetId="12" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="135">
   <si>
     <t xml:space="preserve">TD Left-Handers </t>
   </si>
@@ -1207,24 +1207,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,8 +1225,23 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,12 +1262,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6321,7 +6321,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7160,9 +7160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928079C8-A45F-5648-B92F-F547C22F48B1}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7173,16 +7173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>113</v>
       </c>
       <c r="E1" s="92" t="s">
@@ -7195,20 +7195,20 @@
       </c>
       <c r="I1" s="92"/>
       <c r="J1" s="52"/>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="85"/>
+      <c r="L1" s="91"/>
       <c r="M1" s="59"/>
       <c r="N1" s="59"/>
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="57" t="s">
         <v>106</v>
       </c>
@@ -7247,13 +7247,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="62" t="s">
@@ -7301,9 +7301,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="66" t="s">
         <v>42</v>
       </c>
@@ -7345,9 +7345,9 @@
       <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="62" t="s">
         <v>43</v>
       </c>
@@ -7391,9 +7391,9 @@
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="88" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="66" t="s">
@@ -7441,9 +7441,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="62" t="s">
         <v>42</v>
       </c>
@@ -7485,9 +7485,9 @@
       <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="66" t="s">
         <v>43</v>
       </c>
@@ -7531,9 +7531,9 @@
       <c r="P8" s="64"/>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="88" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -7586,9 +7586,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="66" t="s">
         <v>42</v>
       </c>
@@ -7629,9 +7629,9 @@
       <c r="P10" s="64"/>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="62" t="s">
         <v>43</v>
       </c>
@@ -7677,13 +7677,13 @@
       <c r="P11" s="64"/>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="82" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="56" t="s">
@@ -7731,9 +7731,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="55" t="s">
         <v>42</v>
       </c>
@@ -7775,9 +7775,9 @@
       <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="56" t="s">
         <v>43</v>
       </c>
@@ -7821,13 +7821,13 @@
       <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="68" t="s">
@@ -7875,9 +7875,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="67" t="s">
         <v>42</v>
       </c>
@@ -7919,9 +7919,9 @@
       <c r="P16" s="70"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="68" t="s">
         <v>43</v>
       </c>
@@ -7967,13 +7967,13 @@
       <c r="P17" s="70"/>
     </row>
     <row r="18" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="82" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="56" t="s">
@@ -8021,9 +8021,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="55" t="s">
         <v>42</v>
       </c>
@@ -8065,9 +8065,9 @@
       <c r="P19" s="59"/>
     </row>
     <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="56" t="s">
         <v>43</v>
       </c>
@@ -8113,13 +8113,13 @@
       <c r="P20" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -8167,9 +8167,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="56" t="s">
         <v>42</v>
       </c>
@@ -8211,9 +8211,9 @@
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="55" t="s">
         <v>43</v>
       </c>
@@ -8259,9 +8259,9 @@
       <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="76" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="82" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="56" t="s">
@@ -8311,9 +8311,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="55" t="s">
         <v>42</v>
       </c>
@@ -8355,9 +8355,9 @@
       <c r="P25" s="59"/>
     </row>
     <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="56" t="s">
         <v>43</v>
       </c>
@@ -8403,9 +8403,9 @@
       <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="76" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="82" t="s">
         <v>114</v>
       </c>
       <c r="D27" s="55" t="s">
@@ -8453,9 +8453,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="56" t="s">
         <v>42</v>
       </c>
@@ -8500,9 +8500,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="55" t="s">
         <v>43</v>
       </c>
@@ -8548,13 +8548,13 @@
       <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="76" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="67" t="s">
@@ -8603,9 +8603,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="68" t="s">
         <v>42</v>
       </c>
@@ -8647,9 +8647,9 @@
       <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="67" t="s">
         <v>43</v>
       </c>
@@ -8695,13 +8695,13 @@
       <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="68" t="s">
@@ -8747,9 +8747,9 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="67" t="s">
         <v>42</v>
       </c>
@@ -8789,9 +8789,9 @@
       <c r="P34" s="70"/>
     </row>
     <row r="35" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="68" t="s">
         <v>43</v>
       </c>
@@ -8833,13 +8833,13 @@
       <c r="P35" s="70"/>
     </row>
     <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="56" t="s">
@@ -8887,9 +8887,9 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="55" t="s">
         <v>42</v>
       </c>
@@ -8931,9 +8931,9 @@
       <c r="P37" s="59"/>
     </row>
     <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="56" t="s">
         <v>43</v>
       </c>
@@ -8979,13 +8979,13 @@
       <c r="P38" s="59"/>
     </row>
     <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="55" t="s">
@@ -9034,9 +9034,9 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="56" t="s">
         <v>42</v>
       </c>
@@ -9078,9 +9078,9 @@
       <c r="P40" s="59"/>
     </row>
     <row r="41" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="55" t="s">
         <v>43</v>
       </c>
@@ -9119,20 +9119,20 @@
         <v>0.13245033112582782</v>
       </c>
       <c r="N41" s="60">
-        <f t="shared" ref="N41:N49" si="11">H41/J41</f>
+        <f t="shared" ref="N41:N48" si="11">H41/J41</f>
         <v>0.12138016019716574</v>
       </c>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
     </row>
     <row r="42" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="56" t="s">
@@ -9178,9 +9178,9 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="55" t="s">
         <v>42</v>
       </c>
@@ -9209,17 +9209,16 @@
       <c r="M43" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="N43" s="60">
-        <f t="shared" si="11"/>
-        <v>0.13636363636363635</v>
+      <c r="N43" s="60" t="s">
+        <v>52</v>
       </c>
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="56" t="s">
         <v>43</v>
       </c>
@@ -9261,9 +9260,9 @@
       <c r="P44" s="59"/>
     </row>
     <row r="45" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="76" t="s">
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="82" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="55" t="s">
@@ -9309,9 +9308,9 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="56" t="s">
         <v>42</v>
       </c>
@@ -9340,17 +9339,16 @@
       <c r="M46" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="N46" s="60">
-        <f t="shared" si="11"/>
-        <v>0.13636363636363635</v>
+      <c r="N46" s="60" t="s">
+        <v>52</v>
       </c>
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="55" t="s">
         <v>43</v>
       </c>
@@ -9392,9 +9390,9 @@
       <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="76" t="s">
+      <c r="A48" s="93"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="82" t="s">
         <v>114</v>
       </c>
       <c r="D48" s="56" t="s">
@@ -9440,9 +9438,9 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="55" t="s">
         <v>42</v>
       </c>
@@ -9471,17 +9469,16 @@
       <c r="M49" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="N49" s="60">
-        <f t="shared" si="11"/>
-        <v>0.13636363636363635</v>
+      <c r="N49" s="60" t="s">
+        <v>52</v>
       </c>
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="56" t="s">
         <v>43</v>
       </c>
@@ -9643,13 +9640,13 @@
     </row>
     <row r="62" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:16" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="89" t="s">
+      <c r="C63" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="65" t="s">
@@ -9696,9 +9693,9 @@
       </c>
     </row>
     <row r="64" spans="1:16" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="66" t="s">
         <v>42</v>
       </c>
@@ -9743,9 +9740,9 @@
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="87"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="91"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="65" t="s">
         <v>43</v>
       </c>
@@ -9788,9 +9785,9 @@
       <c r="P65" s="64"/>
     </row>
     <row r="66" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="87"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="89" t="s">
+      <c r="A66" s="86"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="88" t="s">
         <v>44</v>
       </c>
       <c r="D66" s="66" t="s">
@@ -9837,9 +9834,9 @@
       </c>
     </row>
     <row r="67" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="87"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="65" t="s">
         <v>42</v>
       </c>
@@ -9884,9 +9881,9 @@
       </c>
     </row>
     <row r="68" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="87"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="66" t="s">
         <v>43</v>
       </c>
@@ -9927,9 +9924,9 @@
       <c r="P68" s="64"/>
     </row>
     <row r="69" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="87"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="89" t="s">
+      <c r="A69" s="86"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="88" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="65" t="s">
@@ -9981,9 +9978,9 @@
       </c>
     </row>
     <row r="70" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="87"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="90"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="66" t="s">
         <v>42</v>
       </c>
@@ -10024,9 +10021,9 @@
       <c r="P70" s="64"/>
     </row>
     <row r="71" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="88"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="65" t="s">
         <v>43</v>
       </c>
@@ -10070,13 +10067,13 @@
       <c r="P71" s="64"/>
     </row>
     <row r="72" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="76" t="s">
         <v>44</v>
       </c>
       <c r="D72" s="67" t="s">
@@ -10123,9 +10120,9 @@
       </c>
     </row>
     <row r="73" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="80"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
+      <c r="A73" s="74"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="71" t="s">
         <v>42</v>
       </c>
@@ -10166,9 +10163,9 @@
       <c r="P73" s="70"/>
     </row>
     <row r="74" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="81"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="67" t="s">
         <v>43</v>
       </c>
@@ -10209,13 +10206,13 @@
       <c r="P74" s="70"/>
     </row>
     <row r="75" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D75" s="58" t="s">
@@ -10262,9 +10259,9 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="93"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="94"/>
+      <c r="A76" s="80"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
       <c r="D76" s="56" t="s">
         <v>42</v>
       </c>
@@ -10305,9 +10302,9 @@
       <c r="P76" s="59"/>
     </row>
     <row r="77" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="58" t="s">
         <v>43</v>
       </c>
@@ -10473,17 +10470,37 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B11"/>
@@ -10496,37 +10513,17 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10838,7 +10835,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/sp58_st-andrews_ac_uk/Documents/gen_lang_hand_meta/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="665" documentId="13_ncr:1_{0B6902DA-2242-D64D-8D8C-45B1C2605456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F2E6B79-191E-E247-9DC8-8786F817D4AB}"/>
+  <xr:revisionPtr revIDLastSave="748" documentId="13_ncr:1_{0B6902DA-2242-D64D-8D8C-45B1C2605456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{777930A4-45C5-4D4D-A9D3-EC0D66683214}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="-7120" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined2" sheetId="12" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="140">
   <si>
     <t xml:space="preserve">TD Left-Handers </t>
   </si>
@@ -727,11 +727,29 @@
   <si>
     <t>Manchester (OLD)</t>
   </si>
+  <si>
+    <t>ALSPAC controls with child.therapy</t>
+  </si>
+  <si>
+    <t>MANCHESTER</t>
+  </si>
+  <si>
+    <t>Total RD - NTR/NeuroDys</t>
+  </si>
+  <si>
+    <t>Total controls - NTR/NeuroDys</t>
+  </si>
+  <si>
+    <t>Tot Case + control (no NTR&lt;…)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -926,7 +944,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,6 +961,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1081,7 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1204,8 +1228,29 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,23 +1270,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,19 +1292,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1594,7 +1634,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,11 +1725,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!$H$11</f>
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!$J$11</f>
-        <v>1931</v>
+        <v>1375</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
@@ -1732,11 +1772,11 @@
       </c>
       <c r="D6" s="5">
         <f>Check_16052021!H32</f>
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5">
         <f>Check_16052021!J32</f>
-        <v>1442</v>
+        <v>1026</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -1754,11 +1794,11 @@
       </c>
       <c r="D7" s="5">
         <f>Check_16052021!$H$41</f>
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5">
         <f>Check_16052021!$J$41</f>
-        <v>1623</v>
+        <v>1156</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -1885,11 +1925,11 @@
       </c>
       <c r="D2" s="5">
         <f>Check_16052021!$H$40</f>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5">
         <f>Check_16052021!$J$40</f>
-        <v>522</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1927,11 +1967,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!$H$10</f>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!$J$10</f>
-        <v>830</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1999,11 +2039,11 @@
       </c>
       <c r="D2" s="5">
         <f>Check_16052021!$H$39</f>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E2" s="5">
         <f>Check_16052021!$J$39</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2041,11 +2081,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!H3</f>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!J3</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2130,16 +2170,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
       <c r="J2" t="s">
         <v>87</v>
       </c>
@@ -2294,16 +2334,16 @@
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
       <c r="J7" t="s">
         <v>90</v>
       </c>
@@ -6011,11 +6051,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!$H$10</f>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!$J$10</f>
-        <v>830</v>
+        <v>591</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
@@ -6058,11 +6098,11 @@
       </c>
       <c r="D6" s="5">
         <f>Check_16052021!$H$31</f>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5">
         <f>Check_16052021!$J$31</f>
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -6081,11 +6121,11 @@
       </c>
       <c r="D7" s="5">
         <f>Check_16052021!$H$40</f>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
         <f>Check_16052021!$J$40</f>
-        <v>522</v>
+        <v>372</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -6124,7 +6164,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6211,11 +6251,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!$H$9</f>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!$J$9</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
@@ -6256,11 +6296,11 @@
       </c>
       <c r="D6" s="5">
         <f>Check_16052021!$H$30</f>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5">
         <f>Check_16052021!$J$30</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -6279,11 +6319,11 @@
       </c>
       <c r="D7" s="5">
         <f>Check_16052021!$H$39</f>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5">
         <f>Check_16052021!$J$39</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -6436,15 +6476,15 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72" t="s">
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="72"/>
+      <c r="P5" s="73"/>
       <c r="Q5" s="11" t="s">
         <v>74</v>
       </c>
@@ -6666,15 +6706,15 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72" t="s">
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="72"/>
+      <c r="P11" s="73"/>
       <c r="Q11" s="11" t="s">
         <v>74</v>
       </c>
@@ -7161,8 +7201,8 @@
   <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48:J50"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7173,42 +7213,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="52"/>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="92"/>
+      <c r="I1" s="93"/>
       <c r="J1" s="52"/>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="91"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="59"/>
       <c r="N1" s="59"/>
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="57" t="s">
         <v>106</v>
       </c>
@@ -7247,13 +7287,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="90" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="62" t="s">
@@ -7270,14 +7310,14 @@
         <v>54</v>
       </c>
       <c r="H3" s="65">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="I3" s="65">
-        <v>955</v>
+        <v>678</v>
       </c>
       <c r="J3" s="62">
         <f>H3+I3</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="K3" s="62">
         <v>0.17</v>
@@ -7289,9 +7329,9 @@
         <f>E3/(F3+E3)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="97">
         <f t="shared" ref="N3:N40" si="0">H3/J3</f>
-        <v>0.13260672116257946</v>
+        <v>0.13520408163265307</v>
       </c>
       <c r="O3" s="64">
         <v>1.11111111</v>
@@ -7301,9 +7341,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="66" t="s">
         <v>42</v>
       </c>
@@ -7318,14 +7358,14 @@
         <v>60</v>
       </c>
       <c r="H4" s="66">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I4" s="66">
-        <v>742</v>
+        <v>528</v>
       </c>
       <c r="J4" s="62">
         <f t="shared" ref="J4:J50" si="2">H4+I4</f>
-        <v>830</v>
+        <v>591</v>
       </c>
       <c r="K4" s="66">
         <v>0.11</v>
@@ -7339,15 +7379,15 @@
       </c>
       <c r="N4" s="60">
         <f t="shared" si="0"/>
-        <v>0.10602409638554217</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="O4" s="64"/>
       <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="62" t="s">
         <v>43</v>
       </c>
@@ -7363,15 +7403,15 @@
       </c>
       <c r="H5" s="65">
         <f>H3+H4</f>
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="I5" s="65">
         <f>I3+I4</f>
-        <v>1697</v>
+        <v>1206</v>
       </c>
       <c r="J5" s="62">
         <f t="shared" si="2"/>
-        <v>1931</v>
+        <v>1375</v>
       </c>
       <c r="K5" s="62">
         <v>0.14000000000000001</v>
@@ -7385,15 +7425,15 @@
       </c>
       <c r="N5" s="60">
         <f t="shared" si="0"/>
-        <v>0.12118073537027448</v>
+        <v>0.12290909090909091</v>
       </c>
       <c r="O5" s="64"/>
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="88" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="66" t="s">
@@ -7409,15 +7449,15 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H6" s="65">
-        <v>146</v>
-      </c>
-      <c r="I6" s="65">
-        <v>955</v>
+      <c r="H6" s="72">
+        <v>106</v>
+      </c>
+      <c r="I6" s="72">
+        <v>678</v>
       </c>
       <c r="J6" s="62">
         <f t="shared" si="2"/>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="K6" s="66">
         <v>0.11</v>
@@ -7431,7 +7471,7 @@
       </c>
       <c r="N6" s="60">
         <f t="shared" si="0"/>
-        <v>0.13260672116257946</v>
+        <v>0.13520408163265307</v>
       </c>
       <c r="O6" s="64">
         <v>1.44230769</v>
@@ -7441,9 +7481,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="62" t="s">
         <v>42</v>
       </c>
@@ -7458,14 +7498,14 @@
         <v>104</v>
       </c>
       <c r="H7" s="66">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I7" s="66">
-        <v>742</v>
+        <v>528</v>
       </c>
       <c r="J7" s="62">
         <f t="shared" si="2"/>
-        <v>830</v>
+        <v>591</v>
       </c>
       <c r="K7" s="62">
         <v>0.12</v>
@@ -7479,15 +7519,15 @@
       </c>
       <c r="N7" s="60">
         <f t="shared" si="0"/>
-        <v>0.10602409638554217</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="66" t="s">
         <v>43</v>
       </c>
@@ -7501,17 +7541,17 @@
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="72">
         <f>H6+H7</f>
-        <v>234</v>
-      </c>
-      <c r="I8" s="65">
+        <v>169</v>
+      </c>
+      <c r="I8" s="72">
         <f>I6+I7</f>
-        <v>1697</v>
+        <v>1206</v>
       </c>
       <c r="J8" s="62">
         <f t="shared" si="2"/>
-        <v>1931</v>
+        <v>1375</v>
       </c>
       <c r="K8" s="66">
         <v>0.11</v>
@@ -7525,15 +7565,15 @@
       </c>
       <c r="N8" s="60">
         <f t="shared" si="0"/>
-        <v>0.12118073537027448</v>
+        <v>0.12290909090909091</v>
       </c>
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="88" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="90" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -7549,15 +7589,15 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="H9" s="65">
-        <v>146</v>
-      </c>
-      <c r="I9" s="65">
-        <v>955</v>
+      <c r="H9" s="98">
+        <v>106</v>
+      </c>
+      <c r="I9" s="98">
+        <v>678</v>
       </c>
       <c r="J9" s="62">
         <f>H9+I9</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="K9" s="62">
         <v>0.13</v>
@@ -7571,7 +7611,7 @@
       </c>
       <c r="N9" s="60">
         <f t="shared" si="0"/>
-        <v>0.13260672116257946</v>
+        <v>0.13520408163265307</v>
       </c>
       <c r="O9" s="64">
         <f>G9/G10</f>
@@ -7579,16 +7619,16 @@
       </c>
       <c r="P9" s="64">
         <f>J9/J10</f>
-        <v>1.3265060240963855</v>
+        <v>1.3265651438240271</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="66" t="s">
         <v>42</v>
       </c>
@@ -7602,15 +7642,15 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="H10" s="66">
-        <v>88</v>
-      </c>
-      <c r="I10" s="66">
-        <v>742</v>
+      <c r="H10" s="99">
+        <v>63</v>
+      </c>
+      <c r="I10" s="99">
+        <v>528</v>
       </c>
       <c r="J10" s="62">
         <f>H10+I10</f>
-        <v>830</v>
+        <v>591</v>
       </c>
       <c r="K10" s="66">
         <v>0.11</v>
@@ -7624,14 +7664,14 @@
       </c>
       <c r="N10" s="60">
         <f t="shared" si="0"/>
-        <v>0.10602409638554217</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="P10" s="64"/>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="62" t="s">
         <v>43</v>
       </c>
@@ -7647,17 +7687,15 @@
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
-      <c r="H11" s="62">
-        <f>H9+H10</f>
-        <v>234</v>
-      </c>
-      <c r="I11" s="65">
-        <f>I9+I10</f>
-        <v>1697</v>
+      <c r="H11" s="98">
+        <v>169</v>
+      </c>
+      <c r="I11" s="98">
+        <v>1206</v>
       </c>
       <c r="J11" s="62">
         <f>H11+I11</f>
-        <v>1931</v>
+        <v>1375</v>
       </c>
       <c r="K11" s="62">
         <v>0.12</v>
@@ -7671,19 +7709,19 @@
       </c>
       <c r="N11" s="60">
         <f>H11/J11</f>
-        <v>0.12118073537027448</v>
+        <v>0.12290909090909091</v>
       </c>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="77" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="56" t="s">
@@ -7731,9 +7769,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="55" t="s">
         <v>42</v>
       </c>
@@ -7775,9 +7813,9 @@
       <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="56" t="s">
         <v>43</v>
       </c>
@@ -7821,13 +7859,13 @@
       <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="68" t="s">
@@ -7875,9 +7913,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="67" t="s">
         <v>42</v>
       </c>
@@ -7919,9 +7957,9 @@
       <c r="P16" s="70"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="68" t="s">
         <v>43</v>
       </c>
@@ -7967,13 +8005,13 @@
       <c r="P17" s="70"/>
     </row>
     <row r="18" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="77" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="56" t="s">
@@ -8021,9 +8059,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="55" t="s">
         <v>42</v>
       </c>
@@ -8065,9 +8103,9 @@
       <c r="P19" s="59"/>
     </row>
     <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="56" t="s">
         <v>43</v>
       </c>
@@ -8092,7 +8130,7 @@
         <v>389</v>
       </c>
       <c r="J20" s="55">
-        <f t="shared" si="2"/>
+        <f>H20+I20</f>
         <v>438</v>
       </c>
       <c r="K20" s="56">
@@ -8113,13 +8151,13 @@
       <c r="P20" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -8167,9 +8205,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="56" t="s">
         <v>42</v>
       </c>
@@ -8211,9 +8249,9 @@
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="84"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="55" t="s">
         <v>43</v>
       </c>
@@ -8259,9 +8297,9 @@
       <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="82" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="77" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="56" t="s">
@@ -8311,9 +8349,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="55" t="s">
         <v>42</v>
       </c>
@@ -8355,9 +8393,9 @@
       <c r="P25" s="59"/>
     </row>
     <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="84"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="56" t="s">
         <v>43</v>
       </c>
@@ -8403,9 +8441,9 @@
       <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="82" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="77" t="s">
         <v>114</v>
       </c>
       <c r="D27" s="55" t="s">
@@ -8453,9 +8491,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="56" t="s">
         <v>42</v>
       </c>
@@ -8500,9 +8538,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="55" t="s">
         <v>43</v>
       </c>
@@ -8548,13 +8586,13 @@
       <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="83" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="67" t="s">
@@ -8571,14 +8609,14 @@
         <v>149</v>
       </c>
       <c r="H30" s="66">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="I30" s="66">
-        <v>955</v>
+        <v>678</v>
       </c>
       <c r="J30" s="65">
         <f t="shared" si="2"/>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="K30" s="67">
         <v>0.25</v>
@@ -8592,7 +8630,7 @@
       </c>
       <c r="N30" s="60">
         <f t="shared" si="0"/>
-        <v>0.13260672116257946</v>
+        <v>0.13520408163265307</v>
       </c>
       <c r="O30" s="70">
         <f>G30/G31</f>
@@ -8603,9 +8641,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="68" t="s">
         <v>42</v>
       </c>
@@ -8620,14 +8658,14 @@
         <v>46</v>
       </c>
       <c r="H31" s="65">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I31" s="65">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="J31" s="65">
         <f t="shared" si="2"/>
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="K31" s="68">
         <v>0.17</v>
@@ -8641,15 +8679,15 @@
       </c>
       <c r="N31" s="60">
         <f t="shared" si="0"/>
-        <v>0.12316715542521994</v>
+        <v>0.11983471074380166</v>
       </c>
       <c r="O31" s="70"/>
       <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="67" t="s">
         <v>43</v>
       </c>
@@ -8667,15 +8705,15 @@
       </c>
       <c r="H32" s="66">
         <f>H31+H30</f>
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="I32" s="66">
         <f>I31+I30</f>
-        <v>1254</v>
+        <v>891</v>
       </c>
       <c r="J32" s="65">
         <f t="shared" si="2"/>
-        <v>1442</v>
+        <v>1026</v>
       </c>
       <c r="K32" s="67">
         <v>0.23</v>
@@ -8689,19 +8727,19 @@
       </c>
       <c r="N32" s="60">
         <f t="shared" si="0"/>
-        <v>0.13037447988904299</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="O32" s="70"/>
       <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="68" t="s">
@@ -8747,9 +8785,9 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="67" t="s">
         <v>42</v>
       </c>
@@ -8778,9 +8816,8 @@
       <c r="L34" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="M34" s="63">
-        <f t="shared" si="3"/>
-        <v>4.3478260869565216E-2</v>
+      <c r="M34" s="63" t="s">
+        <v>52</v>
       </c>
       <c r="N34" s="60" t="s">
         <v>52</v>
@@ -8789,9 +8826,9 @@
       <c r="P34" s="70"/>
     </row>
     <row r="35" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="68" t="s">
         <v>43</v>
       </c>
@@ -8833,13 +8870,13 @@
       <c r="P35" s="70"/>
     </row>
     <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="56" t="s">
@@ -8875,9 +8912,8 @@
         <f t="shared" si="3"/>
         <v>0.10457516339869281</v>
       </c>
-      <c r="N36" s="60">
-        <f t="shared" si="0"/>
-        <v>0.10810810810810811</v>
+      <c r="N36" s="60" t="s">
+        <v>52</v>
       </c>
       <c r="O36" s="59">
         <v>1.86585366</v>
@@ -8887,9 +8923,9 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="55" t="s">
         <v>42</v>
       </c>
@@ -8923,17 +8959,16 @@
         <f t="shared" si="3"/>
         <v>0.14634146341463414</v>
       </c>
-      <c r="N37" s="60">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+      <c r="N37" s="60" t="s">
+        <v>52</v>
       </c>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
     </row>
     <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="56" t="s">
         <v>43</v>
       </c>
@@ -8979,13 +9014,13 @@
       <c r="P38" s="59"/>
     </row>
     <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="55" t="s">
@@ -9001,15 +9036,15 @@
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="H39" s="65">
-        <v>146</v>
-      </c>
-      <c r="I39" s="65">
-        <v>955</v>
+      <c r="H39" s="66">
+        <v>106</v>
+      </c>
+      <c r="I39" s="66">
+        <v>678</v>
       </c>
       <c r="J39" s="65">
         <f t="shared" si="2"/>
-        <v>1101</v>
+        <v>784</v>
       </c>
       <c r="K39" s="55">
         <v>0.12</v>
@@ -9023,7 +9058,7 @@
       </c>
       <c r="N39" s="60">
         <f t="shared" si="0"/>
-        <v>0.13260672116257946</v>
+        <v>0.13520408163265307</v>
       </c>
       <c r="O39" s="70">
         <f>G39/G40</f>
@@ -9034,9 +9069,9 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="56" t="s">
         <v>42</v>
       </c>
@@ -9051,14 +9086,14 @@
         <v>97</v>
       </c>
       <c r="H40" s="66">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I40" s="66">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="J40" s="65">
         <f t="shared" si="2"/>
-        <v>522</v>
+        <v>372</v>
       </c>
       <c r="K40" s="56">
         <v>0.16</v>
@@ -9071,16 +9106,16 @@
         <v>0.16494845360824742</v>
       </c>
       <c r="N40" s="60">
-        <f t="shared" si="0"/>
-        <v>9.7701149425287362E-2</v>
+        <f>H40/J40</f>
+        <v>0.10215053763440861</v>
       </c>
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
     </row>
     <row r="41" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="55" t="s">
         <v>43</v>
       </c>
@@ -9098,15 +9133,15 @@
       </c>
       <c r="H41" s="66">
         <f>H40+H39</f>
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="I41" s="66">
         <f>I40+I39</f>
-        <v>1426</v>
+        <v>1012</v>
       </c>
       <c r="J41" s="65">
-        <f t="shared" si="2"/>
-        <v>1623</v>
+        <f>H41+I41</f>
+        <v>1156</v>
       </c>
       <c r="K41" s="55">
         <v>0.13</v>
@@ -9120,19 +9155,19 @@
       </c>
       <c r="N41" s="60">
         <f t="shared" ref="N41:N48" si="11">H41/J41</f>
-        <v>0.12138016019716574</v>
+        <v>0.1245674740484429</v>
       </c>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
     </row>
     <row r="42" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="56" t="s">
@@ -9178,9 +9213,9 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="55" t="s">
         <v>42</v>
       </c>
@@ -9216,9 +9251,9 @@
       <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="84"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="56" t="s">
         <v>43</v>
       </c>
@@ -9260,9 +9295,9 @@
       <c r="P44" s="59"/>
     </row>
     <row r="45" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="82" t="s">
+      <c r="A45" s="75"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="77" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="55" t="s">
@@ -9308,9 +9343,9 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="56" t="s">
         <v>42</v>
       </c>
@@ -9346,9 +9381,9 @@
       <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="84"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="55" t="s">
         <v>43</v>
       </c>
@@ -9390,9 +9425,9 @@
       <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="82" t="s">
+      <c r="A48" s="75"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="77" t="s">
         <v>114</v>
       </c>
       <c r="D48" s="56" t="s">
@@ -9438,9 +9473,9 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="55" t="s">
         <v>42</v>
       </c>
@@ -9476,9 +9511,9 @@
       <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="56" t="s">
         <v>43</v>
       </c>
@@ -9574,8 +9609,13 @@
         <v>1478</v>
       </c>
       <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
+      <c r="I53" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="J53" s="59">
+        <f>G53-G17-G35</f>
+        <v>967</v>
+      </c>
       <c r="K53" s="59"/>
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
@@ -9591,7 +9631,7 @@
       </c>
       <c r="D54" s="59">
         <f>SUM(J11,J14,J17,J20,J29,J38,J50)</f>
-        <v>5120</v>
+        <v>4564</v>
       </c>
       <c r="E54" s="59"/>
       <c r="F54" s="59" t="s">
@@ -9617,7 +9657,7 @@
       </c>
       <c r="D55">
         <f>D54+D53</f>
-        <v>7582</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -9626,7 +9666,7 @@
       </c>
       <c r="D56">
         <f>D55-G17-J17-G35</f>
-        <v>6021</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -9638,15 +9678,33 @@
         <v>2033</v>
       </c>
     </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C58" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58">
+        <f>D54-J17</f>
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C59" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59">
+        <f>D57+D58</f>
+        <v>5547</v>
+      </c>
+    </row>
     <row r="62" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:16" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="85" t="s">
+      <c r="A63" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="90" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="65" t="s">
@@ -9693,9 +9751,9 @@
       </c>
     </row>
     <row r="64" spans="1:16" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="66" t="s">
         <v>42</v>
       </c>
@@ -9740,9 +9798,9 @@
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="65" t="s">
         <v>43</v>
       </c>
@@ -9785,9 +9843,9 @@
       <c r="P65" s="64"/>
     </row>
     <row r="66" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="88" t="s">
+      <c r="A66" s="88"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D66" s="66" t="s">
@@ -9834,9 +9892,9 @@
       </c>
     </row>
     <row r="67" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="65" t="s">
         <v>42</v>
       </c>
@@ -9881,9 +9939,9 @@
       </c>
     </row>
     <row r="68" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="66" t="s">
         <v>43</v>
       </c>
@@ -9924,9 +9982,9 @@
       <c r="P68" s="64"/>
     </row>
     <row r="69" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="88" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="90" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="65" t="s">
@@ -9978,9 +10036,9 @@
       </c>
     </row>
     <row r="70" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="89"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="66" t="s">
         <v>42</v>
       </c>
@@ -10021,9 +10079,9 @@
       <c r="P70" s="64"/>
     </row>
     <row r="71" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="87"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="65" t="s">
         <v>43</v>
       </c>
@@ -10067,13 +10125,13 @@
       <c r="P71" s="64"/>
     </row>
     <row r="72" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="76" t="s">
+      <c r="C72" s="83" t="s">
         <v>44</v>
       </c>
       <c r="D72" s="67" t="s">
@@ -10120,9 +10178,9 @@
       </c>
     </row>
     <row r="73" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="74"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="71" t="s">
         <v>42</v>
       </c>
@@ -10163,9 +10221,9 @@
       <c r="P73" s="70"/>
     </row>
     <row r="74" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
       <c r="D74" s="67" t="s">
         <v>43</v>
       </c>
@@ -10206,13 +10264,13 @@
       <c r="P74" s="70"/>
     </row>
     <row r="75" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="79" t="s">
+      <c r="A75" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="82" t="s">
+      <c r="B75" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="82" t="s">
+      <c r="C75" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D75" s="58" t="s">
@@ -10259,9 +10317,9 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="80"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="56" t="s">
         <v>42</v>
       </c>
@@ -10302,9 +10360,9 @@
       <c r="P76" s="59"/>
     </row>
     <row r="77" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="81"/>
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
+      <c r="A77" s="76"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="58" t="s">
         <v>43</v>
       </c>
@@ -10344,33 +10402,133 @@
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+    <row r="81" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="98">
+        <v>146</v>
+      </c>
+      <c r="D81" s="98">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="100"/>
+      <c r="B82" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="99">
+        <v>88</v>
+      </c>
+      <c r="D82" s="99">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="100"/>
+      <c r="B83" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="98">
+        <v>234</v>
+      </c>
+      <c r="D83" s="98">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="66">
+        <v>146</v>
+      </c>
+      <c r="D84" s="66">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="100"/>
+      <c r="B85" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="72">
+        <v>42</v>
+      </c>
+      <c r="D85" s="72">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="100"/>
+      <c r="B86" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="66">
+        <f>C85+C84</f>
+        <v>188</v>
+      </c>
+      <c r="D86" s="66">
+        <f>D85+D84</f>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="72">
+        <v>146</v>
+      </c>
+      <c r="D87" s="72">
+        <v>955</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+    <row r="88" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="101"/>
+      <c r="B88" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="66">
+        <v>51</v>
+      </c>
+      <c r="D88" s="66">
+        <v>471</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+    <row r="89" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="101"/>
+      <c r="B89" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="66">
+        <f>C88+C87</f>
+        <v>197</v>
+      </c>
+      <c r="D89" s="66">
+        <f>D88+D87</f>
+        <v>1426</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -10469,38 +10627,21 @@
       <c r="J97" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
+  <mergeCells count="57">
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C69:C71"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B11"/>
@@ -10513,17 +10654,37 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10615,11 +10776,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!$H$11</f>
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!$J$11</f>
-        <v>1931</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10676,11 +10837,11 @@
       </c>
       <c r="D7" s="5">
         <f>Check_16052021!H32</f>
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5">
         <f>Check_16052021!J32</f>
-        <v>1442</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -10776,11 +10937,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!$H$10</f>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!$J$10</f>
-        <v>830</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10818,11 +10979,11 @@
       </c>
       <c r="D6" s="5">
         <f>Check_16052021!$H$31</f>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5">
         <f>Check_16052021!$J$31</f>
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -10913,11 +11074,11 @@
       </c>
       <c r="D4" s="5">
         <f>Check_16052021!$H$9</f>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E4" s="5">
         <f>Check_16052021!$J$9</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10955,11 +11116,11 @@
       </c>
       <c r="D6" s="5">
         <f>Check_16052021!$H$30</f>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5">
         <f>Check_16052021!$J$30</f>
-        <v>1101</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -11006,11 +11167,11 @@
       </c>
       <c r="D2" s="5">
         <f>Check_16052021!$H$41</f>
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="E2" s="5">
         <f>Check_16052021!$J$41</f>
-        <v>1623</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11066,11 +11227,11 @@
       </c>
       <c r="D5" s="5">
         <f>Check_16052021!$H$11</f>
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="E5" s="5">
         <f>Check_16052021!$J$11</f>
-        <v>1931</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippoabbondanza/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B04D96E-98ED-7343-8C42-F3C7C078D084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF6E20-8800-5445-A236-C1846F152D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
@@ -506,6 +506,24 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,17 +542,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,15 +564,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,8 +1645,8 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,42 +1657,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -1731,13 +1731,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -1785,9 +1785,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
@@ -1829,9 +1829,9 @@
       <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="21" t="s">
         <v>27</v>
       </c>
@@ -1875,9 +1875,9 @@
       <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="46" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="49" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -1925,9 +1925,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="21" t="s">
         <v>26</v>
       </c>
@@ -1969,9 +1969,9 @@
       <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="25" t="s">
         <v>27</v>
       </c>
@@ -2015,9 +2015,9 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="46" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -2070,9 +2070,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
@@ -2113,9 +2113,9 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
@@ -2159,13 +2159,13 @@
       <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -2213,9 +2213,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
@@ -2257,9 +2257,9 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -2303,13 +2303,13 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2357,9 +2357,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="26" t="s">
         <v>26</v>
       </c>
@@ -2401,9 +2401,9 @@
       <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
@@ -2449,13 +2449,13 @@
       <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -2503,9 +2503,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2547,9 +2547,9 @@
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
@@ -2595,13 +2595,13 @@
       <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2649,9 +2649,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="15" t="s">
         <v>26</v>
       </c>
@@ -2693,9 +2693,9 @@
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="14" t="s">
         <v>27</v>
       </c>
@@ -2741,9 +2741,9 @@
       <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="41" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -2793,9 +2793,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="14" t="s">
         <v>26</v>
       </c>
@@ -2837,9 +2837,9 @@
       <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="15" t="s">
         <v>27</v>
       </c>
@@ -2885,9 +2885,9 @@
       <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="41" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -2935,9 +2935,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="15" t="s">
         <v>26</v>
       </c>
@@ -2982,9 +2982,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
@@ -3030,13 +3030,13 @@
       <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -3085,9 +3085,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="27" t="s">
         <v>26</v>
       </c>
@@ -3129,9 +3129,9 @@
       <c r="P31" s="28"/>
     </row>
     <row r="32" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="26" t="s">
         <v>27</v>
       </c>
@@ -3177,13 +3177,13 @@
       <c r="P32" s="28"/>
     </row>
     <row r="33" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -3229,9 +3229,9 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="26" t="s">
         <v>26</v>
       </c>
@@ -3270,9 +3270,9 @@
       <c r="P34" s="28"/>
     </row>
     <row r="35" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="27" t="s">
         <v>27</v>
       </c>
@@ -3314,13 +3314,13 @@
       <c r="P35" s="28"/>
     </row>
     <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -3367,9 +3367,9 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="14" t="s">
         <v>26</v>
       </c>
@@ -3410,9 +3410,9 @@
       <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="15" t="s">
         <v>27</v>
       </c>
@@ -3458,13 +3458,13 @@
       <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -3513,9 +3513,9 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="15" t="s">
         <v>26</v>
       </c>
@@ -3557,9 +3557,9 @@
       <c r="P40" s="18"/>
     </row>
     <row r="41" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="14" t="s">
         <v>27</v>
       </c>
@@ -3605,13 +3605,13 @@
       <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -3657,9 +3657,9 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="14" t="s">
         <v>26</v>
       </c>
@@ -3695,9 +3695,9 @@
       <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="42"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="15" t="s">
         <v>27</v>
       </c>
@@ -3739,9 +3739,9 @@
       <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="41" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -3787,9 +3787,9 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="15" t="s">
         <v>26</v>
       </c>
@@ -3825,9 +3825,9 @@
       <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="42"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="14" t="s">
         <v>27</v>
       </c>
@@ -3869,9 +3869,9 @@
       <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="41" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -3917,9 +3917,9 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="14" t="s">
         <v>26</v>
       </c>
@@ -3955,9 +3955,9 @@
       <c r="P49" s="18"/>
     </row>
     <row r="50" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="15" t="s">
         <v>27</v>
       </c>
@@ -4118,8 +4118,8 @@
         <v>58</v>
       </c>
       <c r="D57" s="18">
-        <f>D53-G17-G32</f>
-        <v>2033</v>
+        <f>D53-G17-G35</f>
+        <v>1951</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -4137,42 +4137,11 @@
       </c>
       <c r="D59">
         <f>D57+D58</f>
-        <v>5547</v>
+        <v>5465</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B11"/>
@@ -4185,6 +4154,37 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippoabbondanza/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/sp58_st-andrews_ac_uk/Documents/gen_lang_hand_meta/GenLang_hand_preference_meta_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF6E20-8800-5445-A236-C1846F152D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E2FF6E20-8800-5445-A236-C1846F152D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF8F9A3-3DC1-1E41-80C9-5A79B8ABD15A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
-    <sheet name="Combined2" sheetId="12" r:id="rId1"/>
-    <sheet name="Combined-Female2" sheetId="14" r:id="rId2"/>
-    <sheet name="Combined-Male2" sheetId="13" r:id="rId3"/>
-    <sheet name="All data" sheetId="23" r:id="rId4"/>
-    <sheet name="SLI-All" sheetId="1" r:id="rId5"/>
-    <sheet name="SLI-Female" sheetId="5" r:id="rId6"/>
-    <sheet name="SLI-Male" sheetId="6" r:id="rId7"/>
-    <sheet name="RD-All" sheetId="3" r:id="rId8"/>
-    <sheet name="RD-Female" sheetId="10" r:id="rId9"/>
-    <sheet name="RD-Male" sheetId="9" r:id="rId10"/>
+    <sheet name="sexmatch_strict_all_split" sheetId="24" r:id="rId1"/>
+    <sheet name="sexmatch_strict_all_split_0s" sheetId="25" r:id="rId2"/>
+    <sheet name="Combined2" sheetId="12" r:id="rId3"/>
+    <sheet name="Combined-Female2" sheetId="14" r:id="rId4"/>
+    <sheet name="Combined-Male2" sheetId="13" r:id="rId5"/>
+    <sheet name="All data" sheetId="23" r:id="rId6"/>
+    <sheet name="SLI-All" sheetId="1" r:id="rId7"/>
+    <sheet name="SLI-Female" sheetId="5" r:id="rId8"/>
+    <sheet name="SLI-Male" sheetId="6" r:id="rId9"/>
+    <sheet name="RD-All" sheetId="3" r:id="rId10"/>
+    <sheet name="RD-Female" sheetId="10" r:id="rId11"/>
+    <sheet name="RD-Male" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="77">
   <si>
     <t xml:space="preserve">TD Left-Handers </t>
   </si>
@@ -285,6 +287,42 @@
   </si>
   <si>
     <t>Tot Case + control (no NTR&lt;…)</t>
+  </si>
+  <si>
+    <t>cohort_name</t>
+  </si>
+  <si>
+    <t>cohort_type</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>cases_NRH</t>
+  </si>
+  <si>
+    <t>cases_RH</t>
+  </si>
+  <si>
+    <t>controls_NRH</t>
+  </si>
+  <si>
+    <t>controls_RH</t>
+  </si>
+  <si>
+    <t>total_cases</t>
+  </si>
+  <si>
+    <t>total_controls</t>
+  </si>
+  <si>
+    <t>NTR cohort</t>
+  </si>
+  <si>
+    <t>Multicenter Study Marburg/Würzburg cohort</t>
   </si>
 </sst>
 </file>
@@ -438,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,13 +544,49 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,28 +616,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,6 +944,2186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDAA36-5674-0F4C-9112-EA4C27F6C29D}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="31">
+        <v>27</v>
+      </c>
+      <c r="F2" s="31">
+        <v>198</v>
+      </c>
+      <c r="G2" s="31">
+        <v>51</v>
+      </c>
+      <c r="H2" s="31">
+        <v>272</v>
+      </c>
+      <c r="I2" s="31">
+        <v>225</v>
+      </c>
+      <c r="J2" s="31">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="32">
+        <v>12</v>
+      </c>
+      <c r="F3" s="32">
+        <v>121</v>
+      </c>
+      <c r="G3" s="32">
+        <v>15</v>
+      </c>
+      <c r="H3" s="32">
+        <v>176</v>
+      </c>
+      <c r="I3" s="31">
+        <v>133</v>
+      </c>
+      <c r="J3" s="31">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="32">
+        <v>17</v>
+      </c>
+      <c r="F4" s="32">
+        <v>134</v>
+      </c>
+      <c r="G4" s="31">
+        <v>51</v>
+      </c>
+      <c r="H4" s="31">
+        <v>272</v>
+      </c>
+      <c r="I4" s="31">
+        <v>85</v>
+      </c>
+      <c r="J4" s="31">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="31">
+        <v>12</v>
+      </c>
+      <c r="F5" s="31">
+        <v>92</v>
+      </c>
+      <c r="G5" s="32">
+        <v>28</v>
+      </c>
+      <c r="H5" s="32">
+        <v>195</v>
+      </c>
+      <c r="I5" s="31">
+        <v>80</v>
+      </c>
+      <c r="J5" s="31">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15">
+        <v>105</v>
+      </c>
+      <c r="G6" s="15">
+        <v>35</v>
+      </c>
+      <c r="H6" s="15">
+        <v>360</v>
+      </c>
+      <c r="I6" s="31">
+        <v>121</v>
+      </c>
+      <c r="J6" s="31">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="34">
+        <v>6</v>
+      </c>
+      <c r="F7" s="34">
+        <v>77</v>
+      </c>
+      <c r="G7" s="34">
+        <v>21</v>
+      </c>
+      <c r="H7" s="34">
+        <v>250</v>
+      </c>
+      <c r="I7" s="31">
+        <v>83</v>
+      </c>
+      <c r="J7" s="31">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="34">
+        <v>18</v>
+      </c>
+      <c r="F8" s="34">
+        <v>97</v>
+      </c>
+      <c r="G8" s="34">
+        <v>66</v>
+      </c>
+      <c r="H8" s="34">
+        <v>450</v>
+      </c>
+      <c r="I8" s="31">
+        <v>115</v>
+      </c>
+      <c r="J8" s="31">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15">
+        <v>106</v>
+      </c>
+      <c r="G9" s="15">
+        <v>70</v>
+      </c>
+      <c r="H9" s="15">
+        <v>464</v>
+      </c>
+      <c r="I9" s="31">
+        <v>119</v>
+      </c>
+      <c r="J9" s="31">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="35">
+        <v>15</v>
+      </c>
+      <c r="F10" s="35">
+        <v>87</v>
+      </c>
+      <c r="G10" s="35">
+        <v>37</v>
+      </c>
+      <c r="H10" s="35">
+        <v>248</v>
+      </c>
+      <c r="I10" s="31">
+        <v>102</v>
+      </c>
+      <c r="J10" s="31">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="34">
+        <v>6</v>
+      </c>
+      <c r="F11" s="34">
+        <v>49</v>
+      </c>
+      <c r="G11" s="34">
+        <v>12</v>
+      </c>
+      <c r="H11" s="34">
+        <v>141</v>
+      </c>
+      <c r="I11" s="31">
+        <v>55</v>
+      </c>
+      <c r="J11" s="31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="34">
+        <v>13</v>
+      </c>
+      <c r="F12" s="34">
+        <v>110</v>
+      </c>
+      <c r="G12" s="34">
+        <v>51</v>
+      </c>
+      <c r="H12" s="34">
+        <v>331</v>
+      </c>
+      <c r="I12" s="31">
+        <v>123</v>
+      </c>
+      <c r="J12" s="31">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15">
+        <v>30</v>
+      </c>
+      <c r="F13" s="15">
+        <v>113</v>
+      </c>
+      <c r="G13" s="15">
+        <v>69</v>
+      </c>
+      <c r="H13" s="15">
+        <v>457</v>
+      </c>
+      <c r="I13" s="31">
+        <v>143</v>
+      </c>
+      <c r="J13" s="31">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="35">
+        <v>13</v>
+      </c>
+      <c r="F14" s="35">
+        <v>73</v>
+      </c>
+      <c r="G14" s="35">
+        <v>51</v>
+      </c>
+      <c r="H14" s="35">
+        <v>331</v>
+      </c>
+      <c r="I14" s="31">
+        <v>86</v>
+      </c>
+      <c r="J14" s="31">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="34">
+        <v>20</v>
+      </c>
+      <c r="F15" s="34">
+        <v>117</v>
+      </c>
+      <c r="G15" s="34">
+        <v>69</v>
+      </c>
+      <c r="H15" s="34">
+        <v>457</v>
+      </c>
+      <c r="I15" s="31">
+        <v>137</v>
+      </c>
+      <c r="J15" s="31">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15">
+        <v>112</v>
+      </c>
+      <c r="G16" s="32">
+        <v>39</v>
+      </c>
+      <c r="H16" s="32">
+        <v>279</v>
+      </c>
+      <c r="I16" s="31">
+        <v>149</v>
+      </c>
+      <c r="J16" s="31">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="34">
+        <v>8</v>
+      </c>
+      <c r="F17" s="34">
+        <v>38</v>
+      </c>
+      <c r="G17" s="31">
+        <v>11</v>
+      </c>
+      <c r="H17" s="31">
+        <v>87</v>
+      </c>
+      <c r="I17" s="31">
+        <v>46</v>
+      </c>
+      <c r="J17" s="31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="34">
+        <v>19</v>
+      </c>
+      <c r="F18" s="34">
+        <v>189</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <v>208</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>66</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="35">
+        <v>16</v>
+      </c>
+      <c r="F20" s="35">
+        <v>137</v>
+      </c>
+      <c r="G20" s="35">
+        <v>4</v>
+      </c>
+      <c r="H20" s="35">
+        <v>33</v>
+      </c>
+      <c r="I20" s="31">
+        <v>153</v>
+      </c>
+      <c r="J20" s="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="34">
+        <v>12</v>
+      </c>
+      <c r="F21" s="34">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3</v>
+      </c>
+      <c r="H21" s="34">
+        <v>17</v>
+      </c>
+      <c r="I21" s="31">
+        <v>82</v>
+      </c>
+      <c r="J21" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="34">
+        <v>24</v>
+      </c>
+      <c r="F22" s="34">
+        <v>181</v>
+      </c>
+      <c r="G22" s="61">
+        <v>38</v>
+      </c>
+      <c r="H22" s="61">
+        <v>262</v>
+      </c>
+      <c r="I22" s="31">
+        <v>205</v>
+      </c>
+      <c r="J22" s="31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="15">
+        <v>16</v>
+      </c>
+      <c r="F23" s="15">
+        <v>81</v>
+      </c>
+      <c r="G23" s="61">
+        <v>7</v>
+      </c>
+      <c r="H23" s="61">
+        <v>135</v>
+      </c>
+      <c r="I23" s="31">
+        <v>97</v>
+      </c>
+      <c r="J23" s="31">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="34">
+        <v>8</v>
+      </c>
+      <c r="F24" s="34">
+        <v>18</v>
+      </c>
+      <c r="G24" s="35">
+        <v>11</v>
+      </c>
+      <c r="H24" s="35">
+        <v>37</v>
+      </c>
+      <c r="I24" s="31">
+        <v>26</v>
+      </c>
+      <c r="J24" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="34">
+        <v>3</v>
+      </c>
+      <c r="F25" s="34">
+        <v>7</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0</v>
+      </c>
+      <c r="H25" s="34">
+        <v>18</v>
+      </c>
+      <c r="I25" s="31">
+        <v>7</v>
+      </c>
+      <c r="J25" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="34">
+        <v>8</v>
+      </c>
+      <c r="F26" s="34">
+        <v>18</v>
+      </c>
+      <c r="G26" s="35">
+        <v>11</v>
+      </c>
+      <c r="H26" s="35">
+        <v>37</v>
+      </c>
+      <c r="I26" s="31">
+        <v>9</v>
+      </c>
+      <c r="J26" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="34">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34">
+        <v>12</v>
+      </c>
+      <c r="G27" s="34">
+        <v>2</v>
+      </c>
+      <c r="H27" s="34">
+        <v>29</v>
+      </c>
+      <c r="I27" s="31">
+        <v>7</v>
+      </c>
+      <c r="J27" s="31">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>302</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'All data'!$H$41</f>
+        <v>144</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'All data'!$J$41</f>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <f>28+70+137</f>
+        <v>235</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f>7+33+17</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <f>223+43</f>
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <f>70+50</f>
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <f>526+382</f>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <f>'All data'!E5</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <f>'All data'!G5</f>
+        <v>114</v>
+      </c>
+      <c r="D5" s="5">
+        <f>'All data'!$H$11</f>
+        <v>169</v>
+      </c>
+      <c r="E5" s="5">
+        <f>'All data'!$J$11</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <f>31+203</f>
+        <v>234</v>
+      </c>
+      <c r="D6">
+        <v>136</v>
+      </c>
+      <c r="E6">
+        <f>136+914</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f>'All data'!E44</f>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f>'All data'!G44</f>
+        <v>50</v>
+      </c>
+      <c r="D7" s="9">
+        <f>'All data'!H44</f>
+        <v>14</v>
+      </c>
+      <c r="E7" s="9">
+        <f>'All data'!J44</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AA266-2735-8C43-9155-1133034A0A26}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'All data'!$H$40</f>
+        <v>38</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'All data'!$J$40</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'All data'!E4</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'All data'!G4</f>
+        <v>60</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'All data'!$H$10</f>
+        <v>63</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'All data'!$J$10</f>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>13+106</f>
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <f>70+464</f>
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282C54D-ECEF-5B4A-B2FE-0D87E182EEEB}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'All data'!$H$39</f>
+        <v>106</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'All data'!$J$39</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'All data'!E3</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'All data'!G3</f>
+        <v>54</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'All data'!H3</f>
+        <v>106</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'All data'!J3</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <f>18+97</f>
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <f>66+450</f>
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E80D89-0352-3447-97C9-D167DAAC1D84}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="31">
+        <v>27</v>
+      </c>
+      <c r="F2" s="31">
+        <v>198</v>
+      </c>
+      <c r="G2" s="31">
+        <v>51</v>
+      </c>
+      <c r="H2" s="31">
+        <v>272</v>
+      </c>
+      <c r="I2" s="31">
+        <v>225</v>
+      </c>
+      <c r="J2" s="31">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="32">
+        <v>12</v>
+      </c>
+      <c r="F3" s="32">
+        <v>121</v>
+      </c>
+      <c r="G3" s="32">
+        <v>15</v>
+      </c>
+      <c r="H3" s="32">
+        <v>176</v>
+      </c>
+      <c r="I3" s="31">
+        <v>133</v>
+      </c>
+      <c r="J3" s="31">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="32">
+        <v>17</v>
+      </c>
+      <c r="F4" s="32">
+        <v>134</v>
+      </c>
+      <c r="G4" s="31">
+        <v>51</v>
+      </c>
+      <c r="H4" s="31">
+        <v>272</v>
+      </c>
+      <c r="I4" s="31">
+        <v>85</v>
+      </c>
+      <c r="J4" s="31">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="31">
+        <v>12</v>
+      </c>
+      <c r="F5" s="31">
+        <v>92</v>
+      </c>
+      <c r="G5" s="32">
+        <v>28</v>
+      </c>
+      <c r="H5" s="32">
+        <v>195</v>
+      </c>
+      <c r="I5" s="31">
+        <v>80</v>
+      </c>
+      <c r="J5" s="31">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15">
+        <v>105</v>
+      </c>
+      <c r="G6" s="15">
+        <v>35</v>
+      </c>
+      <c r="H6" s="15">
+        <v>360</v>
+      </c>
+      <c r="I6" s="31">
+        <v>121</v>
+      </c>
+      <c r="J6" s="31">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="34">
+        <v>6</v>
+      </c>
+      <c r="F7" s="34">
+        <v>77</v>
+      </c>
+      <c r="G7" s="34">
+        <v>21</v>
+      </c>
+      <c r="H7" s="34">
+        <v>250</v>
+      </c>
+      <c r="I7" s="31">
+        <v>83</v>
+      </c>
+      <c r="J7" s="31">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="34">
+        <v>18</v>
+      </c>
+      <c r="F8" s="34">
+        <v>97</v>
+      </c>
+      <c r="G8" s="34">
+        <v>66</v>
+      </c>
+      <c r="H8" s="34">
+        <v>450</v>
+      </c>
+      <c r="I8" s="31">
+        <v>115</v>
+      </c>
+      <c r="J8" s="31">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15">
+        <v>106</v>
+      </c>
+      <c r="G9" s="15">
+        <v>70</v>
+      </c>
+      <c r="H9" s="15">
+        <v>464</v>
+      </c>
+      <c r="I9" s="31">
+        <v>119</v>
+      </c>
+      <c r="J9" s="31">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="35">
+        <v>15</v>
+      </c>
+      <c r="F10" s="35">
+        <v>87</v>
+      </c>
+      <c r="G10" s="35">
+        <v>37</v>
+      </c>
+      <c r="H10" s="35">
+        <v>248</v>
+      </c>
+      <c r="I10" s="31">
+        <v>102</v>
+      </c>
+      <c r="J10" s="31">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="34">
+        <v>6</v>
+      </c>
+      <c r="F11" s="34">
+        <v>49</v>
+      </c>
+      <c r="G11" s="34">
+        <v>12</v>
+      </c>
+      <c r="H11" s="34">
+        <v>141</v>
+      </c>
+      <c r="I11" s="31">
+        <v>55</v>
+      </c>
+      <c r="J11" s="31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="34">
+        <v>13</v>
+      </c>
+      <c r="F12" s="34">
+        <v>110</v>
+      </c>
+      <c r="G12" s="34">
+        <v>51</v>
+      </c>
+      <c r="H12" s="34">
+        <v>331</v>
+      </c>
+      <c r="I12" s="31">
+        <v>123</v>
+      </c>
+      <c r="J12" s="31">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15">
+        <v>30</v>
+      </c>
+      <c r="F13" s="15">
+        <v>113</v>
+      </c>
+      <c r="G13" s="15">
+        <v>69</v>
+      </c>
+      <c r="H13" s="15">
+        <v>457</v>
+      </c>
+      <c r="I13" s="31">
+        <v>143</v>
+      </c>
+      <c r="J13" s="31">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="35">
+        <v>13</v>
+      </c>
+      <c r="F14" s="35">
+        <v>73</v>
+      </c>
+      <c r="G14" s="35">
+        <v>51</v>
+      </c>
+      <c r="H14" s="35">
+        <v>331</v>
+      </c>
+      <c r="I14" s="31">
+        <v>86</v>
+      </c>
+      <c r="J14" s="31">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="34">
+        <v>20</v>
+      </c>
+      <c r="F15" s="34">
+        <v>117</v>
+      </c>
+      <c r="G15" s="34">
+        <v>69</v>
+      </c>
+      <c r="H15" s="34">
+        <v>457</v>
+      </c>
+      <c r="I15" s="31">
+        <v>137</v>
+      </c>
+      <c r="J15" s="31">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15">
+        <v>112</v>
+      </c>
+      <c r="G16" s="32">
+        <v>39</v>
+      </c>
+      <c r="H16" s="32">
+        <v>279</v>
+      </c>
+      <c r="I16" s="31">
+        <v>149</v>
+      </c>
+      <c r="J16" s="31">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="34">
+        <v>8</v>
+      </c>
+      <c r="F17" s="34">
+        <v>38</v>
+      </c>
+      <c r="G17" s="31">
+        <v>11</v>
+      </c>
+      <c r="H17" s="31">
+        <v>87</v>
+      </c>
+      <c r="I17" s="31">
+        <v>46</v>
+      </c>
+      <c r="J17" s="31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="34">
+        <v>19</v>
+      </c>
+      <c r="F18" s="34">
+        <v>189</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <v>208</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>66</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="35">
+        <v>16</v>
+      </c>
+      <c r="F20" s="35">
+        <v>137</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>33</v>
+      </c>
+      <c r="I20" s="31">
+        <v>153</v>
+      </c>
+      <c r="J20" s="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="34">
+        <v>12</v>
+      </c>
+      <c r="F21" s="34">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
+        <v>17</v>
+      </c>
+      <c r="I21" s="31">
+        <v>82</v>
+      </c>
+      <c r="J21" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="34">
+        <v>24</v>
+      </c>
+      <c r="F22" s="34">
+        <v>181</v>
+      </c>
+      <c r="G22" s="61">
+        <v>38</v>
+      </c>
+      <c r="H22" s="61">
+        <v>262</v>
+      </c>
+      <c r="I22" s="31">
+        <v>205</v>
+      </c>
+      <c r="J22" s="31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="15">
+        <v>16</v>
+      </c>
+      <c r="F23" s="15">
+        <v>81</v>
+      </c>
+      <c r="G23" s="61">
+        <v>7</v>
+      </c>
+      <c r="H23" s="61">
+        <v>135</v>
+      </c>
+      <c r="I23" s="31">
+        <v>97</v>
+      </c>
+      <c r="J23" s="31">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="34">
+        <v>8</v>
+      </c>
+      <c r="F24" s="34">
+        <v>18</v>
+      </c>
+      <c r="G24" s="35">
+        <v>11</v>
+      </c>
+      <c r="H24" s="35">
+        <v>37</v>
+      </c>
+      <c r="I24" s="31">
+        <v>26</v>
+      </c>
+      <c r="J24" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
+        <v>7</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0</v>
+      </c>
+      <c r="H25" s="34">
+        <v>18</v>
+      </c>
+      <c r="I25" s="31">
+        <v>7</v>
+      </c>
+      <c r="J25" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="34">
+        <v>8</v>
+      </c>
+      <c r="F26" s="34">
+        <v>18</v>
+      </c>
+      <c r="G26" s="35">
+        <v>11</v>
+      </c>
+      <c r="H26" s="35">
+        <v>37</v>
+      </c>
+      <c r="I26" s="31">
+        <v>9</v>
+      </c>
+      <c r="J26" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="34">
+        <v>12</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0</v>
+      </c>
+      <c r="H27" s="34">
+        <v>29</v>
+      </c>
+      <c r="I27" s="31">
+        <v>7</v>
+      </c>
+      <c r="J27" s="31">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC49C6-505E-DC43-883F-74098BEBDD3C}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1133,121 +3378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282C54D-ECEF-5B4A-B2FE-0D87E182EEEB}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'All data'!$H$39</f>
-        <v>106</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'All data'!$J$39</f>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'All data'!E3</f>
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'All data'!G3</f>
-        <v>54</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'All data'!H3</f>
-        <v>106</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'All data'!J3</f>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <f>18+97</f>
-        <v>115</v>
-      </c>
-      <c r="D5">
-        <v>66</v>
-      </c>
-      <c r="E5">
-        <f>66+450</f>
-        <v>516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078E827-9226-664E-A5DC-9CAE983779B2}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1443,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB91A93-20D8-5240-A569-93FEDF0E77E0}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1640,11 +3771,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928079C8-A45F-5648-B92F-F547C22F48B1}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E57" sqref="E57:E60"/>
     </sheetView>
@@ -1657,42 +3788,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="52"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -1731,13 +3862,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -1785,9 +3916,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
@@ -1829,9 +3960,9 @@
       <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="21" t="s">
         <v>27</v>
       </c>
@@ -1875,9 +4006,9 @@
       <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="49" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -1925,9 +4056,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="21" t="s">
         <v>26</v>
       </c>
@@ -1969,9 +4100,9 @@
       <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="25" t="s">
         <v>27</v>
       </c>
@@ -2015,9 +4146,9 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -2070,9 +4201,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
@@ -2113,9 +4244,9 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
@@ -2159,13 +4290,13 @@
       <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -2213,9 +4344,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
@@ -2257,9 +4388,9 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -2303,13 +4434,13 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2357,9 +4488,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="26" t="s">
         <v>26</v>
       </c>
@@ -2401,9 +4532,9 @@
       <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
@@ -2449,13 +4580,13 @@
       <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -2503,9 +4634,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2547,9 +4678,9 @@
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
@@ -2595,13 +4726,13 @@
       <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2649,9 +4780,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="15" t="s">
         <v>26</v>
       </c>
@@ -2693,9 +4824,9 @@
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="14" t="s">
         <v>27</v>
       </c>
@@ -2741,9 +4872,9 @@
       <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="36" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -2793,9 +4924,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="14" t="s">
         <v>26</v>
       </c>
@@ -2837,9 +4968,9 @@
       <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="15" t="s">
         <v>27</v>
       </c>
@@ -2885,9 +5016,9 @@
       <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="36" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -2935,9 +5066,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="15" t="s">
         <v>26</v>
       </c>
@@ -2982,9 +5113,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
@@ -3030,13 +5161,13 @@
       <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="54" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -3085,9 +5216,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="27" t="s">
         <v>26</v>
       </c>
@@ -3129,9 +5260,9 @@
       <c r="P31" s="28"/>
     </row>
     <row r="32" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="26" t="s">
         <v>27</v>
       </c>
@@ -3177,13 +5308,13 @@
       <c r="P32" s="28"/>
     </row>
     <row r="33" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -3229,9 +5360,9 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="26" t="s">
         <v>26</v>
       </c>
@@ -3270,9 +5401,9 @@
       <c r="P34" s="28"/>
     </row>
     <row r="35" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="27" t="s">
         <v>27</v>
       </c>
@@ -3314,13 +5445,13 @@
       <c r="P35" s="28"/>
     </row>
     <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -3367,9 +5498,9 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="14" t="s">
         <v>26</v>
       </c>
@@ -3410,9 +5541,9 @@
       <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="15" t="s">
         <v>27</v>
       </c>
@@ -3458,13 +5589,13 @@
       <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -3513,9 +5644,9 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="15" t="s">
         <v>26</v>
       </c>
@@ -3557,9 +5688,9 @@
       <c r="P40" s="18"/>
     </row>
     <row r="41" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="14" t="s">
         <v>27</v>
       </c>
@@ -3605,13 +5736,13 @@
       <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -3657,9 +5788,9 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="14" t="s">
         <v>26</v>
       </c>
@@ -3695,9 +5826,9 @@
       <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="15" t="s">
         <v>27</v>
       </c>
@@ -3739,9 +5870,9 @@
       <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="36" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -3787,9 +5918,9 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="15" t="s">
         <v>26</v>
       </c>
@@ -3825,9 +5956,9 @@
       <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="14" t="s">
         <v>27</v>
       </c>
@@ -3869,9 +6000,9 @@
       <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="36" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -3917,9 +6048,9 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="14" t="s">
         <v>26</v>
       </c>
@@ -3955,9 +6086,9 @@
       <c r="P49" s="18"/>
     </row>
     <row r="50" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="15" t="s">
         <v>27</v>
       </c>
@@ -4142,6 +6273,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B11"/>
@@ -4154,43 +6316,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C58A0-AE3B-164A-826D-BCBAEC3E436B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -4350,7 +6481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C273FEF-7270-914F-9008-FD5984BFD23F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4491,7 +6622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92E7F40-3DCB-9F42-8DBE-43E3A4FFD2E1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4626,312 +6757,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>302</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'All data'!$H$41</f>
-        <v>144</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'All data'!$J$41</f>
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <f>28+70+137</f>
-        <v>235</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <f>7+33+17</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <f>223+43</f>
-        <v>266</v>
-      </c>
-      <c r="D4">
-        <f>70+50</f>
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <f>526+382</f>
-        <v>908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5">
-        <f>'All data'!E5</f>
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
-        <f>'All data'!G5</f>
-        <v>114</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'All data'!$H$11</f>
-        <v>169</v>
-      </c>
-      <c r="E5" s="5">
-        <f>'All data'!$J$11</f>
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <f>31+203</f>
-        <v>234</v>
-      </c>
-      <c r="D6">
-        <v>136</v>
-      </c>
-      <c r="E6">
-        <f>136+914</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <f>'All data'!E44</f>
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <f>'All data'!G44</f>
-        <v>50</v>
-      </c>
-      <c r="D7" s="9">
-        <f>'All data'!H44</f>
-        <v>14</v>
-      </c>
-      <c r="E7" s="9">
-        <f>'All data'!J44</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AA266-2735-8C43-9155-1133034A0A26}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'All data'!$H$40</f>
-        <v>38</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'All data'!$J$40</f>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'All data'!E4</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'All data'!G4</f>
-        <v>60</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'All data'!$H$10</f>
-        <v>63</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'All data'!$J$10</f>
-        <v>591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <f>13+106</f>
-        <v>119</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <f>70+464</f>
-        <v>534</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/sp58_st-andrews_ac_uk/Documents/gen_lang_hand_meta/GenLang_hand_preference_meta_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E2FF6E20-8800-5445-A236-C1846F152D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF8F9A3-3DC1-1E41-80C9-5A79B8ABD15A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E2FF6E20-8800-5445-A236-C1846F152D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C86A539F-6511-EB4E-88DD-505CB079E3D2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="sexmatch_strict_all_split" sheetId="24" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="75">
   <si>
     <t xml:space="preserve">TD Left-Handers </t>
   </si>
@@ -311,12 +311,6 @@
   </si>
   <si>
     <t>controls_RH</t>
-  </si>
-  <si>
-    <t>total_cases</t>
-  </si>
-  <si>
-    <t>total_controls</t>
   </si>
   <si>
     <t>NTR cohort</t>
@@ -945,15 +939,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDAA36-5674-0F4C-9112-EA4C27F6C29D}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>65</v>
       </c>
@@ -978,14 +972,8 @@
       <c r="H1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>23</v>
       </c>
@@ -1005,19 +993,13 @@
         <v>198</v>
       </c>
       <c r="G2" s="31">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="H2" s="31">
-        <v>272</v>
-      </c>
-      <c r="I2" s="31">
-        <v>225</v>
-      </c>
-      <c r="J2" s="31">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>23</v>
       </c>
@@ -1037,19 +1019,13 @@
         <v>121</v>
       </c>
       <c r="G3" s="32">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="H3" s="32">
-        <v>176</v>
-      </c>
-      <c r="I3" s="31">
-        <v>133</v>
-      </c>
-      <c r="J3" s="31">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
@@ -1069,19 +1045,13 @@
         <v>134</v>
       </c>
       <c r="G4" s="31">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="H4" s="31">
-        <v>272</v>
-      </c>
-      <c r="I4" s="31">
-        <v>85</v>
-      </c>
-      <c r="J4" s="31">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>23</v>
       </c>
@@ -1101,19 +1071,13 @@
         <v>92</v>
       </c>
       <c r="G5" s="32">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="H5" s="32">
-        <v>195</v>
-      </c>
-      <c r="I5" s="31">
-        <v>80</v>
-      </c>
-      <c r="J5" s="31">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>44</v>
       </c>
@@ -1138,14 +1102,8 @@
       <c r="H6" s="15">
         <v>360</v>
       </c>
-      <c r="I6" s="31">
-        <v>121</v>
-      </c>
-      <c r="J6" s="31">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>44</v>
       </c>
@@ -1170,16 +1128,10 @@
       <c r="H7" s="34">
         <v>250</v>
       </c>
-      <c r="I7" s="31">
-        <v>83</v>
-      </c>
-      <c r="J7" s="31">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>18</v>
@@ -1202,16 +1154,10 @@
       <c r="H8" s="34">
         <v>450</v>
       </c>
-      <c r="I8" s="31">
-        <v>115</v>
-      </c>
-      <c r="J8" s="31">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>18</v>
@@ -1234,14 +1180,8 @@
       <c r="H9" s="15">
         <v>464</v>
       </c>
-      <c r="I9" s="31">
-        <v>119</v>
-      </c>
-      <c r="J9" s="31">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>29</v>
       </c>
@@ -1266,14 +1206,8 @@
       <c r="H10" s="35">
         <v>248</v>
       </c>
-      <c r="I10" s="31">
-        <v>102</v>
-      </c>
-      <c r="J10" s="31">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>29</v>
       </c>
@@ -1298,14 +1232,8 @@
       <c r="H11" s="34">
         <v>141</v>
       </c>
-      <c r="I11" s="31">
-        <v>55</v>
-      </c>
-      <c r="J11" s="31">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
@@ -1330,14 +1258,8 @@
       <c r="H12" s="34">
         <v>331</v>
       </c>
-      <c r="I12" s="31">
-        <v>123</v>
-      </c>
-      <c r="J12" s="31">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>30</v>
       </c>
@@ -1362,14 +1284,8 @@
       <c r="H13" s="15">
         <v>457</v>
       </c>
-      <c r="I13" s="31">
-        <v>143</v>
-      </c>
-      <c r="J13" s="31">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>30</v>
       </c>
@@ -1394,14 +1310,8 @@
       <c r="H14" s="35">
         <v>331</v>
       </c>
-      <c r="I14" s="31">
-        <v>86</v>
-      </c>
-      <c r="J14" s="31">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>30</v>
       </c>
@@ -1426,14 +1336,8 @@
       <c r="H15" s="34">
         <v>457</v>
       </c>
-      <c r="I15" s="31">
-        <v>137</v>
-      </c>
-      <c r="J15" s="31">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>15</v>
       </c>
@@ -1458,14 +1362,8 @@
       <c r="H16" s="32">
         <v>279</v>
       </c>
-      <c r="I16" s="31">
-        <v>149</v>
-      </c>
-      <c r="J16" s="31">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>15</v>
       </c>
@@ -1490,16 +1388,10 @@
       <c r="H17" s="31">
         <v>87</v>
       </c>
-      <c r="I17" s="31">
-        <v>46</v>
-      </c>
-      <c r="J17" s="31">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>19</v>
@@ -1522,16 +1414,10 @@
       <c r="H18" s="34">
         <v>0</v>
       </c>
-      <c r="I18" s="31">
-        <v>208</v>
-      </c>
-      <c r="J18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>19</v>
@@ -1554,14 +1440,8 @@
       <c r="H19" s="15">
         <v>0</v>
       </c>
-      <c r="I19" s="31">
-        <v>66</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>47</v>
       </c>
@@ -1586,14 +1466,8 @@
       <c r="H20" s="35">
         <v>33</v>
       </c>
-      <c r="I20" s="31">
-        <v>153</v>
-      </c>
-      <c r="J20" s="31">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>47</v>
       </c>
@@ -1618,14 +1492,8 @@
       <c r="H21" s="34">
         <v>17</v>
       </c>
-      <c r="I21" s="31">
-        <v>82</v>
-      </c>
-      <c r="J21" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>16</v>
       </c>
@@ -1650,14 +1518,8 @@
       <c r="H22" s="61">
         <v>262</v>
       </c>
-      <c r="I22" s="31">
-        <v>205</v>
-      </c>
-      <c r="J22" s="31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>16</v>
       </c>
@@ -1682,14 +1544,8 @@
       <c r="H23" s="61">
         <v>135</v>
       </c>
-      <c r="I23" s="31">
-        <v>97</v>
-      </c>
-      <c r="J23" s="31">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>31</v>
       </c>
@@ -1714,14 +1570,8 @@
       <c r="H24" s="35">
         <v>37</v>
       </c>
-      <c r="I24" s="31">
-        <v>26</v>
-      </c>
-      <c r="J24" s="31">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>31</v>
       </c>
@@ -1741,19 +1591,13 @@
         <v>7</v>
       </c>
       <c r="G25" s="34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="34">
-        <v>18</v>
-      </c>
-      <c r="I25" s="31">
-        <v>7</v>
-      </c>
-      <c r="J25" s="31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>31</v>
       </c>
@@ -1778,14 +1622,8 @@
       <c r="H26" s="35">
         <v>37</v>
       </c>
-      <c r="I26" s="31">
-        <v>9</v>
-      </c>
-      <c r="J26" s="31">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>31</v>
       </c>
@@ -1805,16 +1643,10 @@
         <v>12</v>
       </c>
       <c r="G27" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="34">
-        <v>29</v>
-      </c>
-      <c r="I27" s="31">
-        <v>7</v>
-      </c>
-      <c r="J27" s="31">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2246,15 +2078,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E80D89-0352-3447-97C9-D167DAAC1D84}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A20" sqref="A20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>65</v>
       </c>
@@ -2279,14 +2111,8 @@
       <c r="H1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>23</v>
       </c>
@@ -2306,19 +2132,13 @@
         <v>198</v>
       </c>
       <c r="G2" s="31">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="H2" s="31">
-        <v>272</v>
-      </c>
-      <c r="I2" s="31">
-        <v>225</v>
-      </c>
-      <c r="J2" s="31">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>23</v>
       </c>
@@ -2338,19 +2158,13 @@
         <v>121</v>
       </c>
       <c r="G3" s="32">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="H3" s="32">
-        <v>176</v>
-      </c>
-      <c r="I3" s="31">
-        <v>133</v>
-      </c>
-      <c r="J3" s="31">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
@@ -2370,19 +2184,13 @@
         <v>134</v>
       </c>
       <c r="G4" s="31">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="H4" s="31">
-        <v>272</v>
-      </c>
-      <c r="I4" s="31">
-        <v>85</v>
-      </c>
-      <c r="J4" s="31">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>23</v>
       </c>
@@ -2402,19 +2210,13 @@
         <v>92</v>
       </c>
       <c r="G5" s="32">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="H5" s="32">
-        <v>195</v>
-      </c>
-      <c r="I5" s="31">
-        <v>80</v>
-      </c>
-      <c r="J5" s="31">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>44</v>
       </c>
@@ -2439,14 +2241,8 @@
       <c r="H6" s="15">
         <v>360</v>
       </c>
-      <c r="I6" s="31">
-        <v>121</v>
-      </c>
-      <c r="J6" s="31">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>44</v>
       </c>
@@ -2471,16 +2267,10 @@
       <c r="H7" s="34">
         <v>250</v>
       </c>
-      <c r="I7" s="31">
-        <v>83</v>
-      </c>
-      <c r="J7" s="31">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>18</v>
@@ -2503,16 +2293,10 @@
       <c r="H8" s="34">
         <v>450</v>
       </c>
-      <c r="I8" s="31">
-        <v>115</v>
-      </c>
-      <c r="J8" s="31">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>18</v>
@@ -2535,14 +2319,8 @@
       <c r="H9" s="15">
         <v>464</v>
       </c>
-      <c r="I9" s="31">
-        <v>119</v>
-      </c>
-      <c r="J9" s="31">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>29</v>
       </c>
@@ -2567,14 +2345,8 @@
       <c r="H10" s="35">
         <v>248</v>
       </c>
-      <c r="I10" s="31">
-        <v>102</v>
-      </c>
-      <c r="J10" s="31">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>29</v>
       </c>
@@ -2599,14 +2371,8 @@
       <c r="H11" s="34">
         <v>141</v>
       </c>
-      <c r="I11" s="31">
-        <v>55</v>
-      </c>
-      <c r="J11" s="31">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
@@ -2631,14 +2397,8 @@
       <c r="H12" s="34">
         <v>331</v>
       </c>
-      <c r="I12" s="31">
-        <v>123</v>
-      </c>
-      <c r="J12" s="31">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>30</v>
       </c>
@@ -2663,14 +2423,8 @@
       <c r="H13" s="15">
         <v>457</v>
       </c>
-      <c r="I13" s="31">
-        <v>143</v>
-      </c>
-      <c r="J13" s="31">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>30</v>
       </c>
@@ -2695,14 +2449,8 @@
       <c r="H14" s="35">
         <v>331</v>
       </c>
-      <c r="I14" s="31">
-        <v>86</v>
-      </c>
-      <c r="J14" s="31">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>30</v>
       </c>
@@ -2727,14 +2475,8 @@
       <c r="H15" s="34">
         <v>457</v>
       </c>
-      <c r="I15" s="31">
-        <v>137</v>
-      </c>
-      <c r="J15" s="31">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>15</v>
       </c>
@@ -2759,14 +2501,8 @@
       <c r="H16" s="32">
         <v>279</v>
       </c>
-      <c r="I16" s="31">
-        <v>149</v>
-      </c>
-      <c r="J16" s="31">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>15</v>
       </c>
@@ -2791,16 +2527,10 @@
       <c r="H17" s="31">
         <v>87</v>
       </c>
-      <c r="I17" s="31">
-        <v>46</v>
-      </c>
-      <c r="J17" s="31">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>19</v>
@@ -2823,16 +2553,10 @@
       <c r="H18" s="34">
         <v>0</v>
       </c>
-      <c r="I18" s="31">
-        <v>208</v>
-      </c>
-      <c r="J18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>19</v>
@@ -2855,14 +2579,8 @@
       <c r="H19" s="15">
         <v>0</v>
       </c>
-      <c r="I19" s="31">
-        <v>66</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>47</v>
       </c>
@@ -2887,14 +2605,8 @@
       <c r="H20" s="35">
         <v>33</v>
       </c>
-      <c r="I20" s="31">
-        <v>153</v>
-      </c>
-      <c r="J20" s="31">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>47</v>
       </c>
@@ -2919,14 +2631,8 @@
       <c r="H21" s="34">
         <v>17</v>
       </c>
-      <c r="I21" s="31">
-        <v>82</v>
-      </c>
-      <c r="J21" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>16</v>
       </c>
@@ -2951,14 +2657,8 @@
       <c r="H22" s="61">
         <v>262</v>
       </c>
-      <c r="I22" s="31">
-        <v>205</v>
-      </c>
-      <c r="J22" s="31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>16</v>
       </c>
@@ -2983,14 +2683,8 @@
       <c r="H23" s="61">
         <v>135</v>
       </c>
-      <c r="I23" s="31">
-        <v>97</v>
-      </c>
-      <c r="J23" s="31">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>31</v>
       </c>
@@ -3015,14 +2709,8 @@
       <c r="H24" s="35">
         <v>37</v>
       </c>
-      <c r="I24" s="31">
-        <v>26</v>
-      </c>
-      <c r="J24" s="31">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>31</v>
       </c>
@@ -3045,16 +2733,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="34">
-        <v>18</v>
-      </c>
-      <c r="I25" s="31">
-        <v>7</v>
-      </c>
-      <c r="J25" s="31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>31</v>
       </c>
@@ -3079,14 +2761,8 @@
       <c r="H26" s="35">
         <v>37</v>
       </c>
-      <c r="I26" s="31">
-        <v>9</v>
-      </c>
-      <c r="J26" s="31">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>31</v>
       </c>
@@ -3109,13 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="34">
-        <v>29</v>
-      </c>
-      <c r="I27" s="31">
-        <v>7</v>
-      </c>
-      <c r="J27" s="31">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/sp58_st-andrews_ac_uk/Documents/gen_lang_hand_meta/GenLang_hand_preference_meta_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E2FF6E20-8800-5445-A236-C1846F152D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C86A539F-6511-EB4E-88DD-505CB079E3D2}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="13_ncr:1_{E2FF6E20-8800-5445-A236-C1846F152D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{697FD366-F055-A245-AC2F-441E9E67DF54}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="-80" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
-    <sheet name="sexmatch_strict_all_split" sheetId="24" r:id="rId1"/>
-    <sheet name="sexmatch_strict_all_split_0s" sheetId="25" r:id="rId2"/>
-    <sheet name="Combined2" sheetId="12" r:id="rId3"/>
-    <sheet name="Combined-Female2" sheetId="14" r:id="rId4"/>
-    <sheet name="Combined-Male2" sheetId="13" r:id="rId5"/>
-    <sheet name="All data" sheetId="23" r:id="rId6"/>
-    <sheet name="SLI-All" sheetId="1" r:id="rId7"/>
-    <sheet name="SLI-Female" sheetId="5" r:id="rId8"/>
-    <sheet name="SLI-Male" sheetId="6" r:id="rId9"/>
-    <sheet name="RD-All" sheetId="3" r:id="rId10"/>
-    <sheet name="RD-Female" sheetId="10" r:id="rId11"/>
-    <sheet name="RD-Male" sheetId="9" r:id="rId12"/>
+    <sheet name="sexmatch_strict_comorbid_DLD" sheetId="25" r:id="rId1"/>
+    <sheet name="sexmatch_strict_comorbid_RD" sheetId="26" r:id="rId2"/>
+    <sheet name="DLD_sex_MF_master" sheetId="27" r:id="rId3"/>
+    <sheet name="MA_DLD_MF_cases_NRH" sheetId="29" r:id="rId4"/>
+    <sheet name="MA_DLD_MF_cases" sheetId="28" r:id="rId5"/>
+    <sheet name="MA_RD_MF_cases" sheetId="30" r:id="rId6"/>
+    <sheet name="sexmatch_strict_all_split" sheetId="24" r:id="rId7"/>
+    <sheet name="Combined2" sheetId="12" r:id="rId8"/>
+    <sheet name="Combined-Female2" sheetId="14" r:id="rId9"/>
+    <sheet name="Combined-Male2" sheetId="13" r:id="rId10"/>
+    <sheet name="All data" sheetId="23" r:id="rId11"/>
+    <sheet name="SLI-All" sheetId="1" r:id="rId12"/>
+    <sheet name="SLI-Female" sheetId="5" r:id="rId13"/>
+    <sheet name="SLI-Male" sheetId="6" r:id="rId14"/>
+    <sheet name="RD-All" sheetId="3" r:id="rId15"/>
+    <sheet name="RD-Female" sheetId="10" r:id="rId16"/>
+    <sheet name="RD-Male" sheetId="9" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="105">
   <si>
     <t xml:space="preserve">TD Left-Handers </t>
   </si>
@@ -318,6 +323,96 @@
   <si>
     <t>Multicenter Study Marburg/Würzburg cohort</t>
   </si>
+  <si>
+    <t>%Cases</t>
+  </si>
+  <si>
+    <t>%Controls</t>
+  </si>
+  <si>
+    <t>ALSPAC Language</t>
+  </si>
+  <si>
+    <t>ALSPAC Reading</t>
+  </si>
+  <si>
+    <t>TEDS Language</t>
+  </si>
+  <si>
+    <t>TEDS Reading</t>
+  </si>
+  <si>
+    <t>York Language</t>
+  </si>
+  <si>
+    <t>York Reading</t>
+  </si>
+  <si>
+    <t>M:F cases</t>
+  </si>
+  <si>
+    <t>M:F cases NRH</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Manchester Language Study</t>
+  </si>
+  <si>
+    <t>ALSPAC Language cohort</t>
+  </si>
+  <si>
+    <t>ALSPAC Reading cohort</t>
+  </si>
+  <si>
+    <t>TEDS Language cohort</t>
+  </si>
+  <si>
+    <t>TEDS Reading cohort</t>
+  </si>
+  <si>
+    <t>UKDYS cohort</t>
+  </si>
+  <si>
+    <t>York Language cohort</t>
+  </si>
+  <si>
+    <t>York Reading cohort</t>
+  </si>
+  <si>
+    <t>NRH_cases</t>
+  </si>
+  <si>
+    <t>NRH_controls</t>
+  </si>
+  <si>
+    <t>N total</t>
+  </si>
+  <si>
+    <t>N total + including NTR/NeuroDys</t>
+  </si>
+  <si>
+    <t>N cases + NTR/NeuroDys</t>
+  </si>
+  <si>
+    <t>N cases reading</t>
+  </si>
+  <si>
+    <t>N cases language</t>
+  </si>
+  <si>
+    <t>N cases RD m-a</t>
+  </si>
+  <si>
+    <t>N cases DLD m-a</t>
+  </si>
+  <si>
+    <t>ALSPAC Comorbid</t>
+  </si>
+  <si>
+    <t>YORK</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,6 +497,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -470,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -550,6 +660,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -610,19 +771,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,26 +1125,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDAA36-5674-0F4C-9112-EA4C27F6C29D}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E80D89-0352-3447-97C9-D167DAAC1D84}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="37" t="s">
         <v>68</v>
       </c>
       <c r="E1" s="33" t="s">
@@ -972,41 +1159,55 @@
       <c r="H1" s="36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="I1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="49">
         <v>27</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="49">
         <v>198</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="49">
         <v>128</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="49">
         <v>813</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="I2" s="47">
+        <f>E2/(E2+F2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="J2" s="47">
+        <f>G2/(G2+H2)</f>
+        <v>0.13602550478214664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="32" t="s">
@@ -1024,15 +1225,23 @@
       <c r="H3" s="32">
         <v>1089</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="I3" s="47">
+        <f>E3/(E3+F3)</f>
+        <v>9.0225563909774431E-2</v>
+      </c>
+      <c r="J3" s="47">
+        <f>G3/(G3+H3)</f>
+        <v>0.10444078947368421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -1044,30 +1253,38 @@
       <c r="F4" s="32">
         <v>134</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="49">
         <v>128</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="49">
         <v>813</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="I4" s="47">
+        <f>E4/(E4+F4)</f>
+        <v>0.11258278145695365</v>
+      </c>
+      <c r="J4" s="47">
+        <f>G4/(G4+H4)</f>
+        <v>0.13602550478214664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="49">
         <v>12</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="49">
         <v>92</v>
       </c>
       <c r="G5" s="32">
@@ -1076,15 +1293,23 @@
       <c r="H5" s="32">
         <v>1089</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="I5" s="47">
+        <f>E5/(E5+F5)</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="J5" s="47">
+        <f>G5/(G5+H5)</f>
+        <v>0.10444078947368421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1102,431 +1327,567 @@
       <c r="H6" s="15">
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="I6" s="47">
+        <f>E6/(E6+F6)</f>
+        <v>0.13223140495867769</v>
+      </c>
+      <c r="J6" s="47">
+        <f>G6/(G6+H6)</f>
+        <v>8.8607594936708861E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="48">
         <v>6</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="48">
         <v>77</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="48">
         <v>21</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="48">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="I7" s="47">
+        <f>E7/(E7+F7)</f>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="J7" s="47">
+        <f>G7/(G7+H7)</f>
+        <v>7.7490774907749083E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="34">
-        <v>18</v>
-      </c>
-      <c r="F8" s="34">
-        <v>97</v>
-      </c>
-      <c r="G8" s="34">
-        <v>66</v>
-      </c>
-      <c r="H8" s="34">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>24</v>
+      <c r="E8" s="48">
+        <v>37</v>
+      </c>
+      <c r="F8" s="48">
+        <v>112</v>
+      </c>
+      <c r="G8" s="49">
+        <v>39</v>
+      </c>
+      <c r="H8" s="49">
+        <v>279</v>
+      </c>
+      <c r="I8" s="47">
+        <f>E8/(E8+F8)</f>
+        <v>0.24832214765100671</v>
+      </c>
+      <c r="J8" s="47">
+        <f>G8/(G8+H8)</f>
+        <v>0.12264150943396226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="15">
-        <v>106</v>
-      </c>
-      <c r="G9" s="15">
-        <v>70</v>
-      </c>
-      <c r="H9" s="15">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="G9" s="32">
+        <v>11</v>
+      </c>
+      <c r="H9" s="32">
+        <v>87</v>
+      </c>
+      <c r="I9" s="47">
+        <f>E9/(E9+F9)</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="J9" s="47">
+        <f>G9/(G9+H9)</f>
+        <v>0.11224489795918367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="35">
-        <v>15</v>
-      </c>
-      <c r="F10" s="35">
-        <v>87</v>
-      </c>
-      <c r="G10" s="35">
-        <v>37</v>
-      </c>
-      <c r="H10" s="35">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="E10" s="54">
+        <v>19</v>
+      </c>
+      <c r="F10" s="54">
+        <v>189</v>
+      </c>
+      <c r="G10" s="54">
+        <v>0</v>
+      </c>
+      <c r="H10" s="54">
+        <v>0</v>
+      </c>
+      <c r="I10" s="47">
+        <f>E10/(E10+F10)</f>
+        <v>9.1346153846153841E-2</v>
+      </c>
+      <c r="J10" s="47" t="e">
+        <f>G10/(G10+H10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="34">
-        <v>6</v>
-      </c>
-      <c r="F11" s="34">
-        <v>49</v>
-      </c>
-      <c r="G11" s="34">
-        <v>12</v>
-      </c>
-      <c r="H11" s="34">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="60" t="s">
+      <c r="E11" s="48">
+        <v>0</v>
+      </c>
+      <c r="F11" s="48">
+        <v>66</v>
+      </c>
+      <c r="G11" s="48">
+        <v>0</v>
+      </c>
+      <c r="H11" s="48">
+        <v>0</v>
+      </c>
+      <c r="I11" s="47">
+        <f>E11/(E11+F11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="47" t="e">
+        <f>G11/(G11+H11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="34">
-        <v>13</v>
-      </c>
-      <c r="F12" s="34">
-        <v>110</v>
-      </c>
-      <c r="G12" s="34">
-        <v>51</v>
-      </c>
-      <c r="H12" s="34">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="60" t="s">
+      <c r="E12" s="53">
+        <v>18</v>
+      </c>
+      <c r="F12" s="53">
+        <v>97</v>
+      </c>
+      <c r="G12" s="53">
+        <v>66</v>
+      </c>
+      <c r="H12" s="53">
+        <v>450</v>
+      </c>
+      <c r="I12" s="47">
+        <f>E12/(E12+F12)</f>
+        <v>0.15652173913043479</v>
+      </c>
+      <c r="J12" s="47">
+        <f>G12/(G12+H12)</f>
+        <v>0.12790697674418605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="15">
-        <v>30</v>
-      </c>
-      <c r="F13" s="15">
-        <v>113</v>
-      </c>
-      <c r="G13" s="15">
-        <v>69</v>
-      </c>
-      <c r="H13" s="15">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="60" t="s">
+      <c r="E13" s="48">
+        <v>13</v>
+      </c>
+      <c r="F13" s="48">
+        <v>106</v>
+      </c>
+      <c r="G13" s="48">
+        <v>70</v>
+      </c>
+      <c r="H13" s="48">
+        <v>464</v>
+      </c>
+      <c r="I13" s="47">
+        <f>E13/(E13+F13)</f>
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="J13" s="47">
+        <f>G13/(G13+H13)</f>
+        <v>0.13108614232209737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="35">
-        <v>13</v>
-      </c>
-      <c r="F14" s="35">
-        <v>73</v>
-      </c>
-      <c r="G14" s="35">
-        <v>51</v>
-      </c>
-      <c r="H14" s="35">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="E14" s="54">
+        <v>15</v>
+      </c>
+      <c r="F14" s="54">
+        <v>87</v>
+      </c>
+      <c r="G14" s="48">
+        <v>37</v>
+      </c>
+      <c r="H14" s="48">
+        <v>248</v>
+      </c>
+      <c r="I14" s="47">
+        <f>E14/(E14+F14)</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="J14" s="47">
+        <f>G14/(G14+H14)</f>
+        <v>0.12982456140350876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="48">
+        <v>6</v>
+      </c>
+      <c r="F15" s="48">
+        <v>49</v>
+      </c>
+      <c r="G15" s="48">
+        <v>12</v>
+      </c>
+      <c r="H15" s="48">
+        <v>141</v>
+      </c>
+      <c r="I15" s="47">
+        <f>E15/(E15+F15)</f>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="J15" s="47">
+        <f>G15/(G15+H15)</f>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="34">
-        <v>20</v>
-      </c>
-      <c r="F15" s="34">
-        <v>117</v>
-      </c>
-      <c r="G15" s="34">
-        <v>69</v>
-      </c>
-      <c r="H15" s="34">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>28</v>
+      <c r="B16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="15">
-        <v>37</v>
-      </c>
-      <c r="F16" s="15">
-        <v>112</v>
-      </c>
-      <c r="G16" s="32">
-        <v>39</v>
-      </c>
-      <c r="H16" s="32">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="60" t="s">
+      <c r="E16" s="50">
+        <v>6</v>
+      </c>
+      <c r="F16" s="50">
+        <v>85</v>
+      </c>
+      <c r="G16" s="50">
+        <v>51</v>
+      </c>
+      <c r="H16" s="50">
+        <v>330</v>
+      </c>
+      <c r="I16" s="47">
+        <f>E16/(E16+F16)</f>
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="J16" s="47">
+        <f>G16/(G16+H16)</f>
+        <v>0.13385826771653545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="51">
+        <v>23</v>
+      </c>
+      <c r="F17" s="51">
+        <v>80</v>
+      </c>
+      <c r="G17" s="51">
+        <v>71</v>
+      </c>
+      <c r="H17" s="51">
+        <v>485</v>
+      </c>
+      <c r="I17" s="47">
+        <f>E17/(E17+F17)</f>
+        <v>0.22330097087378642</v>
+      </c>
+      <c r="J17" s="47">
+        <f>G17/(G17+H17)</f>
+        <v>0.12769784172661872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="34">
-        <v>8</v>
-      </c>
-      <c r="F17" s="34">
-        <v>38</v>
-      </c>
-      <c r="G17" s="31">
-        <v>11</v>
-      </c>
-      <c r="H17" s="31">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="34">
-        <v>19</v>
-      </c>
-      <c r="F18" s="34">
-        <v>189</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>24</v>
+      <c r="E18" s="48">
+        <v>13</v>
+      </c>
+      <c r="F18" s="48">
+        <v>73</v>
+      </c>
+      <c r="G18" s="51">
+        <v>51</v>
+      </c>
+      <c r="H18" s="51">
+        <v>330</v>
+      </c>
+      <c r="I18" s="47">
+        <f>E18/(E18+F18)</f>
+        <v>0.15116279069767441</v>
+      </c>
+      <c r="J18" s="47">
+        <f>G18/(G18+H18)</f>
+        <v>0.13385826771653545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F19" s="15">
-        <v>66</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="50">
+        <v>71</v>
+      </c>
+      <c r="H19" s="50">
+        <v>485</v>
+      </c>
+      <c r="I19" s="47">
+        <f>E19/(E19+F19)</f>
+        <v>0.145985401459854</v>
+      </c>
+      <c r="J19" s="47">
+        <f>G19/(G19+H19)</f>
+        <v>0.12769784172661872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="54">
         <v>16</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="54">
         <v>137</v>
       </c>
-      <c r="G20" s="35">
-        <v>4</v>
-      </c>
-      <c r="H20" s="35">
+      <c r="G20" s="54">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="I20" s="47">
+        <f>E20/(E20+F20)</f>
+        <v>0.10457516339869281</v>
+      </c>
+      <c r="J20" s="47">
+        <f>G20/(G20+H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="48">
         <v>12</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="48">
         <v>70</v>
       </c>
-      <c r="G21" s="34">
-        <v>3</v>
-      </c>
-      <c r="H21" s="34">
+      <c r="G21" s="48">
+        <v>0</v>
+      </c>
+      <c r="H21" s="48">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="I21" s="47">
+        <f>E21/(E21+F21)</f>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="J21" s="47">
+        <f>G21/(G21+H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="48">
         <v>24</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="48">
         <v>181</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="41">
         <v>38</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="41">
         <v>262</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="I22" s="47">
+        <f>E22/(E22+F22)</f>
+        <v>0.11707317073170732</v>
+      </c>
+      <c r="J22" s="47">
+        <f>G22/(G22+H22)</f>
+        <v>0.12666666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -1538,1713 +1899,168 @@
       <c r="F23" s="15">
         <v>81</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="41">
         <v>7</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="41">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="I23" s="47">
+        <f>E23/(E23+F23)</f>
+        <v>0.16494845360824742</v>
+      </c>
+      <c r="J23" s="47">
+        <f>G23/(G23+H23)</f>
+        <v>4.9295774647887321E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="48">
         <v>8</v>
       </c>
-      <c r="F24" s="34">
-        <v>18</v>
-      </c>
-      <c r="G24" s="35">
+      <c r="F24" s="48">
+        <v>18</v>
+      </c>
+      <c r="G24" s="54">
         <v>11</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="54">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="I24" s="47">
+        <f>E24/(E24+F24)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="J24" s="47">
+        <f>G24/(G24+H24)</f>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="34">
-        <v>3</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="E25" s="48">
+        <v>0</v>
+      </c>
+      <c r="F25" s="48">
         <v>7</v>
       </c>
-      <c r="G25" s="34">
-        <v>4</v>
-      </c>
-      <c r="H25" s="34">
+      <c r="G25" s="48">
+        <v>0</v>
+      </c>
+      <c r="H25" s="48">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="I25" s="47">
+        <f>E25/(E25+F25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="47">
+        <f>G25/(G25+H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="48">
         <v>8</v>
       </c>
-      <c r="F26" s="34">
-        <v>18</v>
-      </c>
-      <c r="G26" s="35">
+      <c r="F26" s="48">
+        <v>18</v>
+      </c>
+      <c r="G26" s="54">
         <v>11</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="54">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="I26" s="47">
+        <f>E26/(E26+F26)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="J26" s="47">
+        <f>G26/(G26+H26)</f>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="34">
-        <v>1</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="E27" s="48">
+        <v>0</v>
+      </c>
+      <c r="F27" s="48">
         <v>12</v>
       </c>
-      <c r="G27" s="34">
-        <v>4</v>
-      </c>
-      <c r="H27" s="34">
+      <c r="G27" s="48">
+        <v>0</v>
+      </c>
+      <c r="H27" s="48">
         <v>39</v>
       </c>
+      <c r="I27" s="47">
+        <f>E27/(E27+F27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="47">
+        <f>G27/(G27+H27)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
+    <sortCondition ref="A2:A27"/>
+    <sortCondition descending="1" ref="C2:C27"/>
+    <sortCondition descending="1" ref="D2:D27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>302</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'All data'!$H$41</f>
-        <v>144</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'All data'!$J$41</f>
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <f>28+70+137</f>
-        <v>235</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <f>7+33+17</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <f>223+43</f>
-        <v>266</v>
-      </c>
-      <c r="D4">
-        <f>70+50</f>
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <f>526+382</f>
-        <v>908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5">
-        <f>'All data'!E5</f>
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
-        <f>'All data'!G5</f>
-        <v>114</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'All data'!$H$11</f>
-        <v>169</v>
-      </c>
-      <c r="E5" s="5">
-        <f>'All data'!$J$11</f>
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <f>31+203</f>
-        <v>234</v>
-      </c>
-      <c r="D6">
-        <v>136</v>
-      </c>
-      <c r="E6">
-        <f>136+914</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <f>'All data'!E44</f>
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <f>'All data'!G44</f>
-        <v>50</v>
-      </c>
-      <c r="D7" s="9">
-        <f>'All data'!H44</f>
-        <v>14</v>
-      </c>
-      <c r="E7" s="9">
-        <f>'All data'!J44</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AA266-2735-8C43-9155-1133034A0A26}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'All data'!$H$40</f>
-        <v>38</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'All data'!$J$40</f>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'All data'!E4</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'All data'!G4</f>
-        <v>60</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'All data'!$H$10</f>
-        <v>63</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'All data'!$J$10</f>
-        <v>591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <f>13+106</f>
-        <v>119</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <f>70+464</f>
-        <v>534</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282C54D-ECEF-5B4A-B2FE-0D87E182EEEB}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'All data'!$H$39</f>
-        <v>106</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'All data'!$J$39</f>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'All data'!E3</f>
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'All data'!G3</f>
-        <v>54</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'All data'!H3</f>
-        <v>106</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'All data'!J3</f>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <f>18+97</f>
-        <v>115</v>
-      </c>
-      <c r="D5">
-        <v>66</v>
-      </c>
-      <c r="E5">
-        <f>66+450</f>
-        <v>516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E80D89-0352-3447-97C9-D167DAAC1D84}">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="31">
-        <v>27</v>
-      </c>
-      <c r="F2" s="31">
-        <v>198</v>
-      </c>
-      <c r="G2" s="31">
-        <v>128</v>
-      </c>
-      <c r="H2" s="31">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="32">
-        <v>12</v>
-      </c>
-      <c r="F3" s="32">
-        <v>121</v>
-      </c>
-      <c r="G3" s="32">
-        <v>127</v>
-      </c>
-      <c r="H3" s="32">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="32">
-        <v>17</v>
-      </c>
-      <c r="F4" s="32">
-        <v>134</v>
-      </c>
-      <c r="G4" s="31">
-        <v>128</v>
-      </c>
-      <c r="H4" s="31">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="31">
-        <v>12</v>
-      </c>
-      <c r="F5" s="31">
-        <v>92</v>
-      </c>
-      <c r="G5" s="32">
-        <v>127</v>
-      </c>
-      <c r="H5" s="32">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="15">
-        <v>16</v>
-      </c>
-      <c r="F6" s="15">
-        <v>105</v>
-      </c>
-      <c r="G6" s="15">
-        <v>35</v>
-      </c>
-      <c r="H6" s="15">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="34">
-        <v>6</v>
-      </c>
-      <c r="F7" s="34">
-        <v>77</v>
-      </c>
-      <c r="G7" s="34">
-        <v>21</v>
-      </c>
-      <c r="H7" s="34">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="34">
-        <v>18</v>
-      </c>
-      <c r="F8" s="34">
-        <v>97</v>
-      </c>
-      <c r="G8" s="34">
-        <v>66</v>
-      </c>
-      <c r="H8" s="34">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="15">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15">
-        <v>106</v>
-      </c>
-      <c r="G9" s="15">
-        <v>70</v>
-      </c>
-      <c r="H9" s="15">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="35">
-        <v>15</v>
-      </c>
-      <c r="F10" s="35">
-        <v>87</v>
-      </c>
-      <c r="G10" s="35">
-        <v>37</v>
-      </c>
-      <c r="H10" s="35">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="34">
-        <v>6</v>
-      </c>
-      <c r="F11" s="34">
-        <v>49</v>
-      </c>
-      <c r="G11" s="34">
-        <v>12</v>
-      </c>
-      <c r="H11" s="34">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="34">
-        <v>13</v>
-      </c>
-      <c r="F12" s="34">
-        <v>110</v>
-      </c>
-      <c r="G12" s="34">
-        <v>51</v>
-      </c>
-      <c r="H12" s="34">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="15">
-        <v>30</v>
-      </c>
-      <c r="F13" s="15">
-        <v>113</v>
-      </c>
-      <c r="G13" s="15">
-        <v>69</v>
-      </c>
-      <c r="H13" s="15">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="35">
-        <v>13</v>
-      </c>
-      <c r="F14" s="35">
-        <v>73</v>
-      </c>
-      <c r="G14" s="35">
-        <v>51</v>
-      </c>
-      <c r="H14" s="35">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="34">
-        <v>20</v>
-      </c>
-      <c r="F15" s="34">
-        <v>117</v>
-      </c>
-      <c r="G15" s="34">
-        <v>69</v>
-      </c>
-      <c r="H15" s="34">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="15">
-        <v>37</v>
-      </c>
-      <c r="F16" s="15">
-        <v>112</v>
-      </c>
-      <c r="G16" s="32">
-        <v>39</v>
-      </c>
-      <c r="H16" s="32">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="34">
-        <v>8</v>
-      </c>
-      <c r="F17" s="34">
-        <v>38</v>
-      </c>
-      <c r="G17" s="31">
-        <v>11</v>
-      </c>
-      <c r="H17" s="31">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="34">
-        <v>19</v>
-      </c>
-      <c r="F18" s="34">
-        <v>189</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>66</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="35">
-        <v>16</v>
-      </c>
-      <c r="F20" s="35">
-        <v>137</v>
-      </c>
-      <c r="G20" s="35">
-        <v>0</v>
-      </c>
-      <c r="H20" s="35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="34">
-        <v>12</v>
-      </c>
-      <c r="F21" s="34">
-        <v>70</v>
-      </c>
-      <c r="G21" s="34">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="34">
-        <v>24</v>
-      </c>
-      <c r="F22" s="34">
-        <v>181</v>
-      </c>
-      <c r="G22" s="61">
-        <v>38</v>
-      </c>
-      <c r="H22" s="61">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="15">
-        <v>16</v>
-      </c>
-      <c r="F23" s="15">
-        <v>81</v>
-      </c>
-      <c r="G23" s="61">
-        <v>7</v>
-      </c>
-      <c r="H23" s="61">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="34">
-        <v>8</v>
-      </c>
-      <c r="F24" s="34">
-        <v>18</v>
-      </c>
-      <c r="G24" s="35">
-        <v>11</v>
-      </c>
-      <c r="H24" s="35">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="34">
-        <v>7</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0</v>
-      </c>
-      <c r="H25" s="34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="34">
-        <v>8</v>
-      </c>
-      <c r="F26" s="34">
-        <v>18</v>
-      </c>
-      <c r="G26" s="35">
-        <v>11</v>
-      </c>
-      <c r="H26" s="35">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="34">
-        <v>0</v>
-      </c>
-      <c r="F27" s="34">
-        <v>12</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC49C6-505E-DC43-883F-74098BEBDD3C}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <f>22+182</f>
-        <v>204</v>
-      </c>
-      <c r="D2">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <f>56+610</f>
-        <v>666</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <f>21+136</f>
-        <v>157</v>
-      </c>
-      <c r="D3">
-        <v>49</v>
-      </c>
-      <c r="E3">
-        <f>'All data'!J20</f>
-        <v>438</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'All data'!$E11</f>
-        <v>45</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'All data'!$G$11</f>
-        <v>368</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'All data'!$H$11</f>
-        <v>169</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'All data'!$J$11</f>
-        <v>1375</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f>'All data'!E29</f>
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <f>'All data'!G29</f>
-        <v>418</v>
-      </c>
-      <c r="D5">
-        <f>'All data'!H29</f>
-        <v>120</v>
-      </c>
-      <c r="E5">
-        <f>'All data'!J29</f>
-        <v>908</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <f>45+150</f>
-        <v>195</v>
-      </c>
-      <c r="D6" s="5">
-        <f>'All data'!H32</f>
-        <v>135</v>
-      </c>
-      <c r="E6" s="5">
-        <f>'All data'!J32</f>
-        <v>1026</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>302</v>
-      </c>
-      <c r="D7" s="5">
-        <f>'All data'!$H$41</f>
-        <v>144</v>
-      </c>
-      <c r="E7" s="5">
-        <f>'All data'!$J$41</f>
-        <v>1156</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <f>28+70+137</f>
-        <v>235</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <f>7+33+17</f>
-        <v>57</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <f>745+533</f>
-        <v>1278</v>
-      </c>
-      <c r="C9">
-        <f>B9+3437+2408</f>
-        <v>7123</v>
-      </c>
-      <c r="D9" s="7" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="7" t="e">
-        <f>#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <f>'All data'!E50</f>
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <f>'All data'!G50</f>
-        <v>72</v>
-      </c>
-      <c r="D10" s="9">
-        <f>'All data'!H50</f>
-        <v>14</v>
-      </c>
-      <c r="E10" s="9">
-        <f>'All data'!J50</f>
-        <v>70</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078E827-9226-664E-A5DC-9CAE983779B2}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <f>6+77</f>
-        <v>83</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <f>21+250</f>
-        <v>271</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <f>6+49</f>
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <f>12+141</f>
-        <v>153</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'All data'!E10</f>
-        <v>18</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'All data'!G10</f>
-        <v>158</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'All data'!$H$10</f>
-        <v>63</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'All data'!$J$10</f>
-        <v>591</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f>'All data'!E28</f>
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <f>'All data'!G28</f>
-        <v>241</v>
-      </c>
-      <c r="D5">
-        <f>'All data'!H28</f>
-        <v>69</v>
-      </c>
-      <c r="E5">
-        <f>'All data'!J28</f>
-        <v>526</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f>8+38</f>
-        <v>46</v>
-      </c>
-      <c r="D6" s="5">
-        <f>'All data'!$H$31</f>
-        <v>29</v>
-      </c>
-      <c r="E6" s="5">
-        <f>'All data'!$J$31</f>
-        <v>242</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <f>16+81</f>
-        <v>97</v>
-      </c>
-      <c r="D7" s="5">
-        <f>'All data'!$H$40</f>
-        <v>38</v>
-      </c>
-      <c r="E7" s="5">
-        <f>'All data'!$J$40</f>
-        <v>372</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>533</v>
-      </c>
-      <c r="C8">
-        <f>533+2408</f>
-        <v>2941</v>
-      </c>
-      <c r="D8">
-        <f>11227</f>
-        <v>11227</v>
-      </c>
-      <c r="E8">
-        <f>D8+87449</f>
-        <v>98676</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB91A93-20D8-5240-A569-93FEDF0E77E0}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3441,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928079C8-A45F-5648-B92F-F547C22F48B1}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
@@ -3458,42 +2274,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3532,13 +2348,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -3586,9 +2402,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
@@ -3630,9 +2446,9 @@
       <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="21" t="s">
         <v>27</v>
       </c>
@@ -3676,9 +2492,9 @@
       <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="60" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -3726,9 +2542,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="21" t="s">
         <v>26</v>
       </c>
@@ -3770,9 +2586,9 @@
       <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="25" t="s">
         <v>27</v>
       </c>
@@ -3816,9 +2632,9 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="60" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -3871,9 +2687,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
@@ -3914,9 +2730,9 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
@@ -3960,13 +2776,13 @@
       <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -4014,9 +2830,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
@@ -4058,9 +2874,9 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -4104,13 +2920,13 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -4158,9 +2974,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="26" t="s">
         <v>26</v>
       </c>
@@ -4202,9 +3018,9 @@
       <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
@@ -4250,13 +3066,13 @@
       <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -4304,9 +3120,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="14" t="s">
         <v>26</v>
       </c>
@@ -4348,9 +3164,9 @@
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
@@ -4396,13 +3212,13 @@
       <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -4450,9 +3266,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="15" t="s">
         <v>26</v>
       </c>
@@ -4494,9 +3310,9 @@
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="14" t="s">
         <v>27</v>
       </c>
@@ -4542,9 +3358,9 @@
       <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4594,9 +3410,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="14" t="s">
         <v>26</v>
       </c>
@@ -4638,9 +3454,9 @@
       <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="15" t="s">
         <v>27</v>
       </c>
@@ -4686,9 +3502,9 @@
       <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="67" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4736,9 +3552,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="15" t="s">
         <v>26</v>
       </c>
@@ -4783,9 +3599,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
@@ -4831,13 +3647,13 @@
       <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="73" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -4886,9 +3702,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="27" t="s">
         <v>26</v>
       </c>
@@ -4930,9 +3746,9 @@
       <c r="P31" s="28"/>
     </row>
     <row r="32" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="26" t="s">
         <v>27</v>
       </c>
@@ -4978,13 +3794,13 @@
       <c r="P32" s="28"/>
     </row>
     <row r="33" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -5030,9 +3846,9 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="26" t="s">
         <v>26</v>
       </c>
@@ -5071,9 +3887,9 @@
       <c r="P34" s="28"/>
     </row>
     <row r="35" spans="1:16" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="27" t="s">
         <v>27</v>
       </c>
@@ -5115,13 +3931,13 @@
       <c r="P35" s="28"/>
     </row>
     <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -5168,9 +3984,9 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="14" t="s">
         <v>26</v>
       </c>
@@ -5211,9 +4027,9 @@
       <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="15" t="s">
         <v>27</v>
       </c>
@@ -5259,13 +4075,13 @@
       <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -5314,9 +4130,9 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="15" t="s">
         <v>26</v>
       </c>
@@ -5358,9 +4174,9 @@
       <c r="P40" s="18"/>
     </row>
     <row r="41" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="14" t="s">
         <v>27</v>
       </c>
@@ -5406,13 +4222,13 @@
       <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -5458,9 +4274,9 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="14" t="s">
         <v>26</v>
       </c>
@@ -5496,9 +4312,9 @@
       <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="15" t="s">
         <v>27</v>
       </c>
@@ -5540,9 +4356,9 @@
       <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="48" t="s">
+      <c r="A45" s="66"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -5588,9 +4404,9 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="15" t="s">
         <v>26</v>
       </c>
@@ -5626,9 +4442,9 @@
       <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="14" t="s">
         <v>27</v>
       </c>
@@ -5670,9 +4486,9 @@
       <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="48" t="s">
+      <c r="A48" s="66"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="67" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5718,9 +4534,9 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="14" t="s">
         <v>26</v>
       </c>
@@ -5756,9 +4572,9 @@
       <c r="P49" s="18"/>
     </row>
     <row r="50" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="15" t="s">
         <v>27</v>
       </c>
@@ -5991,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C58A0-AE3B-164A-826D-BCBAEC3E436B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -6151,7 +4967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C273FEF-7270-914F-9008-FD5984BFD23F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -6292,7 +5108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92E7F40-3DCB-9F42-8DBE-43E3A4FFD2E1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -6427,4 +5243,5220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87D760-B96E-3246-9702-6C0D2F3D090B}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>302</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'All data'!$H$41</f>
+        <v>144</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'All data'!$J$41</f>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <f>28+70+137</f>
+        <v>235</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f>7+33+17</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <f>223+43</f>
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <f>70+50</f>
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <f>526+382</f>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <f>'All data'!E5</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <f>'All data'!G5</f>
+        <v>114</v>
+      </c>
+      <c r="D5" s="5">
+        <f>'All data'!$H$11</f>
+        <v>169</v>
+      </c>
+      <c r="E5" s="5">
+        <f>'All data'!$J$11</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <f>31+203</f>
+        <v>234</v>
+      </c>
+      <c r="D6">
+        <v>136</v>
+      </c>
+      <c r="E6">
+        <f>136+914</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f>'All data'!E44</f>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f>'All data'!G44</f>
+        <v>50</v>
+      </c>
+      <c r="D7" s="9">
+        <f>'All data'!H44</f>
+        <v>14</v>
+      </c>
+      <c r="E7" s="9">
+        <f>'All data'!J44</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AA266-2735-8C43-9155-1133034A0A26}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'All data'!$H$40</f>
+        <v>38</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'All data'!$J$40</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'All data'!E4</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'All data'!G4</f>
+        <v>60</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'All data'!$H$10</f>
+        <v>63</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'All data'!$J$10</f>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>13+106</f>
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <f>70+464</f>
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282C54D-ECEF-5B4A-B2FE-0D87E182EEEB}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'All data'!$H$39</f>
+        <v>106</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'All data'!$J$39</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'All data'!E3</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'All data'!G3</f>
+        <v>54</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'All data'!H3</f>
+        <v>106</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'All data'!J3</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <f>18+97</f>
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <f>66+450</f>
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680FA0B1-EFD2-B942-9252-2A4831745308}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="31">
+        <v>32</v>
+      </c>
+      <c r="F2" s="31">
+        <v>259</v>
+      </c>
+      <c r="G2" s="31">
+        <v>128</v>
+      </c>
+      <c r="H2" s="31">
+        <v>813</v>
+      </c>
+      <c r="I2" s="47">
+        <f>E2/(E2+F2)</f>
+        <v>0.10996563573883161</v>
+      </c>
+      <c r="J2" s="47">
+        <f>G2/(G2+H2)</f>
+        <v>0.13602550478214664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="32">
+        <v>14</v>
+      </c>
+      <c r="F3" s="32">
+        <v>143</v>
+      </c>
+      <c r="G3" s="32">
+        <v>127</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1089</v>
+      </c>
+      <c r="I3" s="47">
+        <f t="shared" ref="I3:I27" si="0">E3/(E3+F3)</f>
+        <v>8.9171974522292988E-2</v>
+      </c>
+      <c r="J3" s="47">
+        <f t="shared" ref="J3:J27" si="1">G3/(G3+H3)</f>
+        <v>0.10444078947368421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="32">
+        <v>12</v>
+      </c>
+      <c r="F4" s="32">
+        <v>73</v>
+      </c>
+      <c r="G4" s="31">
+        <v>128</v>
+      </c>
+      <c r="H4" s="31">
+        <v>813</v>
+      </c>
+      <c r="I4" s="47">
+        <f t="shared" si="0"/>
+        <v>0.14117647058823529</v>
+      </c>
+      <c r="J4" s="47">
+        <f t="shared" si="1"/>
+        <v>0.13602550478214664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="31">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31">
+        <v>70</v>
+      </c>
+      <c r="G5" s="32">
+        <v>127</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1089</v>
+      </c>
+      <c r="I5" s="47">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="J5" s="47">
+        <f t="shared" si="1"/>
+        <v>0.10444078947368421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15">
+        <v>105</v>
+      </c>
+      <c r="G6" s="15">
+        <v>35</v>
+      </c>
+      <c r="H6" s="15">
+        <v>360</v>
+      </c>
+      <c r="I6" s="47">
+        <f t="shared" si="0"/>
+        <v>0.13223140495867769</v>
+      </c>
+      <c r="J6" s="47">
+        <f t="shared" si="1"/>
+        <v>8.8607594936708861E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="43">
+        <v>6</v>
+      </c>
+      <c r="F7" s="43">
+        <v>77</v>
+      </c>
+      <c r="G7" s="43">
+        <v>21</v>
+      </c>
+      <c r="H7" s="43">
+        <v>250</v>
+      </c>
+      <c r="I7" s="47">
+        <f t="shared" si="0"/>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="J7" s="47">
+        <f t="shared" si="1"/>
+        <v>7.7490774907749083E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="43">
+        <v>18</v>
+      </c>
+      <c r="F8" s="43">
+        <v>97</v>
+      </c>
+      <c r="G8" s="43">
+        <v>66</v>
+      </c>
+      <c r="H8" s="43">
+        <v>450</v>
+      </c>
+      <c r="I8" s="47">
+        <f t="shared" si="0"/>
+        <v>0.15652173913043479</v>
+      </c>
+      <c r="J8" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12790697674418605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15">
+        <v>106</v>
+      </c>
+      <c r="G9" s="15">
+        <v>70</v>
+      </c>
+      <c r="H9" s="15">
+        <v>464</v>
+      </c>
+      <c r="I9" s="47">
+        <f t="shared" si="0"/>
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="J9" s="47">
+        <f t="shared" si="1"/>
+        <v>0.13108614232209737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="44">
+        <v>15</v>
+      </c>
+      <c r="F10" s="44">
+        <v>87</v>
+      </c>
+      <c r="G10" s="44">
+        <v>37</v>
+      </c>
+      <c r="H10" s="44">
+        <v>248</v>
+      </c>
+      <c r="I10" s="47">
+        <f t="shared" si="0"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="J10" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12982456140350876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="43">
+        <v>6</v>
+      </c>
+      <c r="F11" s="43">
+        <v>49</v>
+      </c>
+      <c r="G11" s="43">
+        <v>12</v>
+      </c>
+      <c r="H11" s="43">
+        <v>141</v>
+      </c>
+      <c r="I11" s="47">
+        <f t="shared" si="0"/>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="J11" s="47">
+        <f t="shared" si="1"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="43">
+        <v>13</v>
+      </c>
+      <c r="F12" s="43">
+        <v>110</v>
+      </c>
+      <c r="G12">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>330</v>
+      </c>
+      <c r="I12" s="47">
+        <f t="shared" si="0"/>
+        <v>0.10569105691056911</v>
+      </c>
+      <c r="J12" s="47">
+        <f t="shared" si="1"/>
+        <v>0.13385826771653545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15">
+        <v>30</v>
+      </c>
+      <c r="F13" s="15">
+        <v>112</v>
+      </c>
+      <c r="G13">
+        <v>71</v>
+      </c>
+      <c r="H13">
+        <v>485</v>
+      </c>
+      <c r="I13" s="47">
+        <f t="shared" si="0"/>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="J13" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12769784172661872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <v>330</v>
+      </c>
+      <c r="I14" s="47">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J14" s="47">
+        <f t="shared" si="1"/>
+        <v>0.13385826771653545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>485</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" si="0"/>
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12769784172661872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15">
+        <v>112</v>
+      </c>
+      <c r="G16" s="32">
+        <v>39</v>
+      </c>
+      <c r="H16" s="32">
+        <v>279</v>
+      </c>
+      <c r="I16" s="47">
+        <f t="shared" si="0"/>
+        <v>0.24832214765100671</v>
+      </c>
+      <c r="J16" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12264150943396226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="43">
+        <v>8</v>
+      </c>
+      <c r="F17" s="43">
+        <v>38</v>
+      </c>
+      <c r="G17" s="31">
+        <v>11</v>
+      </c>
+      <c r="H17" s="31">
+        <v>87</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="0"/>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="1"/>
+        <v>0.11224489795918367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="43">
+        <v>19</v>
+      </c>
+      <c r="F18" s="43">
+        <v>189</v>
+      </c>
+      <c r="G18" s="43">
+        <v>0</v>
+      </c>
+      <c r="H18" s="43">
+        <v>0</v>
+      </c>
+      <c r="I18" s="47">
+        <f t="shared" si="0"/>
+        <v>9.1346153846153841E-2</v>
+      </c>
+      <c r="J18" s="47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="44">
+        <v>16</v>
+      </c>
+      <c r="F20" s="44">
+        <v>137</v>
+      </c>
+      <c r="G20" s="44">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
+        <v>33</v>
+      </c>
+      <c r="I20" s="47">
+        <f t="shared" si="0"/>
+        <v>0.10457516339869281</v>
+      </c>
+      <c r="J20" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="43">
+        <v>12</v>
+      </c>
+      <c r="F21" s="43">
+        <v>70</v>
+      </c>
+      <c r="G21" s="43">
+        <v>0</v>
+      </c>
+      <c r="H21" s="43">
+        <v>17</v>
+      </c>
+      <c r="I21" s="47">
+        <f t="shared" si="0"/>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="J21" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="43">
+        <v>24</v>
+      </c>
+      <c r="F22" s="43">
+        <v>181</v>
+      </c>
+      <c r="G22" s="41">
+        <v>38</v>
+      </c>
+      <c r="H22" s="41">
+        <v>262</v>
+      </c>
+      <c r="I22" s="47">
+        <f t="shared" si="0"/>
+        <v>0.11707317073170732</v>
+      </c>
+      <c r="J22" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12666666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="15">
+        <v>16</v>
+      </c>
+      <c r="F23" s="15">
+        <v>81</v>
+      </c>
+      <c r="G23" s="41">
+        <v>7</v>
+      </c>
+      <c r="H23" s="41">
+        <v>135</v>
+      </c>
+      <c r="I23" s="47">
+        <f t="shared" si="0"/>
+        <v>0.16494845360824742</v>
+      </c>
+      <c r="J23" s="47">
+        <f t="shared" si="1"/>
+        <v>4.9295774647887321E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="43">
+        <v>11</v>
+      </c>
+      <c r="F24" s="43">
+        <v>27</v>
+      </c>
+      <c r="G24" s="44">
+        <v>11</v>
+      </c>
+      <c r="H24" s="44">
+        <v>37</v>
+      </c>
+      <c r="I24" s="47">
+        <f t="shared" si="0"/>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="J24" s="47">
+        <f t="shared" si="1"/>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="43">
+        <v>14</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="43">
+        <v>39</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="43">
+        <v>5</v>
+      </c>
+      <c r="F26" s="43">
+        <v>9</v>
+      </c>
+      <c r="G26" s="44">
+        <v>11</v>
+      </c>
+      <c r="H26" s="44">
+        <v>37</v>
+      </c>
+      <c r="I26" s="47">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J26" s="47">
+        <f t="shared" si="1"/>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
+      <c r="F27" s="43">
+        <v>5</v>
+      </c>
+      <c r="G27" s="43">
+        <v>0</v>
+      </c>
+      <c r="H27" s="43">
+        <v>39</v>
+      </c>
+      <c r="I27" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B59A9E-2A00-A94E-9AE6-35D3044329A5}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="49">
+        <v>17</v>
+      </c>
+      <c r="H2" s="49">
+        <v>134</v>
+      </c>
+      <c r="I2" s="49">
+        <v>128</v>
+      </c>
+      <c r="J2" s="49">
+        <v>813</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
+        <f>G2+H2</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="32">
+        <v>12</v>
+      </c>
+      <c r="H3" s="32">
+        <v>92</v>
+      </c>
+      <c r="I3" s="32">
+        <v>127</v>
+      </c>
+      <c r="J3" s="32">
+        <v>1089</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47">
+        <f>G3+H3</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="84">
+        <f>G2/G3</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="F4" s="78">
+        <f>(G2+H2)/(G3+H3)</f>
+        <v>1.4519230769230769</v>
+      </c>
+      <c r="G4" s="32">
+        <f>SUM(G2:G3)</f>
+        <v>29</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" ref="H4:J4" si="0">SUM(H2:H3)</f>
+        <v>226</v>
+      </c>
+      <c r="I4" s="32">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="J4" s="32">
+        <f t="shared" si="0"/>
+        <v>1902</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+    </row>
+    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="32">
+        <v>12</v>
+      </c>
+      <c r="H5" s="32">
+        <v>121</v>
+      </c>
+      <c r="I5" s="49">
+        <v>127</v>
+      </c>
+      <c r="J5" s="49">
+        <v>1089</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="49">
+        <v>27</v>
+      </c>
+      <c r="H6" s="49">
+        <v>198</v>
+      </c>
+      <c r="I6" s="32">
+        <v>128</v>
+      </c>
+      <c r="J6" s="32">
+        <v>813</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="84">
+        <f>G6/G5</f>
+        <v>2.25</v>
+      </c>
+      <c r="F7" s="78">
+        <f>(G6+H6)/(G5+H5)</f>
+        <v>1.6917293233082706</v>
+      </c>
+      <c r="G7" s="32">
+        <f>SUM(G5:G6)</f>
+        <v>39</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" ref="H7" si="1">SUM(H5:H6)</f>
+        <v>319</v>
+      </c>
+      <c r="I7" s="32">
+        <f t="shared" ref="I7" si="2">SUM(I5:I6)</f>
+        <v>255</v>
+      </c>
+      <c r="J7" s="32">
+        <f t="shared" ref="J7" si="3">SUM(J5:J6)</f>
+        <v>1902</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="15">
+        <v>6</v>
+      </c>
+      <c r="H8" s="15">
+        <v>77</v>
+      </c>
+      <c r="I8" s="15">
+        <v>21</v>
+      </c>
+      <c r="J8" s="15">
+        <v>250</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="48">
+        <v>16</v>
+      </c>
+      <c r="H9" s="48">
+        <v>105</v>
+      </c>
+      <c r="I9" s="48">
+        <v>35</v>
+      </c>
+      <c r="J9" s="48">
+        <v>360</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="85">
+        <f>G9/G8</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F10" s="78">
+        <f>(G9+H9)/(G8+H8)</f>
+        <v>1.4578313253012047</v>
+      </c>
+      <c r="G10" s="32">
+        <f>SUM(G8:G9)</f>
+        <v>22</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" ref="H10" si="4">SUM(H8:H9)</f>
+        <v>182</v>
+      </c>
+      <c r="I10" s="32">
+        <f t="shared" ref="I10" si="5">SUM(I8:I9)</f>
+        <v>56</v>
+      </c>
+      <c r="J10" s="32">
+        <f t="shared" ref="J10" si="6">SUM(J8:J9)</f>
+        <v>610</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="48">
+        <v>8</v>
+      </c>
+      <c r="H11" s="48">
+        <v>38</v>
+      </c>
+      <c r="I11" s="49">
+        <v>11</v>
+      </c>
+      <c r="J11" s="49">
+        <v>87</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="15">
+        <v>37</v>
+      </c>
+      <c r="H12" s="15">
+        <v>112</v>
+      </c>
+      <c r="I12" s="32">
+        <v>39</v>
+      </c>
+      <c r="J12" s="32">
+        <v>279</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="85">
+        <f>G12/G11</f>
+        <v>4.625</v>
+      </c>
+      <c r="F13" s="78">
+        <f>(G12+H12)/(G11+H11)</f>
+        <v>3.2391304347826089</v>
+      </c>
+      <c r="G13" s="32">
+        <f>SUM(G11:G12)</f>
+        <v>45</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" ref="H13" si="7">SUM(H11:H12)</f>
+        <v>150</v>
+      </c>
+      <c r="I13" s="32">
+        <f t="shared" ref="I13" si="8">SUM(I11:I12)</f>
+        <v>50</v>
+      </c>
+      <c r="J13" s="32">
+        <f t="shared" ref="J13" si="9">SUM(J11:J12)</f>
+        <v>366</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="54">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
+        <v>66</v>
+      </c>
+      <c r="I14" s="54">
+        <v>0</v>
+      </c>
+      <c r="J14" s="54">
+        <v>0</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="53">
+        <v>19</v>
+      </c>
+      <c r="H15" s="53">
+        <v>189</v>
+      </c>
+      <c r="I15" s="53">
+        <v>0</v>
+      </c>
+      <c r="J15" s="53">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="78">
+        <f>(G15+H15)/(G14+H14)</f>
+        <v>3.1515151515151514</v>
+      </c>
+      <c r="G16" s="32">
+        <f>SUM(G14:G15)</f>
+        <v>19</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" ref="H16" si="10">SUM(H14:H15)</f>
+        <v>255</v>
+      </c>
+      <c r="I16" s="32">
+        <f t="shared" ref="I16" si="11">SUM(I14:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <f t="shared" ref="J16" si="12">SUM(J14:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="48">
+        <v>13</v>
+      </c>
+      <c r="H17" s="48">
+        <v>106</v>
+      </c>
+      <c r="I17" s="48">
+        <v>70</v>
+      </c>
+      <c r="J17" s="48">
+        <v>464</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+    </row>
+    <row r="18" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="53">
+        <v>18</v>
+      </c>
+      <c r="H18" s="53">
+        <v>97</v>
+      </c>
+      <c r="I18" s="53">
+        <v>66</v>
+      </c>
+      <c r="J18" s="53">
+        <v>450</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+    </row>
+    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="85">
+        <f>G18/G17</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="F19" s="78">
+        <f>(G18+H18)/(G17+H17)</f>
+        <v>0.96638655462184875</v>
+      </c>
+      <c r="G19" s="32">
+        <f>SUM(G17:G18)</f>
+        <v>31</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" ref="H19" si="13">SUM(H17:H18)</f>
+        <v>203</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" ref="I19" si="14">SUM(I17:I18)</f>
+        <v>136</v>
+      </c>
+      <c r="J19" s="32">
+        <f t="shared" ref="J19" si="15">SUM(J17:J18)</f>
+        <v>914</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+    </row>
+    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="54">
+        <v>6</v>
+      </c>
+      <c r="H20" s="54">
+        <v>49</v>
+      </c>
+      <c r="I20" s="48">
+        <v>12</v>
+      </c>
+      <c r="J20" s="48">
+        <v>141</v>
+      </c>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="48">
+        <v>15</v>
+      </c>
+      <c r="H21" s="48">
+        <v>87</v>
+      </c>
+      <c r="I21" s="48">
+        <v>37</v>
+      </c>
+      <c r="J21" s="48">
+        <v>248</v>
+      </c>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+    </row>
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="85">
+        <f>G21/G20</f>
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="78">
+        <f>(G21+H21)/(G20+H20)</f>
+        <v>1.8545454545454545</v>
+      </c>
+      <c r="G22" s="32">
+        <f>SUM(G20:G21)</f>
+        <v>21</v>
+      </c>
+      <c r="H22" s="32">
+        <f t="shared" ref="H22" si="16">SUM(H20:H21)</f>
+        <v>136</v>
+      </c>
+      <c r="I22" s="32">
+        <f t="shared" ref="I22" si="17">SUM(I20:I21)</f>
+        <v>49</v>
+      </c>
+      <c r="J22" s="32">
+        <f t="shared" ref="J22" si="18">SUM(J20:J21)</f>
+        <v>389</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+    </row>
+    <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="15">
+        <v>20</v>
+      </c>
+      <c r="H23" s="15">
+        <v>117</v>
+      </c>
+      <c r="I23" s="50">
+        <v>71</v>
+      </c>
+      <c r="J23" s="50">
+        <v>485</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="48">
+        <v>13</v>
+      </c>
+      <c r="H24" s="48">
+        <v>73</v>
+      </c>
+      <c r="I24" s="51">
+        <v>51</v>
+      </c>
+      <c r="J24" s="51">
+        <v>330</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+    </row>
+    <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="85">
+        <f>G24/G23</f>
+        <v>0.65</v>
+      </c>
+      <c r="F25" s="78">
+        <f>(G24+H24)/(G23+H23)</f>
+        <v>0.62773722627737227</v>
+      </c>
+      <c r="G25" s="32">
+        <f>SUM(G23:G24)</f>
+        <v>33</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" ref="H25" si="19">SUM(H23:H24)</f>
+        <v>190</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" ref="I25" si="20">SUM(I23:I24)</f>
+        <v>122</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" ref="J25" si="21">SUM(J23:J24)</f>
+        <v>815</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+    </row>
+    <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="51">
+        <v>6</v>
+      </c>
+      <c r="H26" s="51">
+        <v>85</v>
+      </c>
+      <c r="I26" s="51">
+        <v>51</v>
+      </c>
+      <c r="J26" s="51">
+        <v>330</v>
+      </c>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+    </row>
+    <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="50">
+        <v>23</v>
+      </c>
+      <c r="H27" s="50">
+        <v>80</v>
+      </c>
+      <c r="I27" s="50">
+        <v>71</v>
+      </c>
+      <c r="J27" s="50">
+        <v>485</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+    </row>
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="85">
+        <f>G26/G27</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="F28" s="78">
+        <f>(G26+H26)/(G27+H27)</f>
+        <v>0.88349514563106801</v>
+      </c>
+      <c r="G28" s="32">
+        <f>SUM(G26:G27)</f>
+        <v>29</v>
+      </c>
+      <c r="H28" s="32">
+        <f t="shared" ref="H28" si="22">SUM(H26:H27)</f>
+        <v>165</v>
+      </c>
+      <c r="I28" s="32">
+        <f t="shared" ref="I28" si="23">SUM(I26:I27)</f>
+        <v>122</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" ref="J28" si="24">SUM(J26:J27)</f>
+        <v>815</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="54">
+        <v>16</v>
+      </c>
+      <c r="H29" s="54">
+        <v>137</v>
+      </c>
+      <c r="I29" s="54">
+        <v>4</v>
+      </c>
+      <c r="J29" s="54">
+        <v>33</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+    </row>
+    <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="82"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="53">
+        <v>12</v>
+      </c>
+      <c r="H30" s="53">
+        <v>70</v>
+      </c>
+      <c r="I30" s="48">
+        <v>3</v>
+      </c>
+      <c r="J30" s="48">
+        <v>17</v>
+      </c>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="85">
+        <f>G29/G30</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F31" s="78">
+        <f>(G29+H29)/(G30+H30)</f>
+        <v>1.8658536585365855</v>
+      </c>
+      <c r="G31" s="32">
+        <f>SUM(G29:G30)</f>
+        <v>28</v>
+      </c>
+      <c r="H31" s="32">
+        <f t="shared" ref="H31" si="25">SUM(H29:H30)</f>
+        <v>207</v>
+      </c>
+      <c r="I31" s="32">
+        <f t="shared" ref="I31" si="26">SUM(I29:I30)</f>
+        <v>7</v>
+      </c>
+      <c r="J31" s="32">
+        <f t="shared" ref="J31" si="27">SUM(J29:J30)</f>
+        <v>50</v>
+      </c>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="48">
+        <v>24</v>
+      </c>
+      <c r="H32" s="48">
+        <v>181</v>
+      </c>
+      <c r="I32" s="41">
+        <v>38</v>
+      </c>
+      <c r="J32" s="41">
+        <v>262</v>
+      </c>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+    </row>
+    <row r="33" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="15">
+        <v>16</v>
+      </c>
+      <c r="H33" s="15">
+        <v>81</v>
+      </c>
+      <c r="I33" s="41">
+        <v>7</v>
+      </c>
+      <c r="J33" s="41">
+        <v>135</v>
+      </c>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+    </row>
+    <row r="34" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="85">
+        <f>G32/G33</f>
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="78">
+        <f>(G32+H32)/(G33+H33)</f>
+        <v>2.1134020618556701</v>
+      </c>
+      <c r="G34" s="32">
+        <f>SUM(G32:G33)</f>
+        <v>40</v>
+      </c>
+      <c r="H34" s="32">
+        <f t="shared" ref="H34" si="28">SUM(H32:H33)</f>
+        <v>262</v>
+      </c>
+      <c r="I34" s="32">
+        <f t="shared" ref="I34" si="29">SUM(I32:I33)</f>
+        <v>45</v>
+      </c>
+      <c r="J34" s="32">
+        <f t="shared" ref="J34" si="30">SUM(J32:J33)</f>
+        <v>397</v>
+      </c>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="48">
+        <v>0</v>
+      </c>
+      <c r="H35" s="48">
+        <v>12</v>
+      </c>
+      <c r="I35" s="54">
+        <v>4</v>
+      </c>
+      <c r="J35" s="54">
+        <v>39</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+    </row>
+    <row r="36" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="82"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="48">
+        <v>8</v>
+      </c>
+      <c r="H36" s="48">
+        <v>18</v>
+      </c>
+      <c r="I36" s="48">
+        <v>11</v>
+      </c>
+      <c r="J36" s="48">
+        <v>37</v>
+      </c>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+    </row>
+    <row r="37" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="78">
+        <f>(G36+H36)/(G35+H35)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="G37" s="32">
+        <f>SUM(G35:G36)</f>
+        <v>8</v>
+      </c>
+      <c r="H37" s="32">
+        <f t="shared" ref="H37" si="31">SUM(H35:H36)</f>
+        <v>30</v>
+      </c>
+      <c r="I37" s="32">
+        <f t="shared" ref="I37" si="32">SUM(I35:I36)</f>
+        <v>15</v>
+      </c>
+      <c r="J37" s="32">
+        <f t="shared" ref="J37" si="33">SUM(J35:J36)</f>
+        <v>76</v>
+      </c>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="82"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="48">
+        <v>0</v>
+      </c>
+      <c r="H38" s="48">
+        <v>7</v>
+      </c>
+      <c r="I38" s="54">
+        <v>4</v>
+      </c>
+      <c r="J38" s="54">
+        <v>39</v>
+      </c>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+    </row>
+    <row r="39" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="48">
+        <v>8</v>
+      </c>
+      <c r="H39" s="48">
+        <v>18</v>
+      </c>
+      <c r="I39" s="48">
+        <v>11</v>
+      </c>
+      <c r="J39" s="48">
+        <v>37</v>
+      </c>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+    </row>
+    <row r="40" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="78">
+        <f>(G39+H39)/(G38+H38)</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="G40" s="32">
+        <f>SUM(G38:G39)</f>
+        <v>8</v>
+      </c>
+      <c r="H40" s="32">
+        <f t="shared" ref="H40" si="34">SUM(H38:H39)</f>
+        <v>25</v>
+      </c>
+      <c r="I40" s="32">
+        <f t="shared" ref="I40" si="35">SUM(I38:I39)</f>
+        <v>15</v>
+      </c>
+      <c r="J40" s="32">
+        <f t="shared" ref="J40" si="36">SUM(J38:J39)</f>
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
+    <sortCondition ref="A2:A39"/>
+    <sortCondition ref="C2:C39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944FDA95-5B5D-9647-8FF2-0DA09FF3856E}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="F12" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="78">
+        <v>1.42</v>
+      </c>
+      <c r="E2" s="32">
+        <v>29</v>
+      </c>
+      <c r="F2" s="32">
+        <v>226</v>
+      </c>
+      <c r="G2" s="32">
+        <v>255</v>
+      </c>
+      <c r="H2" s="32">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="78">
+        <v>2.25</v>
+      </c>
+      <c r="E3" s="32">
+        <v>39</v>
+      </c>
+      <c r="F3" s="32">
+        <v>319</v>
+      </c>
+      <c r="G3" s="32">
+        <v>255</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="78">
+        <v>2.67</v>
+      </c>
+      <c r="E4" s="32">
+        <v>22</v>
+      </c>
+      <c r="F4" s="32">
+        <v>182</v>
+      </c>
+      <c r="G4" s="32">
+        <v>56</v>
+      </c>
+      <c r="H4" s="32">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="78">
+        <v>4.63</v>
+      </c>
+      <c r="E5" s="32">
+        <v>45</v>
+      </c>
+      <c r="F5" s="32">
+        <v>150</v>
+      </c>
+      <c r="G5" s="32">
+        <v>50</v>
+      </c>
+      <c r="H5" s="32">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="32">
+        <v>19</v>
+      </c>
+      <c r="F6" s="32">
+        <v>255</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="78">
+        <v>1.38</v>
+      </c>
+      <c r="E7" s="32">
+        <v>31</v>
+      </c>
+      <c r="F7" s="32">
+        <v>203</v>
+      </c>
+      <c r="G7" s="32">
+        <v>136</v>
+      </c>
+      <c r="H7" s="32">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="32">
+        <v>21</v>
+      </c>
+      <c r="F8" s="32">
+        <v>136</v>
+      </c>
+      <c r="G8" s="32">
+        <v>49</v>
+      </c>
+      <c r="H8" s="32">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="78">
+        <v>0.65</v>
+      </c>
+      <c r="E9" s="32">
+        <v>33</v>
+      </c>
+      <c r="F9" s="32">
+        <v>190</v>
+      </c>
+      <c r="G9" s="32">
+        <v>122</v>
+      </c>
+      <c r="H9" s="32">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="78">
+        <v>0.26</v>
+      </c>
+      <c r="E10" s="32">
+        <v>29</v>
+      </c>
+      <c r="F10" s="32">
+        <v>165</v>
+      </c>
+      <c r="G10" s="32">
+        <v>122</v>
+      </c>
+      <c r="H10" s="32">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="78">
+        <v>1.33</v>
+      </c>
+      <c r="E11" s="32">
+        <v>28</v>
+      </c>
+      <c r="F11" s="32">
+        <v>207</v>
+      </c>
+      <c r="G11" s="32">
+        <v>7</v>
+      </c>
+      <c r="H11" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="78">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="32">
+        <v>40</v>
+      </c>
+      <c r="F12" s="32">
+        <v>262</v>
+      </c>
+      <c r="G12" s="32">
+        <v>45</v>
+      </c>
+      <c r="H12" s="32">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="32">
+        <v>8</v>
+      </c>
+      <c r="F13" s="32">
+        <v>30</v>
+      </c>
+      <c r="G13" s="32">
+        <v>15</v>
+      </c>
+      <c r="H13" s="32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="32">
+        <v>8</v>
+      </c>
+      <c r="F14" s="32">
+        <v>25</v>
+      </c>
+      <c r="G14" s="32">
+        <v>15</v>
+      </c>
+      <c r="H14" s="32">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42628BA-0466-AD4E-B880-34345DBAA574}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1">
+        <f>SUM(E2:F12)</f>
+        <v>2194</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1">
+        <f>SUM(E2:F14)</f>
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="78">
+        <v>1.4519230769230769</v>
+      </c>
+      <c r="E2" s="32">
+        <v>29</v>
+      </c>
+      <c r="F2" s="32">
+        <v>226</v>
+      </c>
+      <c r="G2" s="32">
+        <v>255</v>
+      </c>
+      <c r="H2" s="32">
+        <v>1902</v>
+      </c>
+      <c r="I2" s="47">
+        <f>E2/(E2+F2)</f>
+        <v>0.11372549019607843</v>
+      </c>
+      <c r="J2" s="47">
+        <f>G2/(G2+H2)</f>
+        <v>0.11821974965229486</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <f>SUM(G3:H11)</f>
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="78">
+        <v>1.6917293233082706</v>
+      </c>
+      <c r="E3" s="32">
+        <v>39</v>
+      </c>
+      <c r="F3" s="32">
+        <v>319</v>
+      </c>
+      <c r="G3" s="32">
+        <v>255</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1902</v>
+      </c>
+      <c r="I3" s="47">
+        <f t="shared" ref="I3:I12" si="0">E3/(E3+F3)</f>
+        <v>0.10893854748603352</v>
+      </c>
+      <c r="J3" s="47">
+        <f t="shared" ref="J3:J12" si="1">G3/(G3+H3)</f>
+        <v>0.11821974965229486</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3">
+        <f>L2+L1</f>
+        <v>8335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="78">
+        <v>1.4578313253012047</v>
+      </c>
+      <c r="E4" s="32">
+        <v>22</v>
+      </c>
+      <c r="F4" s="32">
+        <v>182</v>
+      </c>
+      <c r="G4" s="32">
+        <v>56</v>
+      </c>
+      <c r="H4" s="32">
+        <v>610</v>
+      </c>
+      <c r="I4" s="47">
+        <f t="shared" si="0"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="J4" s="47">
+        <f t="shared" si="1"/>
+        <v>8.408408408408409E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="78">
+        <v>3.2391304347826089</v>
+      </c>
+      <c r="E5" s="32">
+        <v>45</v>
+      </c>
+      <c r="F5" s="32">
+        <v>150</v>
+      </c>
+      <c r="G5" s="32">
+        <v>50</v>
+      </c>
+      <c r="H5" s="32">
+        <v>366</v>
+      </c>
+      <c r="I5" s="47">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="J5" s="47">
+        <f t="shared" si="1"/>
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="7">
+        <f>SUM(E2:H14)-SUM(G2:H2,G8:H8,G11:H11)</f>
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="78">
+        <v>1.8545454545454545</v>
+      </c>
+      <c r="E6" s="32">
+        <v>21</v>
+      </c>
+      <c r="F6" s="32">
+        <v>136</v>
+      </c>
+      <c r="G6" s="32">
+        <v>49</v>
+      </c>
+      <c r="H6" s="32">
+        <v>389</v>
+      </c>
+      <c r="I6" s="47">
+        <f t="shared" si="0"/>
+        <v>0.13375796178343949</v>
+      </c>
+      <c r="J6" s="47">
+        <f t="shared" si="1"/>
+        <v>0.11187214611872145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0.62773722627737205</v>
+      </c>
+      <c r="E7" s="32">
+        <v>33</v>
+      </c>
+      <c r="F7" s="32">
+        <v>190</v>
+      </c>
+      <c r="G7" s="32">
+        <v>122</v>
+      </c>
+      <c r="H7" s="32">
+        <v>815</v>
+      </c>
+      <c r="I7" s="47">
+        <f t="shared" si="0"/>
+        <v>0.14798206278026907</v>
+      </c>
+      <c r="J7" s="47">
+        <f t="shared" si="1"/>
+        <v>0.13020277481323372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0.88349514563106801</v>
+      </c>
+      <c r="E8" s="32">
+        <v>29</v>
+      </c>
+      <c r="F8" s="32">
+        <v>165</v>
+      </c>
+      <c r="G8" s="32">
+        <v>122</v>
+      </c>
+      <c r="H8" s="32">
+        <v>815</v>
+      </c>
+      <c r="I8" s="47">
+        <f t="shared" si="0"/>
+        <v>0.14948453608247422</v>
+      </c>
+      <c r="J8" s="47">
+        <f t="shared" si="1"/>
+        <v>0.13020277481323372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="78">
+        <v>1.8658536585365855</v>
+      </c>
+      <c r="E9" s="32">
+        <v>28</v>
+      </c>
+      <c r="F9" s="32">
+        <v>207</v>
+      </c>
+      <c r="G9" s="32">
+        <v>7</v>
+      </c>
+      <c r="H9" s="32">
+        <v>50</v>
+      </c>
+      <c r="I9" s="47">
+        <f t="shared" si="0"/>
+        <v>0.11914893617021277</v>
+      </c>
+      <c r="J9" s="47">
+        <f t="shared" si="1"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="78">
+        <v>2.1134020618556701</v>
+      </c>
+      <c r="E10" s="32">
+        <v>40</v>
+      </c>
+      <c r="F10" s="32">
+        <v>262</v>
+      </c>
+      <c r="G10" s="32">
+        <v>45</v>
+      </c>
+      <c r="H10" s="32">
+        <v>397</v>
+      </c>
+      <c r="I10" s="47">
+        <f t="shared" si="0"/>
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="J10" s="47">
+        <f t="shared" si="1"/>
+        <v>0.10180995475113122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="78">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="E11" s="32">
+        <v>8</v>
+      </c>
+      <c r="F11" s="32">
+        <v>30</v>
+      </c>
+      <c r="G11" s="32">
+        <v>15</v>
+      </c>
+      <c r="H11" s="32">
+        <v>76</v>
+      </c>
+      <c r="I11" s="47">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="J11" s="47">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="78">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="E12" s="32">
+        <v>8</v>
+      </c>
+      <c r="F12" s="32">
+        <v>25</v>
+      </c>
+      <c r="G12" s="32">
+        <v>15</v>
+      </c>
+      <c r="H12" s="32">
+        <v>76</v>
+      </c>
+      <c r="I12" s="47">
+        <f t="shared" si="0"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="J12" s="47">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="78">
+        <v>3.1515151515151514</v>
+      </c>
+      <c r="E13" s="32">
+        <v>19</v>
+      </c>
+      <c r="F13" s="32">
+        <v>255</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <f>E13/(E13+F13)</f>
+        <v>6.9343065693430656E-2</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0.96638655462184875</v>
+      </c>
+      <c r="E14" s="32">
+        <v>31</v>
+      </c>
+      <c r="F14" s="32">
+        <v>203</v>
+      </c>
+      <c r="G14" s="32">
+        <v>136</v>
+      </c>
+      <c r="H14" s="32">
+        <v>914</v>
+      </c>
+      <c r="I14" s="47">
+        <f>E14/(E14+F14)</f>
+        <v>0.13247863247863248</v>
+      </c>
+      <c r="J14" s="47">
+        <f>G14/(G14+H14)</f>
+        <v>0.12952380952380951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f>358+90+165</f>
+        <v>613</v>
+      </c>
+      <c r="H16">
+        <f>G2+H2</f>
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="7">
+        <f>SUM(E3:F3,E8:F9,E11:F14)</f>
+        <v>1366</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18">
+        <f>SUM(E3:F3,E8:F9,E11:F12)</f>
+        <v>858</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18">
+        <f>SUM(E2:F2)-MA_RD_MF_cases!E2-MA_RD_MF_cases!F2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <f>SUM(E2:F2,E4:F7,E11:F11)</f>
+        <v>1072</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19">
+        <f>SUM(E2:F2,E4:F7,E11:F11)</f>
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <f>SUM(E7:F7)-SUM(MA_RD_MF_cases!E7:F7)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22">
+        <f>SUM(E12:F12)-SUM(MA_RD_MF_cases!E12:F12)</f>
+        <v>-19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1DB36E-F7EF-B94F-B861-3827139BC8F1}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="78">
+        <v>1.0625</v>
+      </c>
+      <c r="E2" s="41">
+        <v>22</v>
+      </c>
+      <c r="F2" s="41">
+        <v>143</v>
+      </c>
+      <c r="G2" s="41">
+        <v>255</v>
+      </c>
+      <c r="H2" s="41">
+        <v>1902</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0.11821974965229486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="90">
+        <v>1.8535031847133758</v>
+      </c>
+      <c r="E3" s="41">
+        <v>46</v>
+      </c>
+      <c r="F3" s="41">
+        <v>402</v>
+      </c>
+      <c r="G3" s="41">
+        <v>255</v>
+      </c>
+      <c r="H3" s="41">
+        <v>1902</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.10267857142857142</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0.11821974965229486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="90">
+        <v>1.46</v>
+      </c>
+      <c r="E4" s="41">
+        <v>22</v>
+      </c>
+      <c r="F4" s="41">
+        <v>182</v>
+      </c>
+      <c r="G4" s="41">
+        <v>56</v>
+      </c>
+      <c r="H4" s="41">
+        <v>610</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="90">
+        <v>3.24</v>
+      </c>
+      <c r="E5" s="41">
+        <v>45</v>
+      </c>
+      <c r="F5" s="41">
+        <v>150</v>
+      </c>
+      <c r="G5" s="41">
+        <v>50</v>
+      </c>
+      <c r="H5" s="41">
+        <v>366</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="90">
+        <v>1.85</v>
+      </c>
+      <c r="E6" s="41">
+        <v>21</v>
+      </c>
+      <c r="F6" s="41">
+        <v>136</v>
+      </c>
+      <c r="G6" s="41">
+        <v>49</v>
+      </c>
+      <c r="H6" s="41">
+        <v>389</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="90">
+        <v>0.55102040816326525</v>
+      </c>
+      <c r="E7" s="41">
+        <v>19</v>
+      </c>
+      <c r="F7" s="41">
+        <v>133</v>
+      </c>
+      <c r="G7" s="41">
+        <v>122</v>
+      </c>
+      <c r="H7" s="41">
+        <v>815</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.13020277481323372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="90">
+        <v>0.86619718309859151</v>
+      </c>
+      <c r="E8" s="41">
+        <v>43</v>
+      </c>
+      <c r="F8" s="41">
+        <v>222</v>
+      </c>
+      <c r="G8" s="41">
+        <v>122</v>
+      </c>
+      <c r="H8" s="41">
+        <v>815</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.16226415094339622</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.13020277481323372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="90">
+        <v>1.87</v>
+      </c>
+      <c r="E9" s="41">
+        <v>28</v>
+      </c>
+      <c r="F9" s="41">
+        <v>207</v>
+      </c>
+      <c r="G9" s="41">
+        <v>7</v>
+      </c>
+      <c r="H9" s="41">
+        <v>50</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="90">
+        <v>2.11</v>
+      </c>
+      <c r="E10" s="41">
+        <v>40</v>
+      </c>
+      <c r="F10" s="41">
+        <v>262</v>
+      </c>
+      <c r="G10" s="41">
+        <v>45</v>
+      </c>
+      <c r="H10" s="41">
+        <v>397</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="90">
+        <v>2.8</v>
+      </c>
+      <c r="E11" s="41">
+        <v>5</v>
+      </c>
+      <c r="F11" s="41">
+        <v>14</v>
+      </c>
+      <c r="G11" s="41">
+        <v>11</v>
+      </c>
+      <c r="H11" s="41">
+        <v>76</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.12643678160919541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="90">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="E12" s="41">
+        <v>11</v>
+      </c>
+      <c r="F12" s="41">
+        <v>41</v>
+      </c>
+      <c r="G12" s="41">
+        <v>11</v>
+      </c>
+      <c r="H12" s="41">
+        <v>76</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.12643678160919541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="90">
+        <v>3.15</v>
+      </c>
+      <c r="E13" s="41">
+        <v>19</v>
+      </c>
+      <c r="F13" s="41">
+        <v>255</v>
+      </c>
+      <c r="G13" s="41">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="90">
+        <v>0.97</v>
+      </c>
+      <c r="E14" s="41">
+        <v>31</v>
+      </c>
+      <c r="F14" s="41">
+        <v>203</v>
+      </c>
+      <c r="G14" s="41">
+        <v>136</v>
+      </c>
+      <c r="H14" s="41">
+        <v>914</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f>G10+H10</f>
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDAA36-5674-0F4C-9112-EA4C27F6C29D}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="31">
+        <v>27</v>
+      </c>
+      <c r="F2" s="31">
+        <v>198</v>
+      </c>
+      <c r="G2" s="31">
+        <v>128</v>
+      </c>
+      <c r="H2" s="31">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="32">
+        <v>12</v>
+      </c>
+      <c r="F3" s="32">
+        <v>121</v>
+      </c>
+      <c r="G3" s="32">
+        <v>127</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="32">
+        <v>17</v>
+      </c>
+      <c r="F4" s="32">
+        <v>134</v>
+      </c>
+      <c r="G4" s="31">
+        <v>128</v>
+      </c>
+      <c r="H4" s="31">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="31">
+        <v>12</v>
+      </c>
+      <c r="F5" s="31">
+        <v>92</v>
+      </c>
+      <c r="G5" s="32">
+        <v>127</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15">
+        <v>105</v>
+      </c>
+      <c r="G6" s="15">
+        <v>35</v>
+      </c>
+      <c r="H6" s="15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="34">
+        <v>6</v>
+      </c>
+      <c r="F7" s="34">
+        <v>77</v>
+      </c>
+      <c r="G7" s="34">
+        <v>21</v>
+      </c>
+      <c r="H7" s="34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="34">
+        <v>18</v>
+      </c>
+      <c r="F8" s="34">
+        <v>97</v>
+      </c>
+      <c r="G8" s="34">
+        <v>66</v>
+      </c>
+      <c r="H8" s="34">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15">
+        <v>106</v>
+      </c>
+      <c r="G9" s="15">
+        <v>70</v>
+      </c>
+      <c r="H9" s="15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="35">
+        <v>15</v>
+      </c>
+      <c r="F10" s="35">
+        <v>87</v>
+      </c>
+      <c r="G10" s="35">
+        <v>37</v>
+      </c>
+      <c r="H10" s="35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="34">
+        <v>6</v>
+      </c>
+      <c r="F11" s="34">
+        <v>49</v>
+      </c>
+      <c r="G11" s="34">
+        <v>12</v>
+      </c>
+      <c r="H11" s="34">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="34">
+        <v>13</v>
+      </c>
+      <c r="F12" s="34">
+        <v>110</v>
+      </c>
+      <c r="G12" s="34">
+        <v>51</v>
+      </c>
+      <c r="H12" s="34">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15">
+        <v>30</v>
+      </c>
+      <c r="F13" s="15">
+        <v>113</v>
+      </c>
+      <c r="G13" s="15">
+        <v>69</v>
+      </c>
+      <c r="H13" s="15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="35">
+        <v>13</v>
+      </c>
+      <c r="F14" s="35">
+        <v>73</v>
+      </c>
+      <c r="G14" s="35">
+        <v>51</v>
+      </c>
+      <c r="H14" s="35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="34">
+        <v>20</v>
+      </c>
+      <c r="F15" s="34">
+        <v>117</v>
+      </c>
+      <c r="G15" s="34">
+        <v>69</v>
+      </c>
+      <c r="H15" s="34">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15">
+        <v>112</v>
+      </c>
+      <c r="G16" s="32">
+        <v>39</v>
+      </c>
+      <c r="H16" s="32">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="34">
+        <v>8</v>
+      </c>
+      <c r="F17" s="34">
+        <v>38</v>
+      </c>
+      <c r="G17" s="31">
+        <v>11</v>
+      </c>
+      <c r="H17" s="31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="34">
+        <v>19</v>
+      </c>
+      <c r="F18" s="34">
+        <v>189</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="35">
+        <v>16</v>
+      </c>
+      <c r="F20" s="35">
+        <v>137</v>
+      </c>
+      <c r="G20" s="35">
+        <v>4</v>
+      </c>
+      <c r="H20" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="34">
+        <v>12</v>
+      </c>
+      <c r="F21" s="34">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3</v>
+      </c>
+      <c r="H21" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="34">
+        <v>24</v>
+      </c>
+      <c r="F22" s="34">
+        <v>181</v>
+      </c>
+      <c r="G22" s="41">
+        <v>38</v>
+      </c>
+      <c r="H22" s="41">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="15">
+        <v>16</v>
+      </c>
+      <c r="F23" s="15">
+        <v>81</v>
+      </c>
+      <c r="G23" s="41">
+        <v>7</v>
+      </c>
+      <c r="H23" s="41">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="34">
+        <v>8</v>
+      </c>
+      <c r="F24" s="34">
+        <v>18</v>
+      </c>
+      <c r="G24" s="35">
+        <v>11</v>
+      </c>
+      <c r="H24" s="35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="34">
+        <v>3</v>
+      </c>
+      <c r="F25" s="34">
+        <v>7</v>
+      </c>
+      <c r="G25" s="34">
+        <v>4</v>
+      </c>
+      <c r="H25" s="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="34">
+        <v>8</v>
+      </c>
+      <c r="F26" s="34">
+        <v>18</v>
+      </c>
+      <c r="G26" s="35">
+        <v>11</v>
+      </c>
+      <c r="H26" s="35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="34">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34">
+        <v>12</v>
+      </c>
+      <c r="G27" s="34">
+        <v>4</v>
+      </c>
+      <c r="H27" s="34">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC49C6-505E-DC43-883F-74098BEBDD3C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <f>22+182</f>
+        <v>204</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <f>56+610</f>
+        <v>666</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <f>21+136</f>
+        <v>157</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <f>'All data'!J20</f>
+        <v>438</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'All data'!$E11</f>
+        <v>45</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'All data'!$G$11</f>
+        <v>368</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'All data'!$H$11</f>
+        <v>169</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'All data'!$J$11</f>
+        <v>1375</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>'All data'!E29</f>
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <f>'All data'!G29</f>
+        <v>418</v>
+      </c>
+      <c r="D5">
+        <f>'All data'!H29</f>
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <f>'All data'!J29</f>
+        <v>908</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <f>45+150</f>
+        <v>195</v>
+      </c>
+      <c r="D6" s="5">
+        <f>'All data'!H32</f>
+        <v>135</v>
+      </c>
+      <c r="E6" s="5">
+        <f>'All data'!J32</f>
+        <v>1026</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>302</v>
+      </c>
+      <c r="D7" s="5">
+        <f>'All data'!$H$41</f>
+        <v>144</v>
+      </c>
+      <c r="E7" s="5">
+        <f>'All data'!$J$41</f>
+        <v>1156</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <f>28+70+137</f>
+        <v>235</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>7+33+17</f>
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <f>745+533</f>
+        <v>1278</v>
+      </c>
+      <c r="C9">
+        <f>B9+3437+2408</f>
+        <v>7123</v>
+      </c>
+      <c r="D9" s="7" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <f>#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <f>'All data'!E50</f>
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <f>'All data'!G50</f>
+        <v>72</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'All data'!H50</f>
+        <v>14</v>
+      </c>
+      <c r="E10" s="9">
+        <f>'All data'!J50</f>
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078E827-9226-664E-A5DC-9CAE983779B2}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>6+77</f>
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <f>21+250</f>
+        <v>271</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f>6+49</f>
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f>12+141</f>
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'All data'!E10</f>
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'All data'!G10</f>
+        <v>158</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'All data'!$H$10</f>
+        <v>63</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'All data'!$J$10</f>
+        <v>591</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>'All data'!E28</f>
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <f>'All data'!G28</f>
+        <v>241</v>
+      </c>
+      <c r="D5">
+        <f>'All data'!H28</f>
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <f>'All data'!J28</f>
+        <v>526</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>8+38</f>
+        <v>46</v>
+      </c>
+      <c r="D6" s="5">
+        <f>'All data'!$H$31</f>
+        <v>29</v>
+      </c>
+      <c r="E6" s="5">
+        <f>'All data'!$J$31</f>
+        <v>242</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f>16+81</f>
+        <v>97</v>
+      </c>
+      <c r="D7" s="5">
+        <f>'All data'!$H$40</f>
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <f>'All data'!$J$40</f>
+        <v>372</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>533</v>
+      </c>
+      <c r="C8">
+        <f>533+2408</f>
+        <v>2941</v>
+      </c>
+      <c r="D8">
+        <f>11227</f>
+        <v>11227</v>
+      </c>
+      <c r="E8">
+        <f>D8+87449</f>
+        <v>98676</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippoabbondanza/University of St Andrews/Silvia Paracchini - gen_lang_hand_meta/GenLang_hand_preference_meta_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96B9C8-26B8-9344-AF00-E37BED3D7551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D3491-1A0F-BD42-AE49-91C8AB54852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="MA_DLD_MF_cases_new" sheetId="33" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22041CE8-1007-B941-8D24-DCB1ACEB9CF8}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2537,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE278C4-C422-1F45-A3E8-85E23634DC4D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView zoomScale="214" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippoabbondanza/University of St Andrews/Silvia Paracchini - gen_lang_hand_meta/GenLang_hand_preference_meta_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippoabbondanza/Documents/PhD/GenLang_hand_preference_meta_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D3491-1A0F-BD42-AE49-91C8AB54852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B19E03-1359-BC4E-9981-4947C336A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="MA_DLD_MF_cases_new" sheetId="33" r:id="rId1"/>
-    <sheet name="MA_RD_MF_cases_new" sheetId="34" r:id="rId2"/>
-    <sheet name="All_data" sheetId="31" r:id="rId3"/>
-    <sheet name="MA_DLD_MF_case_new_same_control" sheetId="35" r:id="rId4"/>
+    <sheet name="MA_DLD_MF_cases_new_TEDS_new" sheetId="36" r:id="rId2"/>
+    <sheet name="MA_RD_MF_cases_new" sheetId="34" r:id="rId3"/>
+    <sheet name="MA_RD_MF_cases_new_TEDS_new" sheetId="37" r:id="rId4"/>
+    <sheet name="All_data" sheetId="31" r:id="rId5"/>
+    <sheet name="MA_DLD_MF_case_new_same_control" sheetId="35" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="31">
   <si>
     <t>Manchester</t>
   </si>
@@ -226,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,26 +252,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,22 +273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22041CE8-1007-B941-8D24-DCB1ACEB9CF8}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,22 +609,22 @@
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -671,17 +651,17 @@
         <v>76</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H14" si="0">D2/(D2+E2)</f>
+        <f t="shared" ref="H2" si="0">D2/(D2+E2)</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I14" si="1">F2/(F2+G2)</f>
+        <f t="shared" ref="I2" si="1">F2/(F2+G2)</f>
         <v>0.16483516483516483</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -743,7 +723,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1084,11 +1064,469 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A2CA7-8869-6941-82CF-07CA9DE1F877}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H14" si="0">D2/(D2+E2)</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I14" si="1">F2/(F2+G2)</f>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8">
+        <v>150</v>
+      </c>
+      <c r="F3" s="8">
+        <f>SUM(All_data!G10:G11)</f>
+        <v>89</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(All_data!H10:H11)</f>
+        <v>590</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13107511045655376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8">
+        <v>255</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9343065693430656E-2</v>
+      </c>
+      <c r="I4" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8">
+        <v>207</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11914893617021277</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8">
+        <v>262</v>
+      </c>
+      <c r="F6" s="8">
+        <f>SUM(All_data!G24:G25)</f>
+        <v>98</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(All_data!H24:H25)</f>
+        <v>667</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12810457516339868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>25</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8">
+        <v>182</v>
+      </c>
+      <c r="F8" s="8">
+        <v>56</v>
+      </c>
+      <c r="G8" s="8">
+        <v>610</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>8.408408408408409E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SUM(All_data!E4:E7)</f>
+        <v>27</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(All_data!F4:F7)</f>
+        <v>214</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11203319502074689</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8">
+        <v>136</v>
+      </c>
+      <c r="F10" s="8">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8">
+        <v>389</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13375796178343949</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11187214611872145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8">
+        <v>187</v>
+      </c>
+      <c r="F11" s="8">
+        <v>143</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1031</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8">
+        <v>203</v>
+      </c>
+      <c r="F12" s="8">
+        <v>136</v>
+      </c>
+      <c r="G12" s="8">
+        <v>914</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13247863247863248</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12952380952380951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>29</v>
+      </c>
+      <c r="E13" s="8">
+        <v>165</v>
+      </c>
+      <c r="F13" s="8">
+        <v>143</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1031</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14948453608247422</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <f>All_data!E2+All_data!E3</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="8">
+        <f>All_data!F2+All_data!F3</f>
+        <v>168</v>
+      </c>
+      <c r="F14" s="8">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E921E3C-C323-724D-A57D-7A5B65D2333E}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,22 +1541,22 @@
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1224,7 +1662,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1542,7 +1980,466 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEF8BF0-2A94-F241-8888-BE96A0DA741C}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8">
+        <f>SUM(All_data!E4:E5)</f>
+        <v>22</v>
+      </c>
+      <c r="E2" s="8">
+        <f>SUM(All_data!F4:F5)</f>
+        <v>169</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H2" s="2">
+        <f>D2/(D2+E2)</f>
+        <v>0.11518324607329843</v>
+      </c>
+      <c r="I2" s="2">
+        <f>F2/(F2+G2)</f>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <f>SUM(All_data!E2:E3,All_data!E6,All_data!E7)</f>
+        <v>35</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SUM(All_data!F2:F3,All_data!F6,All_data!F7)</f>
+        <v>213</v>
+      </c>
+      <c r="F3" s="8">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H14" si="0">D3/(D3+E3)</f>
+        <v>0.14112903225806453</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I14" si="1">F3/(F3+G3)</f>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8">
+        <v>182</v>
+      </c>
+      <c r="F4" s="8">
+        <v>56</v>
+      </c>
+      <c r="G4" s="8">
+        <v>610</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>8.408408408408409E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>150</v>
+      </c>
+      <c r="F5" s="8">
+        <f>SUM(All_data!G10:G11)</f>
+        <v>89</v>
+      </c>
+      <c r="G5" s="8">
+        <f>SUM(All_data!H10:H11)</f>
+        <v>590</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13107511045655376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8">
+        <v>136</v>
+      </c>
+      <c r="F6" s="8">
+        <v>49</v>
+      </c>
+      <c r="G6" s="8">
+        <v>389</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13375796178343949</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11187214611872145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>132</v>
+      </c>
+      <c r="F7" s="8">
+        <v>143</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1031</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8">
+        <v>218</v>
+      </c>
+      <c r="F8" s="8">
+        <v>143</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1031</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16475095785440613</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8">
+        <v>207</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11914893617021277</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8">
+        <v>262</v>
+      </c>
+      <c r="F10" s="8">
+        <f>SUM(All_data!G24:G25)</f>
+        <v>98</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(All_data!H24:H25)</f>
+        <v>667</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12810457516339868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8">
+        <v>76</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8">
+        <v>255</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9343065693430656E-2</v>
+      </c>
+      <c r="I13" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8">
+        <v>203</v>
+      </c>
+      <c r="F14" s="8">
+        <v>136</v>
+      </c>
+      <c r="G14" s="8">
+        <v>914</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13247863247863248</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12952380952380951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEA9B62-46B7-C34A-818B-01E939BEC29F}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -1565,16 +2462,16 @@
       <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -1929,16 +2826,16 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>19</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>189</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <v>0</v>
       </c>
       <c r="I12" s="10">
@@ -1997,16 +2894,16 @@
       <c r="D14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="11">
         <v>18</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="11">
         <v>97</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="11">
         <v>66</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="11">
         <v>450</v>
       </c>
       <c r="I14" s="10">
@@ -2065,10 +2962,10 @@
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>15</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>87</v>
       </c>
       <c r="G16" s="11">
@@ -2167,16 +3064,16 @@
       <c r="D19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19">
         <v>23</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19">
         <v>80</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19">
         <v>71</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19">
         <v>485</v>
       </c>
       <c r="I19" s="10">
@@ -2207,10 +3104,10 @@
       <c r="F20" s="11">
         <v>73</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20">
         <v>51</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20">
         <v>330</v>
       </c>
       <c r="I20" s="10">
@@ -2269,16 +3166,16 @@
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <v>16</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="16">
         <v>137</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <v>4</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="16">
         <v>33</v>
       </c>
       <c r="I22" s="10">
@@ -2411,10 +3308,10 @@
       <c r="F26" s="11">
         <v>18</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="16">
         <v>11</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="16">
         <v>37</v>
       </c>
       <c r="I26" s="10">
@@ -2479,10 +3376,10 @@
       <c r="F28" s="11">
         <v>18</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="16">
         <v>11</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="16">
         <v>37</v>
       </c>
       <c r="I28" s="10">
@@ -2533,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE278C4-C422-1F45-A3E8-85E23634DC4D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2553,22 +3450,22 @@
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2605,7 +3502,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2667,7 +3564,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippoabbondanza/Documents/PhD/GenLang_hand_preference_meta_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B19E03-1359-BC4E-9981-4947C336A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249BAB3-7521-2240-8685-4E5C7603105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="2" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="MA_DLD_MF_cases_new" sheetId="33" r:id="rId1"/>
     <sheet name="MA_DLD_MF_cases_new_TEDS_new" sheetId="36" r:id="rId2"/>
-    <sheet name="MA_RD_MF_cases_new" sheetId="34" r:id="rId3"/>
-    <sheet name="MA_RD_MF_cases_new_TEDS_new" sheetId="37" r:id="rId4"/>
-    <sheet name="All_data" sheetId="31" r:id="rId5"/>
-    <sheet name="MA_DLD_MF_case_new_same_control" sheetId="35" r:id="rId6"/>
+    <sheet name="MA_DLD_MF_cases_new_TED_MAN_new" sheetId="38" r:id="rId3"/>
+    <sheet name="MA_RD_MF_cases_new" sheetId="34" r:id="rId4"/>
+    <sheet name="MA_RD_MF_cases_new_TEDS_new" sheetId="37" r:id="rId5"/>
+    <sheet name="MA_RD_MF_cases_new_TED_MAN_new" sheetId="39" r:id="rId6"/>
+    <sheet name="All_data" sheetId="31" r:id="rId7"/>
+    <sheet name="MA_DLD_MF_case_new_same_control" sheetId="35" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="31">
   <si>
     <t>Manchester</t>
   </si>
@@ -137,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +173,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +289,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A2CA7-8869-6941-82CF-07CA9DE1F877}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,6 +1556,459 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5C782B-6C34-3C4F-850A-E8F38536755F}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="24">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24">
+        <v>30</v>
+      </c>
+      <c r="F2" s="24">
+        <v>15</v>
+      </c>
+      <c r="G2" s="24">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H14" si="0">D2/(D2+E2)</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I14" si="1">F2/(F2+G2)</f>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="24">
+        <v>34</v>
+      </c>
+      <c r="E3" s="24">
+        <v>133</v>
+      </c>
+      <c r="F3" s="8">
+        <v>93</v>
+      </c>
+      <c r="G3" s="8">
+        <v>586</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20359281437125748</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13696612665684832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>22</v>
+      </c>
+      <c r="E4" s="24">
+        <v>255</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9422382671480149E-2</v>
+      </c>
+      <c r="I4" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24">
+        <v>207</v>
+      </c>
+      <c r="F5" s="24">
+        <v>7</v>
+      </c>
+      <c r="G5" s="24">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11914893617021277</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="24">
+        <v>40</v>
+      </c>
+      <c r="E6" s="24">
+        <v>262</v>
+      </c>
+      <c r="F6" s="24">
+        <f>SUM(All_data!G24:G25)</f>
+        <v>98</v>
+      </c>
+      <c r="G6" s="24">
+        <f>SUM(All_data!H24:H25)</f>
+        <v>667</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12810457516339868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24">
+        <v>25</v>
+      </c>
+      <c r="F7" s="24">
+        <v>15</v>
+      </c>
+      <c r="G7" s="24">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24">
+        <v>22</v>
+      </c>
+      <c r="E8" s="24">
+        <v>182</v>
+      </c>
+      <c r="F8" s="24">
+        <v>56</v>
+      </c>
+      <c r="G8" s="24">
+        <v>610</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>8.408408408408409E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="24">
+        <f>SUM(All_data!E4:E7)</f>
+        <v>27</v>
+      </c>
+      <c r="E9" s="24">
+        <f>SUM(All_data!F4:F7)</f>
+        <v>214</v>
+      </c>
+      <c r="F9" s="24">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G9" s="24">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11203319502074689</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24">
+        <v>136</v>
+      </c>
+      <c r="F10" s="24">
+        <v>49</v>
+      </c>
+      <c r="G10" s="24">
+        <v>389</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13375796178343949</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11187214611872145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="24">
+        <v>34</v>
+      </c>
+      <c r="E11" s="24">
+        <v>187</v>
+      </c>
+      <c r="F11" s="24">
+        <v>143</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1031</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="24">
+        <v>31</v>
+      </c>
+      <c r="E12" s="24">
+        <v>203</v>
+      </c>
+      <c r="F12" s="24">
+        <v>136</v>
+      </c>
+      <c r="G12" s="24">
+        <v>914</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13247863247863248</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12952380952380951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="24">
+        <v>29</v>
+      </c>
+      <c r="E13" s="24">
+        <v>165</v>
+      </c>
+      <c r="F13" s="24">
+        <v>143</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1031</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14948453608247422</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24">
+        <f>All_data!E2+All_data!E3</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="24">
+        <f>All_data!F2+All_data!F3</f>
+        <v>168</v>
+      </c>
+      <c r="F14" s="24">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G14" s="24">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E921E3C-C323-724D-A57D-7A5B65D2333E}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -1980,12 +2467,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEF8BF0-2A94-F241-8888-BE96A0DA741C}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2439,7 +2926,464 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C1CC6-817E-E34D-A34A-7D5B7E657970}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8">
+        <f>SUM(All_data!E4:E5)</f>
+        <v>22</v>
+      </c>
+      <c r="E2" s="8">
+        <f>SUM(All_data!F4:F5)</f>
+        <v>169</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H2" s="2">
+        <f>D2/(D2+E2)</f>
+        <v>0.11518324607329843</v>
+      </c>
+      <c r="I2" s="2">
+        <f>F2/(F2+G2)</f>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <f>SUM(All_data!E2:E3,All_data!E6,All_data!E7)</f>
+        <v>35</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SUM(All_data!F2:F3,All_data!F6,All_data!F7)</f>
+        <v>213</v>
+      </c>
+      <c r="F3" s="8">
+        <f>SUM(All_data!G4:G5)</f>
+        <v>112</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(All_data!H4:H5)</f>
+        <v>749</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H14" si="0">D3/(D3+E3)</f>
+        <v>0.14112903225806453</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I14" si="1">F3/(F3+G3)</f>
+        <v>0.13008130081300814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8">
+        <v>182</v>
+      </c>
+      <c r="F4" s="8">
+        <v>56</v>
+      </c>
+      <c r="G4" s="8">
+        <v>610</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>8.408408408408409E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="24">
+        <v>34</v>
+      </c>
+      <c r="E5" s="24">
+        <v>133</v>
+      </c>
+      <c r="F5" s="8">
+        <v>93</v>
+      </c>
+      <c r="G5" s="8">
+        <v>586</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20359281437125748</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13696612665684832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8">
+        <v>136</v>
+      </c>
+      <c r="F6" s="8">
+        <v>49</v>
+      </c>
+      <c r="G6" s="8">
+        <v>389</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13375796178343949</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11187214611872145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>132</v>
+      </c>
+      <c r="F7" s="8">
+        <v>143</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1031</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8">
+        <v>218</v>
+      </c>
+      <c r="F8" s="8">
+        <v>143</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1031</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16475095785440613</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12180579216354344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8">
+        <v>207</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11914893617021277</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8">
+        <v>262</v>
+      </c>
+      <c r="F10" s="8">
+        <f>SUM(All_data!G24:G25)</f>
+        <v>98</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(All_data!H24:H25)</f>
+        <v>667</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12810457516339868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8">
+        <v>76</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16483516483516483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8">
+        <v>255</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9422382671480149E-2</v>
+      </c>
+      <c r="I13" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8">
+        <v>203</v>
+      </c>
+      <c r="F14" s="8">
+        <v>136</v>
+      </c>
+      <c r="G14" s="8">
+        <v>914</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13247863247863248</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12952380952380951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEA9B62-46B7-C34A-818B-01E939BEC29F}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -3430,7 +4374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE278C4-C422-1F45-A3E8-85E23634DC4D}">
   <dimension ref="A1:J15"/>
   <sheetViews>

--- a/genlang_all_cohorts_updated.xlsx
+++ b/genlang_all_cohorts_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippoabbondanza/Documents/PhD/GenLang_hand_preference_meta_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249BAB3-7521-2240-8685-4E5C7603105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A632327-72CE-AD4E-86F5-F762D389C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="2" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="5" xr2:uid="{A6332151-AACC-E14E-B3DF-3D4980E70093}"/>
   </bookViews>
   <sheets>
     <sheet name="MA_DLD_MF_cases_new" sheetId="33" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5C782B-6C34-3C4F-850A-E8F38536755F}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,8 +1666,8 @@
       <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
-        <v>22</v>
+      <c r="D4" s="24">
+        <v>19</v>
       </c>
       <c r="E4" s="24">
         <v>255</v>
@@ -1676,7 +1676,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>7.9422382671480149E-2</v>
+        <v>6.9343065693430656E-2</v>
       </c>
       <c r="I4" s="2" t="e">
         <f t="shared" si="1"/>
@@ -2930,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C1CC6-817E-E34D-A34A-7D5B7E657970}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
